--- a/Report/Register_Booking.xlsx
+++ b/Report/Register_Booking.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="278">
   <si>
     <t>Document ID</t>
   </si>
@@ -1338,6 +1338,44 @@
   <si>
     <t>Khi đã chọn loại nhà ở thì button này enable, khi nhấn transit màn hình [MMA-018-Truck selection]</t>
   </si>
+  <si>
+    <t>MMA-018-Truck selection</t>
+  </si>
+  <si>
+    <t>MMA-018-Truck selection-1</t>
+  </si>
+  <si>
+    <t>Transit màn hình [MMA-017-OrderInfor]</t>
+  </si>
+  <si>
+    <t>MMA-018-Truck selection-2</t>
+  </si>
+  <si>
+    <t>Loại xe</t>
+  </si>
+  <si>
+    <t>Loại xe có:
+Xe van 500kg
+Xe van 1000kg
+Xe tải 500kg
+Xe tải 1000kg
+Xe tải 2000kg
+Xe tải 2500kg
+Khi chọn sẽ hiển thị loại xe được enable và số lượng xe phía dưới loại xe đó
+range số lượng xe [1-10] và báo giá xe dựa trên sheet [phí chuyển nhà] file [đồ án]</t>
+  </si>
+  <si>
+    <t>MMA-018-Truck selection-3</t>
+  </si>
+  <si>
+    <t>Bước tiếp theo</t>
+  </si>
+  <si>
+    <t>Transit màn hình [MMA-020-Truck]</t>
+  </si>
+  <si>
+    <t>MMA-020-Truck</t>
+  </si>
 </sst>
 </file>
 
@@ -2400,7 +2438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2523,6 +2561,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -17781,6 +17831,776 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>594995</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>603885</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>31115</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23802340" y="6002655"/>
+          <a:ext cx="618490" cy="2540"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>66040</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>447040</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24492585" y="3081020"/>
+          <a:ext cx="2209800" cy="4709160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="29428440"/>
+          <a:ext cx="1853565" cy="3677285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38735</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>280670</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Oval 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="648335" y="29433520"/>
+          <a:ext cx="241935" cy="194310"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>424180</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Oval 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1643380" y="29911675"/>
+          <a:ext cx="156845" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104140</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>107315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>259715</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Oval 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1932940" y="32827595"/>
+          <a:ext cx="155575" cy="142240"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>109220</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>431165</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2547620" y="30598745"/>
+          <a:ext cx="2425065" cy="748665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>108585</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414655</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2546985" y="31579185"/>
+          <a:ext cx="2409190" cy="688340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654685</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="34183320"/>
+          <a:ext cx="3199765" cy="4896485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18055,206 +18875,206 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="119"/>
-      <c r="C14" s="120" t="s">
+      <c r="B14" s="123"/>
+      <c r="C14" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="121">
+      <c r="D14" s="125">
         <v>1</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="119"/>
-      <c r="C15" s="120" t="s">
+      <c r="B15" s="123"/>
+      <c r="C15" s="124" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="119"/>
-      <c r="C16" s="120" t="s">
+      <c r="B16" s="123"/>
+      <c r="C16" s="124" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="119"/>
-      <c r="C17" s="120" t="s">
+      <c r="B17" s="123"/>
+      <c r="C17" s="124" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="119"/>
-      <c r="C18" s="120" t="s">
+      <c r="B18" s="123"/>
+      <c r="C18" s="124" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="119"/>
-      <c r="C19" s="120" t="s">
+      <c r="B19" s="123"/>
+      <c r="C19" s="124" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="119"/>
-      <c r="C20" s="120" t="s">
+      <c r="B20" s="123"/>
+      <c r="C20" s="124" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="119"/>
-      <c r="C21" s="120" t="s">
+      <c r="B21" s="123"/>
+      <c r="C21" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18268,7 +19088,7 @@
   <sheetPr/>
   <dimension ref="A1:AB323"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="25" topLeftCell="A124" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="25" topLeftCell="A152" workbookViewId="0">
       <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
@@ -18692,18 +19512,18 @@
       <c r="R49" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="S49" s="91" t="s">
+      <c r="S49" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="T49" s="92"/>
-      <c r="U49" s="92"/>
-      <c r="V49" s="92"/>
-      <c r="W49" s="92"/>
-      <c r="X49" s="92"/>
-      <c r="Y49" s="92"/>
-      <c r="Z49" s="92"/>
-      <c r="AA49" s="92"/>
-      <c r="AB49" s="93"/>
+      <c r="T49" s="96"/>
+      <c r="U49" s="96"/>
+      <c r="V49" s="96"/>
+      <c r="W49" s="96"/>
+      <c r="X49" s="96"/>
+      <c r="Y49" s="96"/>
+      <c r="Z49" s="96"/>
+      <c r="AA49" s="96"/>
+      <c r="AB49" s="97"/>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="12" t="s">
@@ -18783,18 +19603,18 @@
       <c r="R72" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="S72" s="91" t="s">
+      <c r="S72" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="T72" s="92"/>
-      <c r="U72" s="92"/>
-      <c r="V72" s="92"/>
-      <c r="W72" s="92"/>
-      <c r="X72" s="92"/>
-      <c r="Y72" s="92"/>
-      <c r="Z72" s="92"/>
-      <c r="AA72" s="92"/>
-      <c r="AB72" s="93"/>
+      <c r="T72" s="96"/>
+      <c r="U72" s="96"/>
+      <c r="V72" s="96"/>
+      <c r="W72" s="96"/>
+      <c r="X72" s="96"/>
+      <c r="Y72" s="96"/>
+      <c r="Z72" s="96"/>
+      <c r="AA72" s="96"/>
+      <c r="AB72" s="97"/>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="12" t="s">
@@ -18874,18 +19694,18 @@
       <c r="R98" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="S98" s="91" t="s">
+      <c r="S98" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="T98" s="92"/>
-      <c r="U98" s="92"/>
-      <c r="V98" s="92"/>
-      <c r="W98" s="92"/>
-      <c r="X98" s="92"/>
-      <c r="Y98" s="92"/>
-      <c r="Z98" s="92"/>
-      <c r="AA98" s="92"/>
-      <c r="AB98" s="93"/>
+      <c r="T98" s="96"/>
+      <c r="U98" s="96"/>
+      <c r="V98" s="96"/>
+      <c r="W98" s="96"/>
+      <c r="X98" s="96"/>
+      <c r="Y98" s="96"/>
+      <c r="Z98" s="96"/>
+      <c r="AA98" s="96"/>
+      <c r="AB98" s="97"/>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="12" t="s">
@@ -18965,18 +19785,18 @@
       <c r="R124" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="S124" s="91" t="s">
+      <c r="S124" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="T124" s="92"/>
-      <c r="U124" s="92"/>
-      <c r="V124" s="92"/>
-      <c r="W124" s="92"/>
-      <c r="X124" s="92"/>
-      <c r="Y124" s="92"/>
-      <c r="Z124" s="92"/>
-      <c r="AA124" s="92"/>
-      <c r="AB124" s="93"/>
+      <c r="T124" s="96"/>
+      <c r="U124" s="96"/>
+      <c r="V124" s="96"/>
+      <c r="W124" s="96"/>
+      <c r="X124" s="96"/>
+      <c r="Y124" s="96"/>
+      <c r="Z124" s="96"/>
+      <c r="AA124" s="96"/>
+      <c r="AB124" s="97"/>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="12" t="s">
@@ -19056,18 +19876,18 @@
       <c r="R150" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="S150" s="91" t="s">
+      <c r="S150" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="T150" s="92"/>
-      <c r="U150" s="92"/>
-      <c r="V150" s="92"/>
-      <c r="W150" s="92"/>
-      <c r="X150" s="92"/>
-      <c r="Y150" s="92"/>
-      <c r="Z150" s="92"/>
-      <c r="AA150" s="92"/>
-      <c r="AB150" s="93"/>
+      <c r="T150" s="96"/>
+      <c r="U150" s="96"/>
+      <c r="V150" s="96"/>
+      <c r="W150" s="96"/>
+      <c r="X150" s="96"/>
+      <c r="Y150" s="96"/>
+      <c r="Z150" s="96"/>
+      <c r="AA150" s="96"/>
+      <c r="AB150" s="97"/>
     </row>
     <row r="151" spans="8:28">
       <c r="H151" s="41">
@@ -19099,18 +19919,18 @@
       <c r="R151" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="S151" s="47" t="s">
+      <c r="S151" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="T151" s="47"/>
-      <c r="U151" s="47"/>
-      <c r="V151" s="47"/>
-      <c r="W151" s="47"/>
-      <c r="X151" s="47"/>
-      <c r="Y151" s="47"/>
-      <c r="Z151" s="47"/>
-      <c r="AA151" s="47"/>
-      <c r="AB151" s="47"/>
+      <c r="T151" s="51"/>
+      <c r="U151" s="51"/>
+      <c r="V151" s="51"/>
+      <c r="W151" s="51"/>
+      <c r="X151" s="51"/>
+      <c r="Y151" s="51"/>
+      <c r="Z151" s="51"/>
+      <c r="AA151" s="51"/>
+      <c r="AB151" s="51"/>
     </row>
     <row r="152" spans="8:28">
       <c r="H152" s="41"/>
@@ -19124,16 +19944,16 @@
       <c r="P152" s="41"/>
       <c r="Q152" s="41"/>
       <c r="R152" s="41"/>
-      <c r="S152" s="47"/>
-      <c r="T152" s="47"/>
-      <c r="U152" s="47"/>
-      <c r="V152" s="47"/>
-      <c r="W152" s="47"/>
-      <c r="X152" s="47"/>
-      <c r="Y152" s="47"/>
-      <c r="Z152" s="47"/>
-      <c r="AA152" s="47"/>
-      <c r="AB152" s="47"/>
+      <c r="S152" s="51"/>
+      <c r="T152" s="51"/>
+      <c r="U152" s="51"/>
+      <c r="V152" s="51"/>
+      <c r="W152" s="51"/>
+      <c r="X152" s="51"/>
+      <c r="Y152" s="51"/>
+      <c r="Z152" s="51"/>
+      <c r="AA152" s="51"/>
+      <c r="AB152" s="51"/>
     </row>
     <row r="153" spans="8:28">
       <c r="H153" s="41"/>
@@ -19147,16 +19967,16 @@
       <c r="P153" s="41"/>
       <c r="Q153" s="41"/>
       <c r="R153" s="41"/>
-      <c r="S153" s="47"/>
-      <c r="T153" s="47"/>
-      <c r="U153" s="47"/>
-      <c r="V153" s="47"/>
-      <c r="W153" s="47"/>
-      <c r="X153" s="47"/>
-      <c r="Y153" s="47"/>
-      <c r="Z153" s="47"/>
-      <c r="AA153" s="47"/>
-      <c r="AB153" s="47"/>
+      <c r="S153" s="51"/>
+      <c r="T153" s="51"/>
+      <c r="U153" s="51"/>
+      <c r="V153" s="51"/>
+      <c r="W153" s="51"/>
+      <c r="X153" s="51"/>
+      <c r="Y153" s="51"/>
+      <c r="Z153" s="51"/>
+      <c r="AA153" s="51"/>
+      <c r="AB153" s="51"/>
     </row>
     <row r="154" spans="8:28">
       <c r="H154" s="41"/>
@@ -19170,16 +19990,16 @@
       <c r="P154" s="41"/>
       <c r="Q154" s="41"/>
       <c r="R154" s="41"/>
-      <c r="S154" s="47"/>
-      <c r="T154" s="47"/>
-      <c r="U154" s="47"/>
-      <c r="V154" s="47"/>
-      <c r="W154" s="47"/>
-      <c r="X154" s="47"/>
-      <c r="Y154" s="47"/>
-      <c r="Z154" s="47"/>
-      <c r="AA154" s="47"/>
-      <c r="AB154" s="47"/>
+      <c r="S154" s="51"/>
+      <c r="T154" s="51"/>
+      <c r="U154" s="51"/>
+      <c r="V154" s="51"/>
+      <c r="W154" s="51"/>
+      <c r="X154" s="51"/>
+      <c r="Y154" s="51"/>
+      <c r="Z154" s="51"/>
+      <c r="AA154" s="51"/>
+      <c r="AB154" s="51"/>
     </row>
     <row r="155" spans="8:28">
       <c r="H155" s="41"/>
@@ -19193,16 +20013,16 @@
       <c r="P155" s="41"/>
       <c r="Q155" s="41"/>
       <c r="R155" s="41"/>
-      <c r="S155" s="47"/>
-      <c r="T155" s="47"/>
-      <c r="U155" s="47"/>
-      <c r="V155" s="47"/>
-      <c r="W155" s="47"/>
-      <c r="X155" s="47"/>
-      <c r="Y155" s="47"/>
-      <c r="Z155" s="47"/>
-      <c r="AA155" s="47"/>
-      <c r="AB155" s="47"/>
+      <c r="S155" s="51"/>
+      <c r="T155" s="51"/>
+      <c r="U155" s="51"/>
+      <c r="V155" s="51"/>
+      <c r="W155" s="51"/>
+      <c r="X155" s="51"/>
+      <c r="Y155" s="51"/>
+      <c r="Z155" s="51"/>
+      <c r="AA155" s="51"/>
+      <c r="AB155" s="51"/>
     </row>
     <row r="156" spans="8:28">
       <c r="H156" s="41"/>
@@ -19216,16 +20036,16 @@
       <c r="P156" s="41"/>
       <c r="Q156" s="41"/>
       <c r="R156" s="41"/>
-      <c r="S156" s="47"/>
-      <c r="T156" s="47"/>
-      <c r="U156" s="47"/>
-      <c r="V156" s="47"/>
-      <c r="W156" s="47"/>
-      <c r="X156" s="47"/>
-      <c r="Y156" s="47"/>
-      <c r="Z156" s="47"/>
-      <c r="AA156" s="47"/>
-      <c r="AB156" s="47"/>
+      <c r="S156" s="51"/>
+      <c r="T156" s="51"/>
+      <c r="U156" s="51"/>
+      <c r="V156" s="51"/>
+      <c r="W156" s="51"/>
+      <c r="X156" s="51"/>
+      <c r="Y156" s="51"/>
+      <c r="Z156" s="51"/>
+      <c r="AA156" s="51"/>
+      <c r="AB156" s="51"/>
     </row>
     <row r="157" spans="8:28">
       <c r="H157" s="41"/>
@@ -19239,16 +20059,16 @@
       <c r="P157" s="41"/>
       <c r="Q157" s="41"/>
       <c r="R157" s="41"/>
-      <c r="S157" s="47"/>
-      <c r="T157" s="47"/>
-      <c r="U157" s="47"/>
-      <c r="V157" s="47"/>
-      <c r="W157" s="47"/>
-      <c r="X157" s="47"/>
-      <c r="Y157" s="47"/>
-      <c r="Z157" s="47"/>
-      <c r="AA157" s="47"/>
-      <c r="AB157" s="47"/>
+      <c r="S157" s="51"/>
+      <c r="T157" s="51"/>
+      <c r="U157" s="51"/>
+      <c r="V157" s="51"/>
+      <c r="W157" s="51"/>
+      <c r="X157" s="51"/>
+      <c r="Y157" s="51"/>
+      <c r="Z157" s="51"/>
+      <c r="AA157" s="51"/>
+      <c r="AB157" s="51"/>
     </row>
     <row r="158" spans="8:28">
       <c r="H158" s="41"/>
@@ -19262,16 +20082,16 @@
       <c r="P158" s="41"/>
       <c r="Q158" s="41"/>
       <c r="R158" s="41"/>
-      <c r="S158" s="47"/>
-      <c r="T158" s="47"/>
-      <c r="U158" s="47"/>
-      <c r="V158" s="47"/>
-      <c r="W158" s="47"/>
-      <c r="X158" s="47"/>
-      <c r="Y158" s="47"/>
-      <c r="Z158" s="47"/>
-      <c r="AA158" s="47"/>
-      <c r="AB158" s="47"/>
+      <c r="S158" s="51"/>
+      <c r="T158" s="51"/>
+      <c r="U158" s="51"/>
+      <c r="V158" s="51"/>
+      <c r="W158" s="51"/>
+      <c r="X158" s="51"/>
+      <c r="Y158" s="51"/>
+      <c r="Z158" s="51"/>
+      <c r="AA158" s="51"/>
+      <c r="AB158" s="51"/>
     </row>
     <row r="159" spans="8:28">
       <c r="H159" s="41"/>
@@ -19285,16 +20105,16 @@
       <c r="P159" s="41"/>
       <c r="Q159" s="41"/>
       <c r="R159" s="41"/>
-      <c r="S159" s="47"/>
-      <c r="T159" s="47"/>
-      <c r="U159" s="47"/>
-      <c r="V159" s="47"/>
-      <c r="W159" s="47"/>
-      <c r="X159" s="47"/>
-      <c r="Y159" s="47"/>
-      <c r="Z159" s="47"/>
-      <c r="AA159" s="47"/>
-      <c r="AB159" s="47"/>
+      <c r="S159" s="51"/>
+      <c r="T159" s="51"/>
+      <c r="U159" s="51"/>
+      <c r="V159" s="51"/>
+      <c r="W159" s="51"/>
+      <c r="X159" s="51"/>
+      <c r="Y159" s="51"/>
+      <c r="Z159" s="51"/>
+      <c r="AA159" s="51"/>
+      <c r="AB159" s="51"/>
     </row>
     <row r="160" spans="8:28">
       <c r="H160" s="41"/>
@@ -19308,16 +20128,16 @@
       <c r="P160" s="41"/>
       <c r="Q160" s="41"/>
       <c r="R160" s="41"/>
-      <c r="S160" s="47"/>
-      <c r="T160" s="47"/>
-      <c r="U160" s="47"/>
-      <c r="V160" s="47"/>
-      <c r="W160" s="47"/>
-      <c r="X160" s="47"/>
-      <c r="Y160" s="47"/>
-      <c r="Z160" s="47"/>
-      <c r="AA160" s="47"/>
-      <c r="AB160" s="47"/>
+      <c r="S160" s="51"/>
+      <c r="T160" s="51"/>
+      <c r="U160" s="51"/>
+      <c r="V160" s="51"/>
+      <c r="W160" s="51"/>
+      <c r="X160" s="51"/>
+      <c r="Y160" s="51"/>
+      <c r="Z160" s="51"/>
+      <c r="AA160" s="51"/>
+      <c r="AB160" s="51"/>
     </row>
     <row r="161" spans="8:28">
       <c r="H161" s="41"/>
@@ -19331,16 +20151,16 @@
       <c r="P161" s="41"/>
       <c r="Q161" s="41"/>
       <c r="R161" s="41"/>
-      <c r="S161" s="47"/>
-      <c r="T161" s="47"/>
-      <c r="U161" s="47"/>
-      <c r="V161" s="47"/>
-      <c r="W161" s="47"/>
-      <c r="X161" s="47"/>
-      <c r="Y161" s="47"/>
-      <c r="Z161" s="47"/>
-      <c r="AA161" s="47"/>
-      <c r="AB161" s="47"/>
+      <c r="S161" s="51"/>
+      <c r="T161" s="51"/>
+      <c r="U161" s="51"/>
+      <c r="V161" s="51"/>
+      <c r="W161" s="51"/>
+      <c r="X161" s="51"/>
+      <c r="Y161" s="51"/>
+      <c r="Z161" s="51"/>
+      <c r="AA161" s="51"/>
+      <c r="AB161" s="51"/>
     </row>
     <row r="162" spans="8:28">
       <c r="H162" s="41"/>
@@ -19354,16 +20174,16 @@
       <c r="P162" s="41"/>
       <c r="Q162" s="41"/>
       <c r="R162" s="41"/>
-      <c r="S162" s="47"/>
-      <c r="T162" s="47"/>
-      <c r="U162" s="47"/>
-      <c r="V162" s="47"/>
-      <c r="W162" s="47"/>
-      <c r="X162" s="47"/>
-      <c r="Y162" s="47"/>
-      <c r="Z162" s="47"/>
-      <c r="AA162" s="47"/>
-      <c r="AB162" s="47"/>
+      <c r="S162" s="51"/>
+      <c r="T162" s="51"/>
+      <c r="U162" s="51"/>
+      <c r="V162" s="51"/>
+      <c r="W162" s="51"/>
+      <c r="X162" s="51"/>
+      <c r="Y162" s="51"/>
+      <c r="Z162" s="51"/>
+      <c r="AA162" s="51"/>
+      <c r="AB162" s="51"/>
     </row>
     <row r="163" spans="8:28">
       <c r="H163" s="41"/>
@@ -19377,16 +20197,16 @@
       <c r="P163" s="41"/>
       <c r="Q163" s="41"/>
       <c r="R163" s="41"/>
-      <c r="S163" s="47"/>
-      <c r="T163" s="47"/>
-      <c r="U163" s="47"/>
-      <c r="V163" s="47"/>
-      <c r="W163" s="47"/>
-      <c r="X163" s="47"/>
-      <c r="Y163" s="47"/>
-      <c r="Z163" s="47"/>
-      <c r="AA163" s="47"/>
-      <c r="AB163" s="47"/>
+      <c r="S163" s="51"/>
+      <c r="T163" s="51"/>
+      <c r="U163" s="51"/>
+      <c r="V163" s="51"/>
+      <c r="W163" s="51"/>
+      <c r="X163" s="51"/>
+      <c r="Y163" s="51"/>
+      <c r="Z163" s="51"/>
+      <c r="AA163" s="51"/>
+      <c r="AB163" s="51"/>
     </row>
     <row r="164" spans="8:28">
       <c r="H164" s="41"/>
@@ -19400,16 +20220,16 @@
       <c r="P164" s="41"/>
       <c r="Q164" s="41"/>
       <c r="R164" s="41"/>
-      <c r="S164" s="47"/>
-      <c r="T164" s="47"/>
-      <c r="U164" s="47"/>
-      <c r="V164" s="47"/>
-      <c r="W164" s="47"/>
-      <c r="X164" s="47"/>
-      <c r="Y164" s="47"/>
-      <c r="Z164" s="47"/>
-      <c r="AA164" s="47"/>
-      <c r="AB164" s="47"/>
+      <c r="S164" s="51"/>
+      <c r="T164" s="51"/>
+      <c r="U164" s="51"/>
+      <c r="V164" s="51"/>
+      <c r="W164" s="51"/>
+      <c r="X164" s="51"/>
+      <c r="Y164" s="51"/>
+      <c r="Z164" s="51"/>
+      <c r="AA164" s="51"/>
+      <c r="AB164" s="51"/>
     </row>
     <row r="165" spans="8:28">
       <c r="H165" s="41">
@@ -19441,18 +20261,18 @@
       <c r="R165" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="S165" s="47" t="s">
+      <c r="S165" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="T165" s="47"/>
-      <c r="U165" s="47"/>
-      <c r="V165" s="47"/>
-      <c r="W165" s="47"/>
-      <c r="X165" s="47"/>
-      <c r="Y165" s="47"/>
-      <c r="Z165" s="47"/>
-      <c r="AA165" s="47"/>
-      <c r="AB165" s="47"/>
+      <c r="T165" s="51"/>
+      <c r="U165" s="51"/>
+      <c r="V165" s="51"/>
+      <c r="W165" s="51"/>
+      <c r="X165" s="51"/>
+      <c r="Y165" s="51"/>
+      <c r="Z165" s="51"/>
+      <c r="AA165" s="51"/>
+      <c r="AB165" s="51"/>
     </row>
     <row r="166" spans="8:28">
       <c r="H166" s="41"/>
@@ -19466,16 +20286,16 @@
       <c r="P166" s="41"/>
       <c r="Q166" s="41"/>
       <c r="R166" s="41"/>
-      <c r="S166" s="47"/>
-      <c r="T166" s="47"/>
-      <c r="U166" s="47"/>
-      <c r="V166" s="47"/>
-      <c r="W166" s="47"/>
-      <c r="X166" s="47"/>
-      <c r="Y166" s="47"/>
-      <c r="Z166" s="47"/>
-      <c r="AA166" s="47"/>
-      <c r="AB166" s="47"/>
+      <c r="S166" s="51"/>
+      <c r="T166" s="51"/>
+      <c r="U166" s="51"/>
+      <c r="V166" s="51"/>
+      <c r="W166" s="51"/>
+      <c r="X166" s="51"/>
+      <c r="Y166" s="51"/>
+      <c r="Z166" s="51"/>
+      <c r="AA166" s="51"/>
+      <c r="AB166" s="51"/>
     </row>
     <row r="167" spans="8:28">
       <c r="H167" s="41"/>
@@ -19489,16 +20309,16 @@
       <c r="P167" s="41"/>
       <c r="Q167" s="41"/>
       <c r="R167" s="41"/>
-      <c r="S167" s="47"/>
-      <c r="T167" s="47"/>
-      <c r="U167" s="47"/>
-      <c r="V167" s="47"/>
-      <c r="W167" s="47"/>
-      <c r="X167" s="47"/>
-      <c r="Y167" s="47"/>
-      <c r="Z167" s="47"/>
-      <c r="AA167" s="47"/>
-      <c r="AB167" s="47"/>
+      <c r="S167" s="51"/>
+      <c r="T167" s="51"/>
+      <c r="U167" s="51"/>
+      <c r="V167" s="51"/>
+      <c r="W167" s="51"/>
+      <c r="X167" s="51"/>
+      <c r="Y167" s="51"/>
+      <c r="Z167" s="51"/>
+      <c r="AA167" s="51"/>
+      <c r="AB167" s="51"/>
     </row>
     <row r="168" spans="8:28">
       <c r="H168" s="41"/>
@@ -19512,16 +20332,16 @@
       <c r="P168" s="41"/>
       <c r="Q168" s="41"/>
       <c r="R168" s="41"/>
-      <c r="S168" s="47"/>
-      <c r="T168" s="47"/>
-      <c r="U168" s="47"/>
-      <c r="V168" s="47"/>
-      <c r="W168" s="47"/>
-      <c r="X168" s="47"/>
-      <c r="Y168" s="47"/>
-      <c r="Z168" s="47"/>
-      <c r="AA168" s="47"/>
-      <c r="AB168" s="47"/>
+      <c r="S168" s="51"/>
+      <c r="T168" s="51"/>
+      <c r="U168" s="51"/>
+      <c r="V168" s="51"/>
+      <c r="W168" s="51"/>
+      <c r="X168" s="51"/>
+      <c r="Y168" s="51"/>
+      <c r="Z168" s="51"/>
+      <c r="AA168" s="51"/>
+      <c r="AB168" s="51"/>
     </row>
     <row r="169" spans="8:28">
       <c r="H169" s="41"/>
@@ -19535,16 +20355,16 @@
       <c r="P169" s="41"/>
       <c r="Q169" s="41"/>
       <c r="R169" s="41"/>
-      <c r="S169" s="47"/>
-      <c r="T169" s="47"/>
-      <c r="U169" s="47"/>
-      <c r="V169" s="47"/>
-      <c r="W169" s="47"/>
-      <c r="X169" s="47"/>
-      <c r="Y169" s="47"/>
-      <c r="Z169" s="47"/>
-      <c r="AA169" s="47"/>
-      <c r="AB169" s="47"/>
+      <c r="S169" s="51"/>
+      <c r="T169" s="51"/>
+      <c r="U169" s="51"/>
+      <c r="V169" s="51"/>
+      <c r="W169" s="51"/>
+      <c r="X169" s="51"/>
+      <c r="Y169" s="51"/>
+      <c r="Z169" s="51"/>
+      <c r="AA169" s="51"/>
+      <c r="AB169" s="51"/>
     </row>
     <row r="170" spans="8:28">
       <c r="H170" s="41"/>
@@ -19558,16 +20378,16 @@
       <c r="P170" s="41"/>
       <c r="Q170" s="41"/>
       <c r="R170" s="41"/>
-      <c r="S170" s="47"/>
-      <c r="T170" s="47"/>
-      <c r="U170" s="47"/>
-      <c r="V170" s="47"/>
-      <c r="W170" s="47"/>
-      <c r="X170" s="47"/>
-      <c r="Y170" s="47"/>
-      <c r="Z170" s="47"/>
-      <c r="AA170" s="47"/>
-      <c r="AB170" s="47"/>
+      <c r="S170" s="51"/>
+      <c r="T170" s="51"/>
+      <c r="U170" s="51"/>
+      <c r="V170" s="51"/>
+      <c r="W170" s="51"/>
+      <c r="X170" s="51"/>
+      <c r="Y170" s="51"/>
+      <c r="Z170" s="51"/>
+      <c r="AA170" s="51"/>
+      <c r="AB170" s="51"/>
     </row>
     <row r="171" spans="8:28">
       <c r="H171" s="41"/>
@@ -19581,16 +20401,16 @@
       <c r="P171" s="41"/>
       <c r="Q171" s="41"/>
       <c r="R171" s="41"/>
-      <c r="S171" s="47"/>
-      <c r="T171" s="47"/>
-      <c r="U171" s="47"/>
-      <c r="V171" s="47"/>
-      <c r="W171" s="47"/>
-      <c r="X171" s="47"/>
-      <c r="Y171" s="47"/>
-      <c r="Z171" s="47"/>
-      <c r="AA171" s="47"/>
-      <c r="AB171" s="47"/>
+      <c r="S171" s="51"/>
+      <c r="T171" s="51"/>
+      <c r="U171" s="51"/>
+      <c r="V171" s="51"/>
+      <c r="W171" s="51"/>
+      <c r="X171" s="51"/>
+      <c r="Y171" s="51"/>
+      <c r="Z171" s="51"/>
+      <c r="AA171" s="51"/>
+      <c r="AB171" s="51"/>
     </row>
     <row r="172" spans="8:28">
       <c r="H172" s="41"/>
@@ -19604,16 +20424,16 @@
       <c r="P172" s="41"/>
       <c r="Q172" s="41"/>
       <c r="R172" s="41"/>
-      <c r="S172" s="47"/>
-      <c r="T172" s="47"/>
-      <c r="U172" s="47"/>
-      <c r="V172" s="47"/>
-      <c r="W172" s="47"/>
-      <c r="X172" s="47"/>
-      <c r="Y172" s="47"/>
-      <c r="Z172" s="47"/>
-      <c r="AA172" s="47"/>
-      <c r="AB172" s="47"/>
+      <c r="S172" s="51"/>
+      <c r="T172" s="51"/>
+      <c r="U172" s="51"/>
+      <c r="V172" s="51"/>
+      <c r="W172" s="51"/>
+      <c r="X172" s="51"/>
+      <c r="Y172" s="51"/>
+      <c r="Z172" s="51"/>
+      <c r="AA172" s="51"/>
+      <c r="AB172" s="51"/>
     </row>
     <row r="173" spans="8:28">
       <c r="H173" s="41"/>
@@ -19627,16 +20447,16 @@
       <c r="P173" s="41"/>
       <c r="Q173" s="41"/>
       <c r="R173" s="41"/>
-      <c r="S173" s="47"/>
-      <c r="T173" s="47"/>
-      <c r="U173" s="47"/>
-      <c r="V173" s="47"/>
-      <c r="W173" s="47"/>
-      <c r="X173" s="47"/>
-      <c r="Y173" s="47"/>
-      <c r="Z173" s="47"/>
-      <c r="AA173" s="47"/>
-      <c r="AB173" s="47"/>
+      <c r="S173" s="51"/>
+      <c r="T173" s="51"/>
+      <c r="U173" s="51"/>
+      <c r="V173" s="51"/>
+      <c r="W173" s="51"/>
+      <c r="X173" s="51"/>
+      <c r="Y173" s="51"/>
+      <c r="Z173" s="51"/>
+      <c r="AA173" s="51"/>
+      <c r="AB173" s="51"/>
     </row>
     <row r="174" spans="8:28">
       <c r="H174" s="41"/>
@@ -19650,16 +20470,16 @@
       <c r="P174" s="41"/>
       <c r="Q174" s="41"/>
       <c r="R174" s="41"/>
-      <c r="S174" s="47"/>
-      <c r="T174" s="47"/>
-      <c r="U174" s="47"/>
-      <c r="V174" s="47"/>
-      <c r="W174" s="47"/>
-      <c r="X174" s="47"/>
-      <c r="Y174" s="47"/>
-      <c r="Z174" s="47"/>
-      <c r="AA174" s="47"/>
-      <c r="AB174" s="47"/>
+      <c r="S174" s="51"/>
+      <c r="T174" s="51"/>
+      <c r="U174" s="51"/>
+      <c r="V174" s="51"/>
+      <c r="W174" s="51"/>
+      <c r="X174" s="51"/>
+      <c r="Y174" s="51"/>
+      <c r="Z174" s="51"/>
+      <c r="AA174" s="51"/>
+      <c r="AB174" s="51"/>
     </row>
     <row r="175" spans="8:28">
       <c r="H175" s="41"/>
@@ -19673,16 +20493,16 @@
       <c r="P175" s="41"/>
       <c r="Q175" s="41"/>
       <c r="R175" s="41"/>
-      <c r="S175" s="47"/>
-      <c r="T175" s="47"/>
-      <c r="U175" s="47"/>
-      <c r="V175" s="47"/>
-      <c r="W175" s="47"/>
-      <c r="X175" s="47"/>
-      <c r="Y175" s="47"/>
-      <c r="Z175" s="47"/>
-      <c r="AA175" s="47"/>
-      <c r="AB175" s="47"/>
+      <c r="S175" s="51"/>
+      <c r="T175" s="51"/>
+      <c r="U175" s="51"/>
+      <c r="V175" s="51"/>
+      <c r="W175" s="51"/>
+      <c r="X175" s="51"/>
+      <c r="Y175" s="51"/>
+      <c r="Z175" s="51"/>
+      <c r="AA175" s="51"/>
+      <c r="AB175" s="51"/>
     </row>
     <row r="176" spans="8:28">
       <c r="H176" s="41"/>
@@ -19696,16 +20516,16 @@
       <c r="P176" s="41"/>
       <c r="Q176" s="41"/>
       <c r="R176" s="41"/>
-      <c r="S176" s="47"/>
-      <c r="T176" s="47"/>
-      <c r="U176" s="47"/>
-      <c r="V176" s="47"/>
-      <c r="W176" s="47"/>
-      <c r="X176" s="47"/>
-      <c r="Y176" s="47"/>
-      <c r="Z176" s="47"/>
-      <c r="AA176" s="47"/>
-      <c r="AB176" s="47"/>
+      <c r="S176" s="51"/>
+      <c r="T176" s="51"/>
+      <c r="U176" s="51"/>
+      <c r="V176" s="51"/>
+      <c r="W176" s="51"/>
+      <c r="X176" s="51"/>
+      <c r="Y176" s="51"/>
+      <c r="Z176" s="51"/>
+      <c r="AA176" s="51"/>
+      <c r="AB176" s="51"/>
     </row>
     <row r="177" spans="8:28">
       <c r="H177" s="41"/>
@@ -19719,16 +20539,16 @@
       <c r="P177" s="41"/>
       <c r="Q177" s="41"/>
       <c r="R177" s="41"/>
-      <c r="S177" s="47"/>
-      <c r="T177" s="47"/>
-      <c r="U177" s="47"/>
-      <c r="V177" s="47"/>
-      <c r="W177" s="47"/>
-      <c r="X177" s="47"/>
-      <c r="Y177" s="47"/>
-      <c r="Z177" s="47"/>
-      <c r="AA177" s="47"/>
-      <c r="AB177" s="47"/>
+      <c r="S177" s="51"/>
+      <c r="T177" s="51"/>
+      <c r="U177" s="51"/>
+      <c r="V177" s="51"/>
+      <c r="W177" s="51"/>
+      <c r="X177" s="51"/>
+      <c r="Y177" s="51"/>
+      <c r="Z177" s="51"/>
+      <c r="AA177" s="51"/>
+      <c r="AB177" s="51"/>
     </row>
     <row r="178" ht="68" customHeight="1" spans="8:28">
       <c r="H178" s="41"/>
@@ -19742,16 +20562,16 @@
       <c r="P178" s="41"/>
       <c r="Q178" s="41"/>
       <c r="R178" s="41"/>
-      <c r="S178" s="47"/>
-      <c r="T178" s="47"/>
-      <c r="U178" s="47"/>
-      <c r="V178" s="47"/>
-      <c r="W178" s="47"/>
-      <c r="X178" s="47"/>
-      <c r="Y178" s="47"/>
-      <c r="Z178" s="47"/>
-      <c r="AA178" s="47"/>
-      <c r="AB178" s="47"/>
+      <c r="S178" s="51"/>
+      <c r="T178" s="51"/>
+      <c r="U178" s="51"/>
+      <c r="V178" s="51"/>
+      <c r="W178" s="51"/>
+      <c r="X178" s="51"/>
+      <c r="Y178" s="51"/>
+      <c r="Z178" s="51"/>
+      <c r="AA178" s="51"/>
+      <c r="AB178" s="51"/>
     </row>
     <row r="179" spans="8:28">
       <c r="H179" s="14">
@@ -19767,7 +20587,7 @@
       <c r="L179" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="M179" s="122" t="s">
+      <c r="M179" s="126" t="s">
         <v>39</v>
       </c>
       <c r="N179" s="21"/>
@@ -19783,18 +20603,18 @@
       <c r="R179" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="S179" s="123" t="s">
+      <c r="S179" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="T179" s="101"/>
-      <c r="U179" s="101"/>
-      <c r="V179" s="101"/>
-      <c r="W179" s="101"/>
-      <c r="X179" s="101"/>
-      <c r="Y179" s="101"/>
-      <c r="Z179" s="101"/>
-      <c r="AA179" s="101"/>
-      <c r="AB179" s="107"/>
+      <c r="T179" s="105"/>
+      <c r="U179" s="105"/>
+      <c r="V179" s="105"/>
+      <c r="W179" s="105"/>
+      <c r="X179" s="105"/>
+      <c r="Y179" s="105"/>
+      <c r="Z179" s="105"/>
+      <c r="AA179" s="105"/>
+      <c r="AB179" s="111"/>
     </row>
     <row r="180" spans="8:28">
       <c r="H180" s="15"/>
@@ -19808,16 +20628,16 @@
       <c r="P180" s="15"/>
       <c r="Q180" s="15"/>
       <c r="R180" s="15"/>
-      <c r="S180" s="102"/>
-      <c r="T180" s="103"/>
-      <c r="U180" s="103"/>
-      <c r="V180" s="103"/>
-      <c r="W180" s="103"/>
-      <c r="X180" s="103"/>
-      <c r="Y180" s="103"/>
-      <c r="Z180" s="103"/>
-      <c r="AA180" s="103"/>
-      <c r="AB180" s="108"/>
+      <c r="S180" s="106"/>
+      <c r="T180" s="107"/>
+      <c r="U180" s="107"/>
+      <c r="V180" s="107"/>
+      <c r="W180" s="107"/>
+      <c r="X180" s="107"/>
+      <c r="Y180" s="107"/>
+      <c r="Z180" s="107"/>
+      <c r="AA180" s="107"/>
+      <c r="AB180" s="112"/>
     </row>
     <row r="181" spans="8:28">
       <c r="H181" s="15"/>
@@ -19831,16 +20651,16 @@
       <c r="P181" s="15"/>
       <c r="Q181" s="15"/>
       <c r="R181" s="15"/>
-      <c r="S181" s="102"/>
-      <c r="T181" s="103"/>
-      <c r="U181" s="103"/>
-      <c r="V181" s="103"/>
-      <c r="W181" s="103"/>
-      <c r="X181" s="103"/>
-      <c r="Y181" s="103"/>
-      <c r="Z181" s="103"/>
-      <c r="AA181" s="103"/>
-      <c r="AB181" s="108"/>
+      <c r="S181" s="106"/>
+      <c r="T181" s="107"/>
+      <c r="U181" s="107"/>
+      <c r="V181" s="107"/>
+      <c r="W181" s="107"/>
+      <c r="X181" s="107"/>
+      <c r="Y181" s="107"/>
+      <c r="Z181" s="107"/>
+      <c r="AA181" s="107"/>
+      <c r="AB181" s="112"/>
     </row>
     <row r="182" spans="8:28">
       <c r="H182" s="15"/>
@@ -19854,16 +20674,16 @@
       <c r="P182" s="15"/>
       <c r="Q182" s="15"/>
       <c r="R182" s="15"/>
-      <c r="S182" s="102"/>
-      <c r="T182" s="103"/>
-      <c r="U182" s="103"/>
-      <c r="V182" s="103"/>
-      <c r="W182" s="103"/>
-      <c r="X182" s="103"/>
-      <c r="Y182" s="103"/>
-      <c r="Z182" s="103"/>
-      <c r="AA182" s="103"/>
-      <c r="AB182" s="108"/>
+      <c r="S182" s="106"/>
+      <c r="T182" s="107"/>
+      <c r="U182" s="107"/>
+      <c r="V182" s="107"/>
+      <c r="W182" s="107"/>
+      <c r="X182" s="107"/>
+      <c r="Y182" s="107"/>
+      <c r="Z182" s="107"/>
+      <c r="AA182" s="107"/>
+      <c r="AB182" s="112"/>
     </row>
     <row r="183" spans="8:28">
       <c r="H183" s="15"/>
@@ -19877,16 +20697,16 @@
       <c r="P183" s="15"/>
       <c r="Q183" s="15"/>
       <c r="R183" s="15"/>
-      <c r="S183" s="102"/>
-      <c r="T183" s="103"/>
-      <c r="U183" s="103"/>
-      <c r="V183" s="103"/>
-      <c r="W183" s="103"/>
-      <c r="X183" s="103"/>
-      <c r="Y183" s="103"/>
-      <c r="Z183" s="103"/>
-      <c r="AA183" s="103"/>
-      <c r="AB183" s="108"/>
+      <c r="S183" s="106"/>
+      <c r="T183" s="107"/>
+      <c r="U183" s="107"/>
+      <c r="V183" s="107"/>
+      <c r="W183" s="107"/>
+      <c r="X183" s="107"/>
+      <c r="Y183" s="107"/>
+      <c r="Z183" s="107"/>
+      <c r="AA183" s="107"/>
+      <c r="AB183" s="112"/>
     </row>
     <row r="184" spans="8:28">
       <c r="H184" s="15"/>
@@ -19900,16 +20720,16 @@
       <c r="P184" s="15"/>
       <c r="Q184" s="15"/>
       <c r="R184" s="15"/>
-      <c r="S184" s="102"/>
-      <c r="T184" s="103"/>
-      <c r="U184" s="103"/>
-      <c r="V184" s="103"/>
-      <c r="W184" s="103"/>
-      <c r="X184" s="103"/>
-      <c r="Y184" s="103"/>
-      <c r="Z184" s="103"/>
-      <c r="AA184" s="103"/>
-      <c r="AB184" s="108"/>
+      <c r="S184" s="106"/>
+      <c r="T184" s="107"/>
+      <c r="U184" s="107"/>
+      <c r="V184" s="107"/>
+      <c r="W184" s="107"/>
+      <c r="X184" s="107"/>
+      <c r="Y184" s="107"/>
+      <c r="Z184" s="107"/>
+      <c r="AA184" s="107"/>
+      <c r="AB184" s="112"/>
     </row>
     <row r="185" ht="28" customHeight="1" spans="8:28">
       <c r="H185" s="15"/>
@@ -19923,16 +20743,16 @@
       <c r="P185" s="15"/>
       <c r="Q185" s="15"/>
       <c r="R185" s="15"/>
-      <c r="S185" s="102"/>
-      <c r="T185" s="103"/>
-      <c r="U185" s="103"/>
-      <c r="V185" s="103"/>
-      <c r="W185" s="103"/>
-      <c r="X185" s="103"/>
-      <c r="Y185" s="103"/>
-      <c r="Z185" s="103"/>
-      <c r="AA185" s="103"/>
-      <c r="AB185" s="108"/>
+      <c r="S185" s="106"/>
+      <c r="T185" s="107"/>
+      <c r="U185" s="107"/>
+      <c r="V185" s="107"/>
+      <c r="W185" s="107"/>
+      <c r="X185" s="107"/>
+      <c r="Y185" s="107"/>
+      <c r="Z185" s="107"/>
+      <c r="AA185" s="107"/>
+      <c r="AB185" s="112"/>
     </row>
     <row r="186" spans="8:28">
       <c r="H186" s="15"/>
@@ -19946,16 +20766,16 @@
       <c r="P186" s="15"/>
       <c r="Q186" s="15"/>
       <c r="R186" s="15"/>
-      <c r="S186" s="102"/>
-      <c r="T186" s="103"/>
-      <c r="U186" s="103"/>
-      <c r="V186" s="103"/>
-      <c r="W186" s="103"/>
-      <c r="X186" s="103"/>
-      <c r="Y186" s="103"/>
-      <c r="Z186" s="103"/>
-      <c r="AA186" s="103"/>
-      <c r="AB186" s="108"/>
+      <c r="S186" s="106"/>
+      <c r="T186" s="107"/>
+      <c r="U186" s="107"/>
+      <c r="V186" s="107"/>
+      <c r="W186" s="107"/>
+      <c r="X186" s="107"/>
+      <c r="Y186" s="107"/>
+      <c r="Z186" s="107"/>
+      <c r="AA186" s="107"/>
+      <c r="AB186" s="112"/>
     </row>
     <row r="187" spans="8:28">
       <c r="H187" s="15"/>
@@ -19969,16 +20789,16 @@
       <c r="P187" s="15"/>
       <c r="Q187" s="15"/>
       <c r="R187" s="15"/>
-      <c r="S187" s="102"/>
-      <c r="T187" s="103"/>
-      <c r="U187" s="103"/>
-      <c r="V187" s="103"/>
-      <c r="W187" s="103"/>
-      <c r="X187" s="103"/>
-      <c r="Y187" s="103"/>
-      <c r="Z187" s="103"/>
-      <c r="AA187" s="103"/>
-      <c r="AB187" s="108"/>
+      <c r="S187" s="106"/>
+      <c r="T187" s="107"/>
+      <c r="U187" s="107"/>
+      <c r="V187" s="107"/>
+      <c r="W187" s="107"/>
+      <c r="X187" s="107"/>
+      <c r="Y187" s="107"/>
+      <c r="Z187" s="107"/>
+      <c r="AA187" s="107"/>
+      <c r="AB187" s="112"/>
     </row>
     <row r="188" ht="31" customHeight="1" spans="8:28">
       <c r="H188" s="16"/>
@@ -19992,25 +20812,25 @@
       <c r="P188" s="16"/>
       <c r="Q188" s="16"/>
       <c r="R188" s="16"/>
-      <c r="S188" s="104"/>
-      <c r="T188" s="105"/>
-      <c r="U188" s="105"/>
-      <c r="V188" s="105"/>
-      <c r="W188" s="105"/>
-      <c r="X188" s="105"/>
-      <c r="Y188" s="105"/>
-      <c r="Z188" s="105"/>
-      <c r="AA188" s="105"/>
-      <c r="AB188" s="109"/>
+      <c r="S188" s="108"/>
+      <c r="T188" s="109"/>
+      <c r="U188" s="109"/>
+      <c r="V188" s="109"/>
+      <c r="W188" s="109"/>
+      <c r="X188" s="109"/>
+      <c r="Y188" s="109"/>
+      <c r="Z188" s="109"/>
+      <c r="AA188" s="109"/>
+      <c r="AB188" s="113"/>
     </row>
     <row r="189" spans="8:28">
-      <c r="H189" s="44">
+      <c r="H189" s="48">
         <v>5</v>
       </c>
-      <c r="I189" s="94" t="s">
+      <c r="I189" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="J189" s="95"/>
+      <c r="J189" s="99"/>
       <c r="K189" s="41" t="s">
         <v>75</v>
       </c>
@@ -20021,35 +20841,35 @@
         <v>77</v>
       </c>
       <c r="N189" s="18"/>
-      <c r="O189" s="124" t="s">
+      <c r="O189" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="P189" s="124" t="s">
+      <c r="P189" s="128" t="s">
         <v>39</v>
       </c>
       <c r="Q189" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="R189" s="106" t="s">
+      <c r="R189" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="S189" s="47" t="s">
+      <c r="S189" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="T189" s="47"/>
-      <c r="U189" s="47"/>
-      <c r="V189" s="47"/>
-      <c r="W189" s="47"/>
-      <c r="X189" s="47"/>
-      <c r="Y189" s="47"/>
-      <c r="Z189" s="47"/>
-      <c r="AA189" s="47"/>
-      <c r="AB189" s="47"/>
+      <c r="T189" s="51"/>
+      <c r="U189" s="51"/>
+      <c r="V189" s="51"/>
+      <c r="W189" s="51"/>
+      <c r="X189" s="51"/>
+      <c r="Y189" s="51"/>
+      <c r="Z189" s="51"/>
+      <c r="AA189" s="51"/>
+      <c r="AB189" s="51"/>
     </row>
     <row r="190" spans="8:28">
-      <c r="H190" s="44"/>
-      <c r="I190" s="96"/>
-      <c r="J190" s="97"/>
+      <c r="H190" s="48"/>
+      <c r="I190" s="100"/>
+      <c r="J190" s="101"/>
       <c r="K190" s="41"/>
       <c r="L190" s="41"/>
       <c r="M190" s="22"/>
@@ -20057,22 +20877,22 @@
       <c r="O190" s="41"/>
       <c r="P190" s="41"/>
       <c r="Q190" s="41"/>
-      <c r="R190" s="106"/>
-      <c r="S190" s="47"/>
-      <c r="T190" s="47"/>
-      <c r="U190" s="47"/>
-      <c r="V190" s="47"/>
-      <c r="W190" s="47"/>
-      <c r="X190" s="47"/>
-      <c r="Y190" s="47"/>
-      <c r="Z190" s="47"/>
-      <c r="AA190" s="47"/>
-      <c r="AB190" s="47"/>
+      <c r="R190" s="110"/>
+      <c r="S190" s="51"/>
+      <c r="T190" s="51"/>
+      <c r="U190" s="51"/>
+      <c r="V190" s="51"/>
+      <c r="W190" s="51"/>
+      <c r="X190" s="51"/>
+      <c r="Y190" s="51"/>
+      <c r="Z190" s="51"/>
+      <c r="AA190" s="51"/>
+      <c r="AB190" s="51"/>
     </row>
     <row r="191" spans="8:28">
-      <c r="H191" s="44"/>
-      <c r="I191" s="98"/>
-      <c r="J191" s="99"/>
+      <c r="H191" s="48"/>
+      <c r="I191" s="102"/>
+      <c r="J191" s="103"/>
       <c r="K191" s="41"/>
       <c r="L191" s="41"/>
       <c r="M191" s="27"/>
@@ -20080,26 +20900,26 @@
       <c r="O191" s="41"/>
       <c r="P191" s="41"/>
       <c r="Q191" s="41"/>
-      <c r="R191" s="106"/>
-      <c r="S191" s="47"/>
-      <c r="T191" s="47"/>
-      <c r="U191" s="47"/>
-      <c r="V191" s="47"/>
-      <c r="W191" s="47"/>
-      <c r="X191" s="47"/>
-      <c r="Y191" s="47"/>
-      <c r="Z191" s="47"/>
-      <c r="AA191" s="47"/>
-      <c r="AB191" s="47"/>
+      <c r="R191" s="110"/>
+      <c r="S191" s="51"/>
+      <c r="T191" s="51"/>
+      <c r="U191" s="51"/>
+      <c r="V191" s="51"/>
+      <c r="W191" s="51"/>
+      <c r="X191" s="51"/>
+      <c r="Y191" s="51"/>
+      <c r="Z191" s="51"/>
+      <c r="AA191" s="51"/>
+      <c r="AB191" s="51"/>
     </row>
     <row r="192" spans="8:28">
-      <c r="H192" s="44">
+      <c r="H192" s="48">
         <v>6</v>
       </c>
-      <c r="I192" s="44" t="s">
+      <c r="I192" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="J192" s="44"/>
+      <c r="J192" s="48"/>
       <c r="K192" s="42" t="s">
         <v>81</v>
       </c>
@@ -20110,10 +20930,10 @@
         <v>83</v>
       </c>
       <c r="N192" s="41"/>
-      <c r="O192" s="124" t="s">
+      <c r="O192" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="P192" s="124" t="s">
+      <c r="P192" s="128" t="s">
         <v>39</v>
       </c>
       <c r="Q192" s="41" t="s">
@@ -20122,23 +20942,23 @@
       <c r="R192" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="S192" s="47" t="s">
+      <c r="S192" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="T192" s="47"/>
-      <c r="U192" s="47"/>
-      <c r="V192" s="47"/>
-      <c r="W192" s="47"/>
-      <c r="X192" s="47"/>
-      <c r="Y192" s="47"/>
-      <c r="Z192" s="47"/>
-      <c r="AA192" s="47"/>
-      <c r="AB192" s="47"/>
+      <c r="T192" s="51"/>
+      <c r="U192" s="51"/>
+      <c r="V192" s="51"/>
+      <c r="W192" s="51"/>
+      <c r="X192" s="51"/>
+      <c r="Y192" s="51"/>
+      <c r="Z192" s="51"/>
+      <c r="AA192" s="51"/>
+      <c r="AB192" s="51"/>
     </row>
     <row r="193" spans="8:28">
-      <c r="H193" s="44"/>
-      <c r="I193" s="44"/>
-      <c r="J193" s="44"/>
+      <c r="H193" s="48"/>
+      <c r="I193" s="48"/>
+      <c r="J193" s="48"/>
       <c r="K193" s="42"/>
       <c r="L193" s="41"/>
       <c r="M193" s="41"/>
@@ -20147,21 +20967,21 @@
       <c r="P193" s="41"/>
       <c r="Q193" s="41"/>
       <c r="R193" s="42"/>
-      <c r="S193" s="47"/>
-      <c r="T193" s="47"/>
-      <c r="U193" s="47"/>
-      <c r="V193" s="47"/>
-      <c r="W193" s="47"/>
-      <c r="X193" s="47"/>
-      <c r="Y193" s="47"/>
-      <c r="Z193" s="47"/>
-      <c r="AA193" s="47"/>
-      <c r="AB193" s="47"/>
+      <c r="S193" s="51"/>
+      <c r="T193" s="51"/>
+      <c r="U193" s="51"/>
+      <c r="V193" s="51"/>
+      <c r="W193" s="51"/>
+      <c r="X193" s="51"/>
+      <c r="Y193" s="51"/>
+      <c r="Z193" s="51"/>
+      <c r="AA193" s="51"/>
+      <c r="AB193" s="51"/>
     </row>
     <row r="194" spans="8:28">
-      <c r="H194" s="44"/>
-      <c r="I194" s="44"/>
-      <c r="J194" s="44"/>
+      <c r="H194" s="48"/>
+      <c r="I194" s="48"/>
+      <c r="J194" s="48"/>
       <c r="K194" s="42"/>
       <c r="L194" s="41"/>
       <c r="M194" s="41"/>
@@ -20170,21 +20990,21 @@
       <c r="P194" s="41"/>
       <c r="Q194" s="41"/>
       <c r="R194" s="42"/>
-      <c r="S194" s="47"/>
-      <c r="T194" s="47"/>
-      <c r="U194" s="47"/>
-      <c r="V194" s="47"/>
-      <c r="W194" s="47"/>
-      <c r="X194" s="47"/>
-      <c r="Y194" s="47"/>
-      <c r="Z194" s="47"/>
-      <c r="AA194" s="47"/>
-      <c r="AB194" s="47"/>
+      <c r="S194" s="51"/>
+      <c r="T194" s="51"/>
+      <c r="U194" s="51"/>
+      <c r="V194" s="51"/>
+      <c r="W194" s="51"/>
+      <c r="X194" s="51"/>
+      <c r="Y194" s="51"/>
+      <c r="Z194" s="51"/>
+      <c r="AA194" s="51"/>
+      <c r="AB194" s="51"/>
     </row>
     <row r="195" spans="8:28">
-      <c r="H195" s="44"/>
-      <c r="I195" s="44"/>
-      <c r="J195" s="44"/>
+      <c r="H195" s="48"/>
+      <c r="I195" s="48"/>
+      <c r="J195" s="48"/>
       <c r="K195" s="42"/>
       <c r="L195" s="41"/>
       <c r="M195" s="41"/>
@@ -20193,21 +21013,21 @@
       <c r="P195" s="41"/>
       <c r="Q195" s="41"/>
       <c r="R195" s="42"/>
-      <c r="S195" s="47"/>
-      <c r="T195" s="47"/>
-      <c r="U195" s="47"/>
-      <c r="V195" s="47"/>
-      <c r="W195" s="47"/>
-      <c r="X195" s="47"/>
-      <c r="Y195" s="47"/>
-      <c r="Z195" s="47"/>
-      <c r="AA195" s="47"/>
-      <c r="AB195" s="47"/>
+      <c r="S195" s="51"/>
+      <c r="T195" s="51"/>
+      <c r="U195" s="51"/>
+      <c r="V195" s="51"/>
+      <c r="W195" s="51"/>
+      <c r="X195" s="51"/>
+      <c r="Y195" s="51"/>
+      <c r="Z195" s="51"/>
+      <c r="AA195" s="51"/>
+      <c r="AB195" s="51"/>
     </row>
     <row r="196" spans="8:28">
-      <c r="H196" s="44"/>
-      <c r="I196" s="44"/>
-      <c r="J196" s="44"/>
+      <c r="H196" s="48"/>
+      <c r="I196" s="48"/>
+      <c r="J196" s="48"/>
       <c r="K196" s="42"/>
       <c r="L196" s="41"/>
       <c r="M196" s="41"/>
@@ -20216,25 +21036,25 @@
       <c r="P196" s="41"/>
       <c r="Q196" s="41"/>
       <c r="R196" s="42"/>
-      <c r="S196" s="47"/>
-      <c r="T196" s="47"/>
-      <c r="U196" s="47"/>
-      <c r="V196" s="47"/>
-      <c r="W196" s="47"/>
-      <c r="X196" s="47"/>
-      <c r="Y196" s="47"/>
-      <c r="Z196" s="47"/>
-      <c r="AA196" s="47"/>
-      <c r="AB196" s="47"/>
+      <c r="S196" s="51"/>
+      <c r="T196" s="51"/>
+      <c r="U196" s="51"/>
+      <c r="V196" s="51"/>
+      <c r="W196" s="51"/>
+      <c r="X196" s="51"/>
+      <c r="Y196" s="51"/>
+      <c r="Z196" s="51"/>
+      <c r="AA196" s="51"/>
+      <c r="AB196" s="51"/>
     </row>
     <row r="197" spans="8:28">
-      <c r="H197" s="44">
+      <c r="H197" s="48">
         <v>7</v>
       </c>
-      <c r="I197" s="44" t="s">
+      <c r="I197" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="J197" s="44"/>
+      <c r="J197" s="48"/>
       <c r="K197" s="42" t="s">
         <v>87</v>
       </c>
@@ -20257,23 +21077,23 @@
       <c r="R197" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="S197" s="47" t="s">
+      <c r="S197" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="T197" s="47"/>
-      <c r="U197" s="47"/>
-      <c r="V197" s="47"/>
-      <c r="W197" s="47"/>
-      <c r="X197" s="47"/>
-      <c r="Y197" s="47"/>
-      <c r="Z197" s="47"/>
-      <c r="AA197" s="47"/>
-      <c r="AB197" s="47"/>
+      <c r="T197" s="51"/>
+      <c r="U197" s="51"/>
+      <c r="V197" s="51"/>
+      <c r="W197" s="51"/>
+      <c r="X197" s="51"/>
+      <c r="Y197" s="51"/>
+      <c r="Z197" s="51"/>
+      <c r="AA197" s="51"/>
+      <c r="AB197" s="51"/>
     </row>
     <row r="198" spans="8:28">
-      <c r="H198" s="44"/>
-      <c r="I198" s="44"/>
-      <c r="J198" s="44"/>
+      <c r="H198" s="48"/>
+      <c r="I198" s="48"/>
+      <c r="J198" s="48"/>
       <c r="K198" s="42"/>
       <c r="L198" s="41"/>
       <c r="M198" s="41"/>
@@ -20282,21 +21102,21 @@
       <c r="P198" s="41"/>
       <c r="Q198" s="41"/>
       <c r="R198" s="42"/>
-      <c r="S198" s="47"/>
-      <c r="T198" s="47"/>
-      <c r="U198" s="47"/>
-      <c r="V198" s="47"/>
-      <c r="W198" s="47"/>
-      <c r="X198" s="47"/>
-      <c r="Y198" s="47"/>
-      <c r="Z198" s="47"/>
-      <c r="AA198" s="47"/>
-      <c r="AB198" s="47"/>
+      <c r="S198" s="51"/>
+      <c r="T198" s="51"/>
+      <c r="U198" s="51"/>
+      <c r="V198" s="51"/>
+      <c r="W198" s="51"/>
+      <c r="X198" s="51"/>
+      <c r="Y198" s="51"/>
+      <c r="Z198" s="51"/>
+      <c r="AA198" s="51"/>
+      <c r="AB198" s="51"/>
     </row>
     <row r="199" spans="8:28">
-      <c r="H199" s="44"/>
-      <c r="I199" s="44"/>
-      <c r="J199" s="44"/>
+      <c r="H199" s="48"/>
+      <c r="I199" s="48"/>
+      <c r="J199" s="48"/>
       <c r="K199" s="42"/>
       <c r="L199" s="41"/>
       <c r="M199" s="41"/>
@@ -20305,25 +21125,25 @@
       <c r="P199" s="41"/>
       <c r="Q199" s="41"/>
       <c r="R199" s="42"/>
-      <c r="S199" s="47"/>
-      <c r="T199" s="47"/>
-      <c r="U199" s="47"/>
-      <c r="V199" s="47"/>
-      <c r="W199" s="47"/>
-      <c r="X199" s="47"/>
-      <c r="Y199" s="47"/>
-      <c r="Z199" s="47"/>
-      <c r="AA199" s="47"/>
-      <c r="AB199" s="47"/>
+      <c r="S199" s="51"/>
+      <c r="T199" s="51"/>
+      <c r="U199" s="51"/>
+      <c r="V199" s="51"/>
+      <c r="W199" s="51"/>
+      <c r="X199" s="51"/>
+      <c r="Y199" s="51"/>
+      <c r="Z199" s="51"/>
+      <c r="AA199" s="51"/>
+      <c r="AB199" s="51"/>
     </row>
     <row r="200" spans="8:28">
-      <c r="H200" s="44">
+      <c r="H200" s="48">
         <v>8</v>
       </c>
-      <c r="I200" s="44" t="s">
+      <c r="I200" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="J200" s="44"/>
+      <c r="J200" s="48"/>
       <c r="K200" s="42" t="s">
         <v>93</v>
       </c>
@@ -20346,23 +21166,23 @@
       <c r="R200" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="S200" s="47" t="s">
+      <c r="S200" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="T200" s="47"/>
-      <c r="U200" s="47"/>
-      <c r="V200" s="47"/>
-      <c r="W200" s="47"/>
-      <c r="X200" s="47"/>
-      <c r="Y200" s="47"/>
-      <c r="Z200" s="47"/>
-      <c r="AA200" s="47"/>
-      <c r="AB200" s="47"/>
+      <c r="T200" s="51"/>
+      <c r="U200" s="51"/>
+      <c r="V200" s="51"/>
+      <c r="W200" s="51"/>
+      <c r="X200" s="51"/>
+      <c r="Y200" s="51"/>
+      <c r="Z200" s="51"/>
+      <c r="AA200" s="51"/>
+      <c r="AB200" s="51"/>
     </row>
     <row r="201" spans="8:28">
-      <c r="H201" s="44"/>
-      <c r="I201" s="44"/>
-      <c r="J201" s="44"/>
+      <c r="H201" s="48"/>
+      <c r="I201" s="48"/>
+      <c r="J201" s="48"/>
       <c r="K201" s="42"/>
       <c r="L201" s="41"/>
       <c r="M201" s="41"/>
@@ -20371,21 +21191,21 @@
       <c r="P201" s="41"/>
       <c r="Q201" s="41"/>
       <c r="R201" s="42"/>
-      <c r="S201" s="47"/>
-      <c r="T201" s="47"/>
-      <c r="U201" s="47"/>
-      <c r="V201" s="47"/>
-      <c r="W201" s="47"/>
-      <c r="X201" s="47"/>
-      <c r="Y201" s="47"/>
-      <c r="Z201" s="47"/>
-      <c r="AA201" s="47"/>
-      <c r="AB201" s="47"/>
+      <c r="S201" s="51"/>
+      <c r="T201" s="51"/>
+      <c r="U201" s="51"/>
+      <c r="V201" s="51"/>
+      <c r="W201" s="51"/>
+      <c r="X201" s="51"/>
+      <c r="Y201" s="51"/>
+      <c r="Z201" s="51"/>
+      <c r="AA201" s="51"/>
+      <c r="AB201" s="51"/>
     </row>
     <row r="202" spans="8:28">
-      <c r="H202" s="44"/>
-      <c r="I202" s="44"/>
-      <c r="J202" s="44"/>
+      <c r="H202" s="48"/>
+      <c r="I202" s="48"/>
+      <c r="J202" s="48"/>
       <c r="K202" s="42"/>
       <c r="L202" s="41"/>
       <c r="M202" s="41"/>
@@ -20394,25 +21214,25 @@
       <c r="P202" s="41"/>
       <c r="Q202" s="41"/>
       <c r="R202" s="42"/>
-      <c r="S202" s="47"/>
-      <c r="T202" s="47"/>
-      <c r="U202" s="47"/>
-      <c r="V202" s="47"/>
-      <c r="W202" s="47"/>
-      <c r="X202" s="47"/>
-      <c r="Y202" s="47"/>
-      <c r="Z202" s="47"/>
-      <c r="AA202" s="47"/>
-      <c r="AB202" s="47"/>
+      <c r="S202" s="51"/>
+      <c r="T202" s="51"/>
+      <c r="U202" s="51"/>
+      <c r="V202" s="51"/>
+      <c r="W202" s="51"/>
+      <c r="X202" s="51"/>
+      <c r="Y202" s="51"/>
+      <c r="Z202" s="51"/>
+      <c r="AA202" s="51"/>
+      <c r="AB202" s="51"/>
     </row>
     <row r="203" spans="8:28">
-      <c r="H203" s="44">
+      <c r="H203" s="48">
         <v>9</v>
       </c>
-      <c r="I203" s="44" t="s">
+      <c r="I203" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="J203" s="44"/>
+      <c r="J203" s="48"/>
       <c r="K203" s="41" t="s">
         <v>96</v>
       </c>
@@ -20435,23 +21255,23 @@
       <c r="R203" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="S203" s="47" t="s">
+      <c r="S203" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="T203" s="47"/>
-      <c r="U203" s="47"/>
-      <c r="V203" s="47"/>
-      <c r="W203" s="47"/>
-      <c r="X203" s="47"/>
-      <c r="Y203" s="47"/>
-      <c r="Z203" s="47"/>
-      <c r="AA203" s="47"/>
-      <c r="AB203" s="47"/>
+      <c r="T203" s="51"/>
+      <c r="U203" s="51"/>
+      <c r="V203" s="51"/>
+      <c r="W203" s="51"/>
+      <c r="X203" s="51"/>
+      <c r="Y203" s="51"/>
+      <c r="Z203" s="51"/>
+      <c r="AA203" s="51"/>
+      <c r="AB203" s="51"/>
     </row>
     <row r="204" spans="8:28">
-      <c r="H204" s="44"/>
-      <c r="I204" s="44"/>
-      <c r="J204" s="44"/>
+      <c r="H204" s="48"/>
+      <c r="I204" s="48"/>
+      <c r="J204" s="48"/>
       <c r="K204" s="41"/>
       <c r="L204" s="41"/>
       <c r="M204" s="41"/>
@@ -20460,21 +21280,21 @@
       <c r="P204" s="41"/>
       <c r="Q204" s="41"/>
       <c r="R204" s="42"/>
-      <c r="S204" s="47"/>
-      <c r="T204" s="47"/>
-      <c r="U204" s="47"/>
-      <c r="V204" s="47"/>
-      <c r="W204" s="47"/>
-      <c r="X204" s="47"/>
-      <c r="Y204" s="47"/>
-      <c r="Z204" s="47"/>
-      <c r="AA204" s="47"/>
-      <c r="AB204" s="47"/>
+      <c r="S204" s="51"/>
+      <c r="T204" s="51"/>
+      <c r="U204" s="51"/>
+      <c r="V204" s="51"/>
+      <c r="W204" s="51"/>
+      <c r="X204" s="51"/>
+      <c r="Y204" s="51"/>
+      <c r="Z204" s="51"/>
+      <c r="AA204" s="51"/>
+      <c r="AB204" s="51"/>
     </row>
     <row r="205" spans="8:28">
-      <c r="H205" s="44"/>
-      <c r="I205" s="44"/>
-      <c r="J205" s="44"/>
+      <c r="H205" s="48"/>
+      <c r="I205" s="48"/>
+      <c r="J205" s="48"/>
       <c r="K205" s="41"/>
       <c r="L205" s="41"/>
       <c r="M205" s="41"/>
@@ -20483,21 +21303,21 @@
       <c r="P205" s="41"/>
       <c r="Q205" s="41"/>
       <c r="R205" s="42"/>
-      <c r="S205" s="47"/>
-      <c r="T205" s="47"/>
-      <c r="U205" s="47"/>
-      <c r="V205" s="47"/>
-      <c r="W205" s="47"/>
-      <c r="X205" s="47"/>
-      <c r="Y205" s="47"/>
-      <c r="Z205" s="47"/>
-      <c r="AA205" s="47"/>
-      <c r="AB205" s="47"/>
+      <c r="S205" s="51"/>
+      <c r="T205" s="51"/>
+      <c r="U205" s="51"/>
+      <c r="V205" s="51"/>
+      <c r="W205" s="51"/>
+      <c r="X205" s="51"/>
+      <c r="Y205" s="51"/>
+      <c r="Z205" s="51"/>
+      <c r="AA205" s="51"/>
+      <c r="AB205" s="51"/>
     </row>
     <row r="206" spans="8:28">
-      <c r="H206" s="44"/>
-      <c r="I206" s="44"/>
-      <c r="J206" s="44"/>
+      <c r="H206" s="48"/>
+      <c r="I206" s="48"/>
+      <c r="J206" s="48"/>
       <c r="K206" s="41"/>
       <c r="L206" s="41"/>
       <c r="M206" s="41"/>
@@ -20506,21 +21326,21 @@
       <c r="P206" s="41"/>
       <c r="Q206" s="41"/>
       <c r="R206" s="42"/>
-      <c r="S206" s="47"/>
-      <c r="T206" s="47"/>
-      <c r="U206" s="47"/>
-      <c r="V206" s="47"/>
-      <c r="W206" s="47"/>
-      <c r="X206" s="47"/>
-      <c r="Y206" s="47"/>
-      <c r="Z206" s="47"/>
-      <c r="AA206" s="47"/>
-      <c r="AB206" s="47"/>
+      <c r="S206" s="51"/>
+      <c r="T206" s="51"/>
+      <c r="U206" s="51"/>
+      <c r="V206" s="51"/>
+      <c r="W206" s="51"/>
+      <c r="X206" s="51"/>
+      <c r="Y206" s="51"/>
+      <c r="Z206" s="51"/>
+      <c r="AA206" s="51"/>
+      <c r="AB206" s="51"/>
     </row>
     <row r="207" spans="8:28">
-      <c r="H207" s="44"/>
-      <c r="I207" s="44"/>
-      <c r="J207" s="44"/>
+      <c r="H207" s="48"/>
+      <c r="I207" s="48"/>
+      <c r="J207" s="48"/>
       <c r="K207" s="41"/>
       <c r="L207" s="41"/>
       <c r="M207" s="41"/>
@@ -20529,21 +21349,21 @@
       <c r="P207" s="41"/>
       <c r="Q207" s="41"/>
       <c r="R207" s="42"/>
-      <c r="S207" s="47"/>
-      <c r="T207" s="47"/>
-      <c r="U207" s="47"/>
-      <c r="V207" s="47"/>
-      <c r="W207" s="47"/>
-      <c r="X207" s="47"/>
-      <c r="Y207" s="47"/>
-      <c r="Z207" s="47"/>
-      <c r="AA207" s="47"/>
-      <c r="AB207" s="47"/>
+      <c r="S207" s="51"/>
+      <c r="T207" s="51"/>
+      <c r="U207" s="51"/>
+      <c r="V207" s="51"/>
+      <c r="W207" s="51"/>
+      <c r="X207" s="51"/>
+      <c r="Y207" s="51"/>
+      <c r="Z207" s="51"/>
+      <c r="AA207" s="51"/>
+      <c r="AB207" s="51"/>
     </row>
     <row r="208" spans="8:28">
-      <c r="H208" s="44"/>
-      <c r="I208" s="44"/>
-      <c r="J208" s="44"/>
+      <c r="H208" s="48"/>
+      <c r="I208" s="48"/>
+      <c r="J208" s="48"/>
       <c r="K208" s="41"/>
       <c r="L208" s="41"/>
       <c r="M208" s="41"/>
@@ -20552,21 +21372,21 @@
       <c r="P208" s="41"/>
       <c r="Q208" s="41"/>
       <c r="R208" s="42"/>
-      <c r="S208" s="47"/>
-      <c r="T208" s="47"/>
-      <c r="U208" s="47"/>
-      <c r="V208" s="47"/>
-      <c r="W208" s="47"/>
-      <c r="X208" s="47"/>
-      <c r="Y208" s="47"/>
-      <c r="Z208" s="47"/>
-      <c r="AA208" s="47"/>
-      <c r="AB208" s="47"/>
+      <c r="S208" s="51"/>
+      <c r="T208" s="51"/>
+      <c r="U208" s="51"/>
+      <c r="V208" s="51"/>
+      <c r="W208" s="51"/>
+      <c r="X208" s="51"/>
+      <c r="Y208" s="51"/>
+      <c r="Z208" s="51"/>
+      <c r="AA208" s="51"/>
+      <c r="AB208" s="51"/>
     </row>
     <row r="209" spans="8:28">
-      <c r="H209" s="44"/>
-      <c r="I209" s="44"/>
-      <c r="J209" s="44"/>
+      <c r="H209" s="48"/>
+      <c r="I209" s="48"/>
+      <c r="J209" s="48"/>
       <c r="K209" s="41"/>
       <c r="L209" s="41"/>
       <c r="M209" s="41"/>
@@ -20575,21 +21395,21 @@
       <c r="P209" s="41"/>
       <c r="Q209" s="41"/>
       <c r="R209" s="42"/>
-      <c r="S209" s="47"/>
-      <c r="T209" s="47"/>
-      <c r="U209" s="47"/>
-      <c r="V209" s="47"/>
-      <c r="W209" s="47"/>
-      <c r="X209" s="47"/>
-      <c r="Y209" s="47"/>
-      <c r="Z209" s="47"/>
-      <c r="AA209" s="47"/>
-      <c r="AB209" s="47"/>
+      <c r="S209" s="51"/>
+      <c r="T209" s="51"/>
+      <c r="U209" s="51"/>
+      <c r="V209" s="51"/>
+      <c r="W209" s="51"/>
+      <c r="X209" s="51"/>
+      <c r="Y209" s="51"/>
+      <c r="Z209" s="51"/>
+      <c r="AA209" s="51"/>
+      <c r="AB209" s="51"/>
     </row>
     <row r="210" spans="8:28">
-      <c r="H210" s="44"/>
-      <c r="I210" s="44"/>
-      <c r="J210" s="44"/>
+      <c r="H210" s="48"/>
+      <c r="I210" s="48"/>
+      <c r="J210" s="48"/>
       <c r="K210" s="41"/>
       <c r="L210" s="41"/>
       <c r="M210" s="41"/>
@@ -20598,21 +21418,21 @@
       <c r="P210" s="41"/>
       <c r="Q210" s="41"/>
       <c r="R210" s="42"/>
-      <c r="S210" s="47"/>
-      <c r="T210" s="47"/>
-      <c r="U210" s="47"/>
-      <c r="V210" s="47"/>
-      <c r="W210" s="47"/>
-      <c r="X210" s="47"/>
-      <c r="Y210" s="47"/>
-      <c r="Z210" s="47"/>
-      <c r="AA210" s="47"/>
-      <c r="AB210" s="47"/>
+      <c r="S210" s="51"/>
+      <c r="T210" s="51"/>
+      <c r="U210" s="51"/>
+      <c r="V210" s="51"/>
+      <c r="W210" s="51"/>
+      <c r="X210" s="51"/>
+      <c r="Y210" s="51"/>
+      <c r="Z210" s="51"/>
+      <c r="AA210" s="51"/>
+      <c r="AB210" s="51"/>
     </row>
     <row r="211" spans="8:28">
-      <c r="H211" s="44"/>
-      <c r="I211" s="44"/>
-      <c r="J211" s="44"/>
+      <c r="H211" s="48"/>
+      <c r="I211" s="48"/>
+      <c r="J211" s="48"/>
       <c r="K211" s="41"/>
       <c r="L211" s="41"/>
       <c r="M211" s="41"/>
@@ -20621,21 +21441,21 @@
       <c r="P211" s="41"/>
       <c r="Q211" s="41"/>
       <c r="R211" s="42"/>
-      <c r="S211" s="47"/>
-      <c r="T211" s="47"/>
-      <c r="U211" s="47"/>
-      <c r="V211" s="47"/>
-      <c r="W211" s="47"/>
-      <c r="X211" s="47"/>
-      <c r="Y211" s="47"/>
-      <c r="Z211" s="47"/>
-      <c r="AA211" s="47"/>
-      <c r="AB211" s="47"/>
+      <c r="S211" s="51"/>
+      <c r="T211" s="51"/>
+      <c r="U211" s="51"/>
+      <c r="V211" s="51"/>
+      <c r="W211" s="51"/>
+      <c r="X211" s="51"/>
+      <c r="Y211" s="51"/>
+      <c r="Z211" s="51"/>
+      <c r="AA211" s="51"/>
+      <c r="AB211" s="51"/>
     </row>
     <row r="212" spans="8:28">
-      <c r="H212" s="44"/>
-      <c r="I212" s="44"/>
-      <c r="J212" s="44"/>
+      <c r="H212" s="48"/>
+      <c r="I212" s="48"/>
+      <c r="J212" s="48"/>
       <c r="K212" s="41"/>
       <c r="L212" s="41"/>
       <c r="M212" s="41"/>
@@ -20644,21 +21464,21 @@
       <c r="P212" s="41"/>
       <c r="Q212" s="41"/>
       <c r="R212" s="42"/>
-      <c r="S212" s="47"/>
-      <c r="T212" s="47"/>
-      <c r="U212" s="47"/>
-      <c r="V212" s="47"/>
-      <c r="W212" s="47"/>
-      <c r="X212" s="47"/>
-      <c r="Y212" s="47"/>
-      <c r="Z212" s="47"/>
-      <c r="AA212" s="47"/>
-      <c r="AB212" s="47"/>
+      <c r="S212" s="51"/>
+      <c r="T212" s="51"/>
+      <c r="U212" s="51"/>
+      <c r="V212" s="51"/>
+      <c r="W212" s="51"/>
+      <c r="X212" s="51"/>
+      <c r="Y212" s="51"/>
+      <c r="Z212" s="51"/>
+      <c r="AA212" s="51"/>
+      <c r="AB212" s="51"/>
     </row>
     <row r="213" spans="8:28">
-      <c r="H213" s="44"/>
-      <c r="I213" s="44"/>
-      <c r="J213" s="44"/>
+      <c r="H213" s="48"/>
+      <c r="I213" s="48"/>
+      <c r="J213" s="48"/>
       <c r="K213" s="41"/>
       <c r="L213" s="41"/>
       <c r="M213" s="41"/>
@@ -20667,21 +21487,21 @@
       <c r="P213" s="41"/>
       <c r="Q213" s="41"/>
       <c r="R213" s="42"/>
-      <c r="S213" s="47"/>
-      <c r="T213" s="47"/>
-      <c r="U213" s="47"/>
-      <c r="V213" s="47"/>
-      <c r="W213" s="47"/>
-      <c r="X213" s="47"/>
-      <c r="Y213" s="47"/>
-      <c r="Z213" s="47"/>
-      <c r="AA213" s="47"/>
-      <c r="AB213" s="47"/>
+      <c r="S213" s="51"/>
+      <c r="T213" s="51"/>
+      <c r="U213" s="51"/>
+      <c r="V213" s="51"/>
+      <c r="W213" s="51"/>
+      <c r="X213" s="51"/>
+      <c r="Y213" s="51"/>
+      <c r="Z213" s="51"/>
+      <c r="AA213" s="51"/>
+      <c r="AB213" s="51"/>
     </row>
     <row r="214" spans="8:28">
-      <c r="H214" s="44"/>
-      <c r="I214" s="44"/>
-      <c r="J214" s="44"/>
+      <c r="H214" s="48"/>
+      <c r="I214" s="48"/>
+      <c r="J214" s="48"/>
       <c r="K214" s="41"/>
       <c r="L214" s="41"/>
       <c r="M214" s="41"/>
@@ -20690,21 +21510,21 @@
       <c r="P214" s="41"/>
       <c r="Q214" s="41"/>
       <c r="R214" s="42"/>
-      <c r="S214" s="47"/>
-      <c r="T214" s="47"/>
-      <c r="U214" s="47"/>
-      <c r="V214" s="47"/>
-      <c r="W214" s="47"/>
-      <c r="X214" s="47"/>
-      <c r="Y214" s="47"/>
-      <c r="Z214" s="47"/>
-      <c r="AA214" s="47"/>
-      <c r="AB214" s="47"/>
+      <c r="S214" s="51"/>
+      <c r="T214" s="51"/>
+      <c r="U214" s="51"/>
+      <c r="V214" s="51"/>
+      <c r="W214" s="51"/>
+      <c r="X214" s="51"/>
+      <c r="Y214" s="51"/>
+      <c r="Z214" s="51"/>
+      <c r="AA214" s="51"/>
+      <c r="AB214" s="51"/>
     </row>
     <row r="215" spans="8:28">
-      <c r="H215" s="44"/>
-      <c r="I215" s="44"/>
-      <c r="J215" s="44"/>
+      <c r="H215" s="48"/>
+      <c r="I215" s="48"/>
+      <c r="J215" s="48"/>
       <c r="K215" s="41"/>
       <c r="L215" s="41"/>
       <c r="M215" s="41"/>
@@ -20713,21 +21533,21 @@
       <c r="P215" s="41"/>
       <c r="Q215" s="41"/>
       <c r="R215" s="42"/>
-      <c r="S215" s="47"/>
-      <c r="T215" s="47"/>
-      <c r="U215" s="47"/>
-      <c r="V215" s="47"/>
-      <c r="W215" s="47"/>
-      <c r="X215" s="47"/>
-      <c r="Y215" s="47"/>
-      <c r="Z215" s="47"/>
-      <c r="AA215" s="47"/>
-      <c r="AB215" s="47"/>
+      <c r="S215" s="51"/>
+      <c r="T215" s="51"/>
+      <c r="U215" s="51"/>
+      <c r="V215" s="51"/>
+      <c r="W215" s="51"/>
+      <c r="X215" s="51"/>
+      <c r="Y215" s="51"/>
+      <c r="Z215" s="51"/>
+      <c r="AA215" s="51"/>
+      <c r="AB215" s="51"/>
     </row>
     <row r="216" spans="8:28">
-      <c r="H216" s="44"/>
-      <c r="I216" s="44"/>
-      <c r="J216" s="44"/>
+      <c r="H216" s="48"/>
+      <c r="I216" s="48"/>
+      <c r="J216" s="48"/>
       <c r="K216" s="41"/>
       <c r="L216" s="41"/>
       <c r="M216" s="41"/>
@@ -20736,424 +21556,424 @@
       <c r="P216" s="41"/>
       <c r="Q216" s="41"/>
       <c r="R216" s="42"/>
-      <c r="S216" s="47"/>
-      <c r="T216" s="47"/>
-      <c r="U216" s="47"/>
-      <c r="V216" s="47"/>
-      <c r="W216" s="47"/>
-      <c r="X216" s="47"/>
-      <c r="Y216" s="47"/>
-      <c r="Z216" s="47"/>
-      <c r="AA216" s="47"/>
-      <c r="AB216" s="47"/>
+      <c r="S216" s="51"/>
+      <c r="T216" s="51"/>
+      <c r="U216" s="51"/>
+      <c r="V216" s="51"/>
+      <c r="W216" s="51"/>
+      <c r="X216" s="51"/>
+      <c r="Y216" s="51"/>
+      <c r="Z216" s="51"/>
+      <c r="AA216" s="51"/>
+      <c r="AB216" s="51"/>
     </row>
     <row r="217" spans="8:28">
-      <c r="H217" s="44">
+      <c r="H217" s="48">
         <v>10</v>
       </c>
-      <c r="I217" s="44" t="s">
+      <c r="I217" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="J217" s="44"/>
-      <c r="K217" s="44" t="s">
+      <c r="J217" s="48"/>
+      <c r="K217" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="L217" s="44" t="s">
+      <c r="L217" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="M217" s="44" t="s">
+      <c r="M217" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="N217" s="44"/>
-      <c r="O217" s="125" t="s">
+      <c r="N217" s="48"/>
+      <c r="O217" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="P217" s="125" t="s">
+      <c r="P217" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="Q217" s="125" t="s">
+      <c r="Q217" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="R217" s="46" t="s">
+      <c r="R217" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="S217" s="112" t="s">
+      <c r="S217" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="T217" s="112"/>
-      <c r="U217" s="112"/>
-      <c r="V217" s="112"/>
-      <c r="W217" s="112"/>
-      <c r="X217" s="112"/>
-      <c r="Y217" s="112"/>
-      <c r="Z217" s="112"/>
-      <c r="AA217" s="112"/>
-      <c r="AB217" s="112"/>
+      <c r="T217" s="116"/>
+      <c r="U217" s="116"/>
+      <c r="V217" s="116"/>
+      <c r="W217" s="116"/>
+      <c r="X217" s="116"/>
+      <c r="Y217" s="116"/>
+      <c r="Z217" s="116"/>
+      <c r="AA217" s="116"/>
+      <c r="AB217" s="116"/>
     </row>
     <row r="218" spans="8:28">
-      <c r="H218" s="44"/>
-      <c r="I218" s="44"/>
-      <c r="J218" s="44"/>
-      <c r="K218" s="44"/>
-      <c r="L218" s="44"/>
-      <c r="M218" s="44"/>
-      <c r="N218" s="44"/>
-      <c r="O218" s="44"/>
-      <c r="P218" s="44"/>
-      <c r="Q218" s="44"/>
-      <c r="R218" s="46"/>
-      <c r="S218" s="112"/>
-      <c r="T218" s="112"/>
-      <c r="U218" s="112"/>
-      <c r="V218" s="112"/>
-      <c r="W218" s="112"/>
-      <c r="X218" s="112"/>
-      <c r="Y218" s="112"/>
-      <c r="Z218" s="112"/>
-      <c r="AA218" s="112"/>
-      <c r="AB218" s="112"/>
+      <c r="H218" s="48"/>
+      <c r="I218" s="48"/>
+      <c r="J218" s="48"/>
+      <c r="K218" s="48"/>
+      <c r="L218" s="48"/>
+      <c r="M218" s="48"/>
+      <c r="N218" s="48"/>
+      <c r="O218" s="48"/>
+      <c r="P218" s="48"/>
+      <c r="Q218" s="48"/>
+      <c r="R218" s="50"/>
+      <c r="S218" s="116"/>
+      <c r="T218" s="116"/>
+      <c r="U218" s="116"/>
+      <c r="V218" s="116"/>
+      <c r="W218" s="116"/>
+      <c r="X218" s="116"/>
+      <c r="Y218" s="116"/>
+      <c r="Z218" s="116"/>
+      <c r="AA218" s="116"/>
+      <c r="AB218" s="116"/>
     </row>
     <row r="219" spans="8:28">
-      <c r="H219" s="44"/>
-      <c r="I219" s="44"/>
-      <c r="J219" s="44"/>
-      <c r="K219" s="44"/>
-      <c r="L219" s="44"/>
-      <c r="M219" s="44"/>
-      <c r="N219" s="44"/>
-      <c r="O219" s="44"/>
-      <c r="P219" s="44"/>
-      <c r="Q219" s="44"/>
-      <c r="R219" s="46"/>
-      <c r="S219" s="112"/>
-      <c r="T219" s="112"/>
-      <c r="U219" s="112"/>
-      <c r="V219" s="112"/>
-      <c r="W219" s="112"/>
-      <c r="X219" s="112"/>
-      <c r="Y219" s="112"/>
-      <c r="Z219" s="112"/>
-      <c r="AA219" s="112"/>
-      <c r="AB219" s="112"/>
+      <c r="H219" s="48"/>
+      <c r="I219" s="48"/>
+      <c r="J219" s="48"/>
+      <c r="K219" s="48"/>
+      <c r="L219" s="48"/>
+      <c r="M219" s="48"/>
+      <c r="N219" s="48"/>
+      <c r="O219" s="48"/>
+      <c r="P219" s="48"/>
+      <c r="Q219" s="48"/>
+      <c r="R219" s="50"/>
+      <c r="S219" s="116"/>
+      <c r="T219" s="116"/>
+      <c r="U219" s="116"/>
+      <c r="V219" s="116"/>
+      <c r="W219" s="116"/>
+      <c r="X219" s="116"/>
+      <c r="Y219" s="116"/>
+      <c r="Z219" s="116"/>
+      <c r="AA219" s="116"/>
+      <c r="AB219" s="116"/>
     </row>
     <row r="220" spans="8:28">
-      <c r="H220" s="44"/>
-      <c r="I220" s="44"/>
-      <c r="J220" s="44"/>
-      <c r="K220" s="44"/>
-      <c r="L220" s="44"/>
-      <c r="M220" s="44"/>
-      <c r="N220" s="44"/>
-      <c r="O220" s="44"/>
-      <c r="P220" s="44"/>
-      <c r="Q220" s="44"/>
-      <c r="R220" s="46"/>
-      <c r="S220" s="112"/>
-      <c r="T220" s="112"/>
-      <c r="U220" s="112"/>
-      <c r="V220" s="112"/>
-      <c r="W220" s="112"/>
-      <c r="X220" s="112"/>
-      <c r="Y220" s="112"/>
-      <c r="Z220" s="112"/>
-      <c r="AA220" s="112"/>
-      <c r="AB220" s="112"/>
+      <c r="H220" s="48"/>
+      <c r="I220" s="48"/>
+      <c r="J220" s="48"/>
+      <c r="K220" s="48"/>
+      <c r="L220" s="48"/>
+      <c r="M220" s="48"/>
+      <c r="N220" s="48"/>
+      <c r="O220" s="48"/>
+      <c r="P220" s="48"/>
+      <c r="Q220" s="48"/>
+      <c r="R220" s="50"/>
+      <c r="S220" s="116"/>
+      <c r="T220" s="116"/>
+      <c r="U220" s="116"/>
+      <c r="V220" s="116"/>
+      <c r="W220" s="116"/>
+      <c r="X220" s="116"/>
+      <c r="Y220" s="116"/>
+      <c r="Z220" s="116"/>
+      <c r="AA220" s="116"/>
+      <c r="AB220" s="116"/>
     </row>
     <row r="221" spans="8:28">
-      <c r="H221" s="44"/>
-      <c r="I221" s="44"/>
-      <c r="J221" s="44"/>
-      <c r="K221" s="44"/>
-      <c r="L221" s="44"/>
-      <c r="M221" s="44"/>
-      <c r="N221" s="44"/>
-      <c r="O221" s="44"/>
-      <c r="P221" s="44"/>
-      <c r="Q221" s="44"/>
-      <c r="R221" s="46"/>
-      <c r="S221" s="112"/>
-      <c r="T221" s="112"/>
-      <c r="U221" s="112"/>
-      <c r="V221" s="112"/>
-      <c r="W221" s="112"/>
-      <c r="X221" s="112"/>
-      <c r="Y221" s="112"/>
-      <c r="Z221" s="112"/>
-      <c r="AA221" s="112"/>
-      <c r="AB221" s="112"/>
+      <c r="H221" s="48"/>
+      <c r="I221" s="48"/>
+      <c r="J221" s="48"/>
+      <c r="K221" s="48"/>
+      <c r="L221" s="48"/>
+      <c r="M221" s="48"/>
+      <c r="N221" s="48"/>
+      <c r="O221" s="48"/>
+      <c r="P221" s="48"/>
+      <c r="Q221" s="48"/>
+      <c r="R221" s="50"/>
+      <c r="S221" s="116"/>
+      <c r="T221" s="116"/>
+      <c r="U221" s="116"/>
+      <c r="V221" s="116"/>
+      <c r="W221" s="116"/>
+      <c r="X221" s="116"/>
+      <c r="Y221" s="116"/>
+      <c r="Z221" s="116"/>
+      <c r="AA221" s="116"/>
+      <c r="AB221" s="116"/>
     </row>
     <row r="222" spans="8:28">
-      <c r="H222" s="44"/>
-      <c r="I222" s="44"/>
-      <c r="J222" s="44"/>
-      <c r="K222" s="44"/>
-      <c r="L222" s="44"/>
-      <c r="M222" s="44"/>
-      <c r="N222" s="44"/>
-      <c r="O222" s="44"/>
-      <c r="P222" s="44"/>
-      <c r="Q222" s="44"/>
-      <c r="R222" s="46"/>
-      <c r="S222" s="112"/>
-      <c r="T222" s="112"/>
-      <c r="U222" s="112"/>
-      <c r="V222" s="112"/>
-      <c r="W222" s="112"/>
-      <c r="X222" s="112"/>
-      <c r="Y222" s="112"/>
-      <c r="Z222" s="112"/>
-      <c r="AA222" s="112"/>
-      <c r="AB222" s="112"/>
+      <c r="H222" s="48"/>
+      <c r="I222" s="48"/>
+      <c r="J222" s="48"/>
+      <c r="K222" s="48"/>
+      <c r="L222" s="48"/>
+      <c r="M222" s="48"/>
+      <c r="N222" s="48"/>
+      <c r="O222" s="48"/>
+      <c r="P222" s="48"/>
+      <c r="Q222" s="48"/>
+      <c r="R222" s="50"/>
+      <c r="S222" s="116"/>
+      <c r="T222" s="116"/>
+      <c r="U222" s="116"/>
+      <c r="V222" s="116"/>
+      <c r="W222" s="116"/>
+      <c r="X222" s="116"/>
+      <c r="Y222" s="116"/>
+      <c r="Z222" s="116"/>
+      <c r="AA222" s="116"/>
+      <c r="AB222" s="116"/>
     </row>
     <row r="223" spans="8:28">
-      <c r="H223" s="44"/>
-      <c r="I223" s="44"/>
-      <c r="J223" s="44"/>
-      <c r="K223" s="44"/>
-      <c r="L223" s="44"/>
-      <c r="M223" s="44"/>
-      <c r="N223" s="44"/>
-      <c r="O223" s="44"/>
-      <c r="P223" s="44"/>
-      <c r="Q223" s="44"/>
-      <c r="R223" s="46"/>
-      <c r="S223" s="112"/>
-      <c r="T223" s="112"/>
-      <c r="U223" s="112"/>
-      <c r="V223" s="112"/>
-      <c r="W223" s="112"/>
-      <c r="X223" s="112"/>
-      <c r="Y223" s="112"/>
-      <c r="Z223" s="112"/>
-      <c r="AA223" s="112"/>
-      <c r="AB223" s="112"/>
+      <c r="H223" s="48"/>
+      <c r="I223" s="48"/>
+      <c r="J223" s="48"/>
+      <c r="K223" s="48"/>
+      <c r="L223" s="48"/>
+      <c r="M223" s="48"/>
+      <c r="N223" s="48"/>
+      <c r="O223" s="48"/>
+      <c r="P223" s="48"/>
+      <c r="Q223" s="48"/>
+      <c r="R223" s="50"/>
+      <c r="S223" s="116"/>
+      <c r="T223" s="116"/>
+      <c r="U223" s="116"/>
+      <c r="V223" s="116"/>
+      <c r="W223" s="116"/>
+      <c r="X223" s="116"/>
+      <c r="Y223" s="116"/>
+      <c r="Z223" s="116"/>
+      <c r="AA223" s="116"/>
+      <c r="AB223" s="116"/>
     </row>
     <row r="224" spans="8:28">
-      <c r="H224" s="44"/>
-      <c r="I224" s="44"/>
-      <c r="J224" s="44"/>
-      <c r="K224" s="44"/>
-      <c r="L224" s="44"/>
-      <c r="M224" s="44"/>
-      <c r="N224" s="44"/>
-      <c r="O224" s="44"/>
-      <c r="P224" s="44"/>
-      <c r="Q224" s="44"/>
-      <c r="R224" s="46"/>
-      <c r="S224" s="112"/>
-      <c r="T224" s="112"/>
-      <c r="U224" s="112"/>
-      <c r="V224" s="112"/>
-      <c r="W224" s="112"/>
-      <c r="X224" s="112"/>
-      <c r="Y224" s="112"/>
-      <c r="Z224" s="112"/>
-      <c r="AA224" s="112"/>
-      <c r="AB224" s="112"/>
+      <c r="H224" s="48"/>
+      <c r="I224" s="48"/>
+      <c r="J224" s="48"/>
+      <c r="K224" s="48"/>
+      <c r="L224" s="48"/>
+      <c r="M224" s="48"/>
+      <c r="N224" s="48"/>
+      <c r="O224" s="48"/>
+      <c r="P224" s="48"/>
+      <c r="Q224" s="48"/>
+      <c r="R224" s="50"/>
+      <c r="S224" s="116"/>
+      <c r="T224" s="116"/>
+      <c r="U224" s="116"/>
+      <c r="V224" s="116"/>
+      <c r="W224" s="116"/>
+      <c r="X224" s="116"/>
+      <c r="Y224" s="116"/>
+      <c r="Z224" s="116"/>
+      <c r="AA224" s="116"/>
+      <c r="AB224" s="116"/>
     </row>
     <row r="225" spans="8:28">
-      <c r="H225" s="44"/>
-      <c r="I225" s="44"/>
-      <c r="J225" s="44"/>
-      <c r="K225" s="44"/>
-      <c r="L225" s="44"/>
-      <c r="M225" s="44"/>
-      <c r="N225" s="44"/>
-      <c r="O225" s="44"/>
-      <c r="P225" s="44"/>
-      <c r="Q225" s="44"/>
-      <c r="R225" s="46"/>
-      <c r="S225" s="112"/>
-      <c r="T225" s="112"/>
-      <c r="U225" s="112"/>
-      <c r="V225" s="112"/>
-      <c r="W225" s="112"/>
-      <c r="X225" s="112"/>
-      <c r="Y225" s="112"/>
-      <c r="Z225" s="112"/>
-      <c r="AA225" s="112"/>
-      <c r="AB225" s="112"/>
+      <c r="H225" s="48"/>
+      <c r="I225" s="48"/>
+      <c r="J225" s="48"/>
+      <c r="K225" s="48"/>
+      <c r="L225" s="48"/>
+      <c r="M225" s="48"/>
+      <c r="N225" s="48"/>
+      <c r="O225" s="48"/>
+      <c r="P225" s="48"/>
+      <c r="Q225" s="48"/>
+      <c r="R225" s="50"/>
+      <c r="S225" s="116"/>
+      <c r="T225" s="116"/>
+      <c r="U225" s="116"/>
+      <c r="V225" s="116"/>
+      <c r="W225" s="116"/>
+      <c r="X225" s="116"/>
+      <c r="Y225" s="116"/>
+      <c r="Z225" s="116"/>
+      <c r="AA225" s="116"/>
+      <c r="AB225" s="116"/>
     </row>
     <row r="226" spans="8:28">
-      <c r="H226" s="44"/>
-      <c r="I226" s="44"/>
-      <c r="J226" s="44"/>
-      <c r="K226" s="44"/>
-      <c r="L226" s="44"/>
-      <c r="M226" s="44"/>
-      <c r="N226" s="44"/>
-      <c r="O226" s="44"/>
-      <c r="P226" s="44"/>
-      <c r="Q226" s="44"/>
-      <c r="R226" s="46"/>
-      <c r="S226" s="112"/>
-      <c r="T226" s="112"/>
-      <c r="U226" s="112"/>
-      <c r="V226" s="112"/>
-      <c r="W226" s="112"/>
-      <c r="X226" s="112"/>
-      <c r="Y226" s="112"/>
-      <c r="Z226" s="112"/>
-      <c r="AA226" s="112"/>
-      <c r="AB226" s="112"/>
+      <c r="H226" s="48"/>
+      <c r="I226" s="48"/>
+      <c r="J226" s="48"/>
+      <c r="K226" s="48"/>
+      <c r="L226" s="48"/>
+      <c r="M226" s="48"/>
+      <c r="N226" s="48"/>
+      <c r="O226" s="48"/>
+      <c r="P226" s="48"/>
+      <c r="Q226" s="48"/>
+      <c r="R226" s="50"/>
+      <c r="S226" s="116"/>
+      <c r="T226" s="116"/>
+      <c r="U226" s="116"/>
+      <c r="V226" s="116"/>
+      <c r="W226" s="116"/>
+      <c r="X226" s="116"/>
+      <c r="Y226" s="116"/>
+      <c r="Z226" s="116"/>
+      <c r="AA226" s="116"/>
+      <c r="AB226" s="116"/>
     </row>
     <row r="227" spans="8:28">
-      <c r="H227" s="44"/>
-      <c r="I227" s="44"/>
-      <c r="J227" s="44"/>
-      <c r="K227" s="44"/>
-      <c r="L227" s="44"/>
-      <c r="M227" s="44"/>
-      <c r="N227" s="44"/>
-      <c r="O227" s="44"/>
-      <c r="P227" s="44"/>
-      <c r="Q227" s="44"/>
-      <c r="R227" s="46"/>
-      <c r="S227" s="112"/>
-      <c r="T227" s="112"/>
-      <c r="U227" s="112"/>
-      <c r="V227" s="112"/>
-      <c r="W227" s="112"/>
-      <c r="X227" s="112"/>
-      <c r="Y227" s="112"/>
-      <c r="Z227" s="112"/>
-      <c r="AA227" s="112"/>
-      <c r="AB227" s="112"/>
+      <c r="H227" s="48"/>
+      <c r="I227" s="48"/>
+      <c r="J227" s="48"/>
+      <c r="K227" s="48"/>
+      <c r="L227" s="48"/>
+      <c r="M227" s="48"/>
+      <c r="N227" s="48"/>
+      <c r="O227" s="48"/>
+      <c r="P227" s="48"/>
+      <c r="Q227" s="48"/>
+      <c r="R227" s="50"/>
+      <c r="S227" s="116"/>
+      <c r="T227" s="116"/>
+      <c r="U227" s="116"/>
+      <c r="V227" s="116"/>
+      <c r="W227" s="116"/>
+      <c r="X227" s="116"/>
+      <c r="Y227" s="116"/>
+      <c r="Z227" s="116"/>
+      <c r="AA227" s="116"/>
+      <c r="AB227" s="116"/>
     </row>
     <row r="228" spans="8:28">
-      <c r="H228" s="44"/>
-      <c r="I228" s="44"/>
-      <c r="J228" s="44"/>
-      <c r="K228" s="44"/>
-      <c r="L228" s="44"/>
-      <c r="M228" s="44"/>
-      <c r="N228" s="44"/>
-      <c r="O228" s="44"/>
-      <c r="P228" s="44"/>
-      <c r="Q228" s="44"/>
-      <c r="R228" s="46"/>
-      <c r="S228" s="112"/>
-      <c r="T228" s="112"/>
-      <c r="U228" s="112"/>
-      <c r="V228" s="112"/>
-      <c r="W228" s="112"/>
-      <c r="X228" s="112"/>
-      <c r="Y228" s="112"/>
-      <c r="Z228" s="112"/>
-      <c r="AA228" s="112"/>
-      <c r="AB228" s="112"/>
+      <c r="H228" s="48"/>
+      <c r="I228" s="48"/>
+      <c r="J228" s="48"/>
+      <c r="K228" s="48"/>
+      <c r="L228" s="48"/>
+      <c r="M228" s="48"/>
+      <c r="N228" s="48"/>
+      <c r="O228" s="48"/>
+      <c r="P228" s="48"/>
+      <c r="Q228" s="48"/>
+      <c r="R228" s="50"/>
+      <c r="S228" s="116"/>
+      <c r="T228" s="116"/>
+      <c r="U228" s="116"/>
+      <c r="V228" s="116"/>
+      <c r="W228" s="116"/>
+      <c r="X228" s="116"/>
+      <c r="Y228" s="116"/>
+      <c r="Z228" s="116"/>
+      <c r="AA228" s="116"/>
+      <c r="AB228" s="116"/>
     </row>
     <row r="229" spans="8:28">
-      <c r="H229" s="44"/>
-      <c r="I229" s="44"/>
-      <c r="J229" s="44"/>
-      <c r="K229" s="44"/>
-      <c r="L229" s="44"/>
-      <c r="M229" s="44"/>
-      <c r="N229" s="44"/>
-      <c r="O229" s="44"/>
-      <c r="P229" s="44"/>
-      <c r="Q229" s="44"/>
-      <c r="R229" s="46"/>
-      <c r="S229" s="112"/>
-      <c r="T229" s="112"/>
-      <c r="U229" s="112"/>
-      <c r="V229" s="112"/>
-      <c r="W229" s="112"/>
-      <c r="X229" s="112"/>
-      <c r="Y229" s="112"/>
-      <c r="Z229" s="112"/>
-      <c r="AA229" s="112"/>
-      <c r="AB229" s="112"/>
+      <c r="H229" s="48"/>
+      <c r="I229" s="48"/>
+      <c r="J229" s="48"/>
+      <c r="K229" s="48"/>
+      <c r="L229" s="48"/>
+      <c r="M229" s="48"/>
+      <c r="N229" s="48"/>
+      <c r="O229" s="48"/>
+      <c r="P229" s="48"/>
+      <c r="Q229" s="48"/>
+      <c r="R229" s="50"/>
+      <c r="S229" s="116"/>
+      <c r="T229" s="116"/>
+      <c r="U229" s="116"/>
+      <c r="V229" s="116"/>
+      <c r="W229" s="116"/>
+      <c r="X229" s="116"/>
+      <c r="Y229" s="116"/>
+      <c r="Z229" s="116"/>
+      <c r="AA229" s="116"/>
+      <c r="AB229" s="116"/>
     </row>
     <row r="230" spans="8:28">
-      <c r="H230" s="44"/>
-      <c r="I230" s="44"/>
-      <c r="J230" s="44"/>
-      <c r="K230" s="44"/>
-      <c r="L230" s="44"/>
-      <c r="M230" s="44"/>
-      <c r="N230" s="44"/>
-      <c r="O230" s="44"/>
-      <c r="P230" s="44"/>
-      <c r="Q230" s="44"/>
-      <c r="R230" s="46"/>
-      <c r="S230" s="112"/>
-      <c r="T230" s="112"/>
-      <c r="U230" s="112"/>
-      <c r="V230" s="112"/>
-      <c r="W230" s="112"/>
-      <c r="X230" s="112"/>
-      <c r="Y230" s="112"/>
-      <c r="Z230" s="112"/>
-      <c r="AA230" s="112"/>
-      <c r="AB230" s="112"/>
+      <c r="H230" s="48"/>
+      <c r="I230" s="48"/>
+      <c r="J230" s="48"/>
+      <c r="K230" s="48"/>
+      <c r="L230" s="48"/>
+      <c r="M230" s="48"/>
+      <c r="N230" s="48"/>
+      <c r="O230" s="48"/>
+      <c r="P230" s="48"/>
+      <c r="Q230" s="48"/>
+      <c r="R230" s="50"/>
+      <c r="S230" s="116"/>
+      <c r="T230" s="116"/>
+      <c r="U230" s="116"/>
+      <c r="V230" s="116"/>
+      <c r="W230" s="116"/>
+      <c r="X230" s="116"/>
+      <c r="Y230" s="116"/>
+      <c r="Z230" s="116"/>
+      <c r="AA230" s="116"/>
+      <c r="AB230" s="116"/>
     </row>
     <row r="231" ht="38" customHeight="1" spans="8:28">
-      <c r="H231" s="44"/>
-      <c r="I231" s="44"/>
-      <c r="J231" s="44"/>
-      <c r="K231" s="44"/>
-      <c r="L231" s="44"/>
-      <c r="M231" s="44"/>
-      <c r="N231" s="44"/>
-      <c r="O231" s="44"/>
-      <c r="P231" s="44"/>
-      <c r="Q231" s="44"/>
-      <c r="R231" s="46"/>
-      <c r="S231" s="112"/>
-      <c r="T231" s="112"/>
-      <c r="U231" s="112"/>
-      <c r="V231" s="112"/>
-      <c r="W231" s="112"/>
-      <c r="X231" s="112"/>
-      <c r="Y231" s="112"/>
-      <c r="Z231" s="112"/>
-      <c r="AA231" s="112"/>
-      <c r="AB231" s="112"/>
+      <c r="H231" s="48"/>
+      <c r="I231" s="48"/>
+      <c r="J231" s="48"/>
+      <c r="K231" s="48"/>
+      <c r="L231" s="48"/>
+      <c r="M231" s="48"/>
+      <c r="N231" s="48"/>
+      <c r="O231" s="48"/>
+      <c r="P231" s="48"/>
+      <c r="Q231" s="48"/>
+      <c r="R231" s="50"/>
+      <c r="S231" s="116"/>
+      <c r="T231" s="116"/>
+      <c r="U231" s="116"/>
+      <c r="V231" s="116"/>
+      <c r="W231" s="116"/>
+      <c r="X231" s="116"/>
+      <c r="Y231" s="116"/>
+      <c r="Z231" s="116"/>
+      <c r="AA231" s="116"/>
+      <c r="AB231" s="116"/>
     </row>
     <row r="232" ht="28.8" spans="8:28">
-      <c r="H232" s="44">
+      <c r="H232" s="48">
         <v>11</v>
       </c>
-      <c r="I232" s="44" t="s">
+      <c r="I232" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="J232" s="44"/>
-      <c r="K232" s="46" t="s">
+      <c r="J232" s="48"/>
+      <c r="K232" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="L232" s="44" t="s">
+      <c r="L232" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="M232" s="44" t="s">
+      <c r="M232" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="N232" s="44"/>
-      <c r="O232" s="125" t="s">
+      <c r="N232" s="48"/>
+      <c r="O232" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="P232" s="125" t="s">
+      <c r="P232" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="Q232" s="125" t="s">
+      <c r="Q232" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="R232" s="46" t="s">
+      <c r="R232" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="S232" s="113" t="s">
+      <c r="S232" s="117" t="s">
         <v>104</v>
       </c>
-      <c r="T232" s="113"/>
-      <c r="U232" s="113"/>
-      <c r="V232" s="113"/>
-      <c r="W232" s="113"/>
-      <c r="X232" s="113"/>
-      <c r="Y232" s="113"/>
-      <c r="Z232" s="113"/>
-      <c r="AA232" s="113"/>
-      <c r="AB232" s="113"/>
+      <c r="T232" s="117"/>
+      <c r="U232" s="117"/>
+      <c r="V232" s="117"/>
+      <c r="W232" s="117"/>
+      <c r="X232" s="117"/>
+      <c r="Y232" s="117"/>
+      <c r="Z232" s="117"/>
+      <c r="AA232" s="117"/>
+      <c r="AB232" s="117"/>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" s="12" t="s">
@@ -21233,673 +22053,673 @@
       <c r="R236" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="S236" s="91" t="s">
+      <c r="S236" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="T236" s="92"/>
-      <c r="U236" s="92"/>
-      <c r="V236" s="92"/>
-      <c r="W236" s="92"/>
-      <c r="X236" s="92"/>
-      <c r="Y236" s="92"/>
-      <c r="Z236" s="92"/>
-      <c r="AA236" s="92"/>
-      <c r="AB236" s="93"/>
+      <c r="T236" s="96"/>
+      <c r="U236" s="96"/>
+      <c r="V236" s="96"/>
+      <c r="W236" s="96"/>
+      <c r="X236" s="96"/>
+      <c r="Y236" s="96"/>
+      <c r="Z236" s="96"/>
+      <c r="AA236" s="96"/>
+      <c r="AB236" s="97"/>
     </row>
     <row r="237" spans="8:28">
-      <c r="H237" s="44">
+      <c r="H237" s="48">
         <v>2</v>
       </c>
       <c r="I237" s="41" t="s">
         <v>108</v>
       </c>
       <c r="J237" s="41"/>
-      <c r="K237" s="46" t="s">
+      <c r="K237" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="L237" s="44" t="s">
+      <c r="L237" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="M237" s="46" t="s">
+      <c r="M237" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="N237" s="46"/>
-      <c r="O237" s="110">
+      <c r="N237" s="50"/>
+      <c r="O237" s="114">
         <v>15</v>
       </c>
-      <c r="P237" s="44" t="s">
+      <c r="P237" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="Q237" s="44" t="s">
+      <c r="Q237" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="R237" s="44" t="s">
+      <c r="R237" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="S237" s="113" t="s">
+      <c r="S237" s="117" t="s">
         <v>111</v>
       </c>
-      <c r="T237" s="113"/>
-      <c r="U237" s="113"/>
-      <c r="V237" s="113"/>
-      <c r="W237" s="113"/>
-      <c r="X237" s="113"/>
-      <c r="Y237" s="113"/>
-      <c r="Z237" s="113"/>
-      <c r="AA237" s="113"/>
-      <c r="AB237" s="113"/>
+      <c r="T237" s="117"/>
+      <c r="U237" s="117"/>
+      <c r="V237" s="117"/>
+      <c r="W237" s="117"/>
+      <c r="X237" s="117"/>
+      <c r="Y237" s="117"/>
+      <c r="Z237" s="117"/>
+      <c r="AA237" s="117"/>
+      <c r="AB237" s="117"/>
     </row>
     <row r="238" spans="8:28">
-      <c r="H238" s="44"/>
+      <c r="H238" s="48"/>
       <c r="I238" s="41"/>
       <c r="J238" s="41"/>
-      <c r="K238" s="46"/>
-      <c r="L238" s="44"/>
-      <c r="M238" s="46"/>
-      <c r="N238" s="46"/>
-      <c r="O238" s="111"/>
-      <c r="P238" s="44"/>
-      <c r="Q238" s="44"/>
-      <c r="R238" s="44"/>
-      <c r="S238" s="113"/>
-      <c r="T238" s="113"/>
-      <c r="U238" s="113"/>
-      <c r="V238" s="113"/>
-      <c r="W238" s="113"/>
-      <c r="X238" s="113"/>
-      <c r="Y238" s="113"/>
-      <c r="Z238" s="113"/>
-      <c r="AA238" s="113"/>
-      <c r="AB238" s="113"/>
+      <c r="K238" s="50"/>
+      <c r="L238" s="48"/>
+      <c r="M238" s="50"/>
+      <c r="N238" s="50"/>
+      <c r="O238" s="115"/>
+      <c r="P238" s="48"/>
+      <c r="Q238" s="48"/>
+      <c r="R238" s="48"/>
+      <c r="S238" s="117"/>
+      <c r="T238" s="117"/>
+      <c r="U238" s="117"/>
+      <c r="V238" s="117"/>
+      <c r="W238" s="117"/>
+      <c r="X238" s="117"/>
+      <c r="Y238" s="117"/>
+      <c r="Z238" s="117"/>
+      <c r="AA238" s="117"/>
+      <c r="AB238" s="117"/>
     </row>
     <row r="239" spans="8:28">
-      <c r="H239" s="44">
+      <c r="H239" s="48">
         <v>3</v>
       </c>
       <c r="I239" s="41" t="s">
         <v>112</v>
       </c>
       <c r="J239" s="41"/>
-      <c r="K239" s="44" t="s">
+      <c r="K239" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="L239" s="44" t="s">
+      <c r="L239" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="M239" s="44" t="s">
+      <c r="M239" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="N239" s="44"/>
-      <c r="O239" s="44">
+      <c r="N239" s="48"/>
+      <c r="O239" s="48">
         <v>6</v>
       </c>
-      <c r="P239" s="44" t="s">
+      <c r="P239" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="Q239" s="44" t="s">
+      <c r="Q239" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="R239" s="44" t="s">
+      <c r="R239" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="S239" s="45" t="s">
+      <c r="S239" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="T239" s="45"/>
-      <c r="U239" s="45"/>
-      <c r="V239" s="45"/>
-      <c r="W239" s="45"/>
-      <c r="X239" s="45"/>
-      <c r="Y239" s="45"/>
-      <c r="Z239" s="45"/>
-      <c r="AA239" s="45"/>
-      <c r="AB239" s="45"/>
+      <c r="T239" s="49"/>
+      <c r="U239" s="49"/>
+      <c r="V239" s="49"/>
+      <c r="W239" s="49"/>
+      <c r="X239" s="49"/>
+      <c r="Y239" s="49"/>
+      <c r="Z239" s="49"/>
+      <c r="AA239" s="49"/>
+      <c r="AB239" s="49"/>
     </row>
     <row r="240" spans="8:28">
-      <c r="H240" s="44"/>
+      <c r="H240" s="48"/>
       <c r="I240" s="41"/>
       <c r="J240" s="41"/>
-      <c r="K240" s="44"/>
-      <c r="L240" s="44"/>
-      <c r="M240" s="44"/>
-      <c r="N240" s="44"/>
-      <c r="O240" s="44"/>
-      <c r="P240" s="44"/>
-      <c r="Q240" s="44"/>
-      <c r="R240" s="44"/>
-      <c r="S240" s="45"/>
-      <c r="T240" s="45"/>
-      <c r="U240" s="45"/>
-      <c r="V240" s="45"/>
-      <c r="W240" s="45"/>
-      <c r="X240" s="45"/>
-      <c r="Y240" s="45"/>
-      <c r="Z240" s="45"/>
-      <c r="AA240" s="45"/>
-      <c r="AB240" s="45"/>
+      <c r="K240" s="48"/>
+      <c r="L240" s="48"/>
+      <c r="M240" s="48"/>
+      <c r="N240" s="48"/>
+      <c r="O240" s="48"/>
+      <c r="P240" s="48"/>
+      <c r="Q240" s="48"/>
+      <c r="R240" s="48"/>
+      <c r="S240" s="49"/>
+      <c r="T240" s="49"/>
+      <c r="U240" s="49"/>
+      <c r="V240" s="49"/>
+      <c r="W240" s="49"/>
+      <c r="X240" s="49"/>
+      <c r="Y240" s="49"/>
+      <c r="Z240" s="49"/>
+      <c r="AA240" s="49"/>
+      <c r="AB240" s="49"/>
     </row>
     <row r="241" spans="8:28">
-      <c r="H241" s="44">
+      <c r="H241" s="48">
         <v>4</v>
       </c>
       <c r="I241" s="42" t="s">
         <v>115</v>
       </c>
       <c r="J241" s="42"/>
-      <c r="K241" s="44" t="s">
+      <c r="K241" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="L241" s="44" t="s">
+      <c r="L241" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="M241" s="44" t="s">
+      <c r="M241" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="N241" s="44"/>
-      <c r="O241" s="44" t="s">
+      <c r="N241" s="48"/>
+      <c r="O241" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="P241" s="44" t="s">
+      <c r="P241" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="Q241" s="44" t="s">
+      <c r="Q241" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="R241" s="46" t="s">
+      <c r="R241" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="S241" s="75" t="s">
+      <c r="S241" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="T241" s="75"/>
-      <c r="U241" s="75"/>
-      <c r="V241" s="75"/>
-      <c r="W241" s="75"/>
-      <c r="X241" s="75"/>
-      <c r="Y241" s="75"/>
-      <c r="Z241" s="75"/>
-      <c r="AA241" s="75"/>
-      <c r="AB241" s="75"/>
+      <c r="T241" s="79"/>
+      <c r="U241" s="79"/>
+      <c r="V241" s="79"/>
+      <c r="W241" s="79"/>
+      <c r="X241" s="79"/>
+      <c r="Y241" s="79"/>
+      <c r="Z241" s="79"/>
+      <c r="AA241" s="79"/>
+      <c r="AB241" s="79"/>
     </row>
     <row r="242" spans="8:28">
-      <c r="H242" s="44"/>
+      <c r="H242" s="48"/>
       <c r="I242" s="42"/>
       <c r="J242" s="42"/>
-      <c r="K242" s="44"/>
-      <c r="L242" s="44"/>
-      <c r="M242" s="44"/>
-      <c r="N242" s="44"/>
-      <c r="O242" s="44"/>
-      <c r="P242" s="44"/>
-      <c r="Q242" s="44"/>
-      <c r="R242" s="46"/>
-      <c r="S242" s="75"/>
-      <c r="T242" s="75"/>
-      <c r="U242" s="75"/>
-      <c r="V242" s="75"/>
-      <c r="W242" s="75"/>
-      <c r="X242" s="75"/>
-      <c r="Y242" s="75"/>
-      <c r="Z242" s="75"/>
-      <c r="AA242" s="75"/>
-      <c r="AB242" s="75"/>
+      <c r="K242" s="48"/>
+      <c r="L242" s="48"/>
+      <c r="M242" s="48"/>
+      <c r="N242" s="48"/>
+      <c r="O242" s="48"/>
+      <c r="P242" s="48"/>
+      <c r="Q242" s="48"/>
+      <c r="R242" s="50"/>
+      <c r="S242" s="79"/>
+      <c r="T242" s="79"/>
+      <c r="U242" s="79"/>
+      <c r="V242" s="79"/>
+      <c r="W242" s="79"/>
+      <c r="X242" s="79"/>
+      <c r="Y242" s="79"/>
+      <c r="Z242" s="79"/>
+      <c r="AA242" s="79"/>
+      <c r="AB242" s="79"/>
     </row>
     <row r="243" spans="8:28">
-      <c r="H243" s="44"/>
+      <c r="H243" s="48"/>
       <c r="I243" s="42"/>
       <c r="J243" s="42"/>
-      <c r="K243" s="44"/>
-      <c r="L243" s="44"/>
-      <c r="M243" s="44"/>
-      <c r="N243" s="44"/>
-      <c r="O243" s="44"/>
-      <c r="P243" s="44"/>
-      <c r="Q243" s="44"/>
-      <c r="R243" s="46"/>
-      <c r="S243" s="75"/>
-      <c r="T243" s="75"/>
-      <c r="U243" s="75"/>
-      <c r="V243" s="75"/>
-      <c r="W243" s="75"/>
-      <c r="X243" s="75"/>
-      <c r="Y243" s="75"/>
-      <c r="Z243" s="75"/>
-      <c r="AA243" s="75"/>
-      <c r="AB243" s="75"/>
+      <c r="K243" s="48"/>
+      <c r="L243" s="48"/>
+      <c r="M243" s="48"/>
+      <c r="N243" s="48"/>
+      <c r="O243" s="48"/>
+      <c r="P243" s="48"/>
+      <c r="Q243" s="48"/>
+      <c r="R243" s="50"/>
+      <c r="S243" s="79"/>
+      <c r="T243" s="79"/>
+      <c r="U243" s="79"/>
+      <c r="V243" s="79"/>
+      <c r="W243" s="79"/>
+      <c r="X243" s="79"/>
+      <c r="Y243" s="79"/>
+      <c r="Z243" s="79"/>
+      <c r="AA243" s="79"/>
+      <c r="AB243" s="79"/>
     </row>
     <row r="244" spans="8:28">
-      <c r="H244" s="44"/>
+      <c r="H244" s="48"/>
       <c r="I244" s="42"/>
       <c r="J244" s="42"/>
-      <c r="K244" s="44"/>
-      <c r="L244" s="44"/>
-      <c r="M244" s="44"/>
-      <c r="N244" s="44"/>
-      <c r="O244" s="44"/>
-      <c r="P244" s="44"/>
-      <c r="Q244" s="44"/>
-      <c r="R244" s="46"/>
-      <c r="S244" s="75"/>
-      <c r="T244" s="75"/>
-      <c r="U244" s="75"/>
-      <c r="V244" s="75"/>
-      <c r="W244" s="75"/>
-      <c r="X244" s="75"/>
-      <c r="Y244" s="75"/>
-      <c r="Z244" s="75"/>
-      <c r="AA244" s="75"/>
-      <c r="AB244" s="75"/>
+      <c r="K244" s="48"/>
+      <c r="L244" s="48"/>
+      <c r="M244" s="48"/>
+      <c r="N244" s="48"/>
+      <c r="O244" s="48"/>
+      <c r="P244" s="48"/>
+      <c r="Q244" s="48"/>
+      <c r="R244" s="50"/>
+      <c r="S244" s="79"/>
+      <c r="T244" s="79"/>
+      <c r="U244" s="79"/>
+      <c r="V244" s="79"/>
+      <c r="W244" s="79"/>
+      <c r="X244" s="79"/>
+      <c r="Y244" s="79"/>
+      <c r="Z244" s="79"/>
+      <c r="AA244" s="79"/>
+      <c r="AB244" s="79"/>
     </row>
     <row r="245" spans="8:28">
-      <c r="H245" s="44"/>
+      <c r="H245" s="48"/>
       <c r="I245" s="42"/>
       <c r="J245" s="42"/>
-      <c r="K245" s="44"/>
-      <c r="L245" s="44"/>
-      <c r="M245" s="44"/>
-      <c r="N245" s="44"/>
-      <c r="O245" s="44"/>
-      <c r="P245" s="44"/>
-      <c r="Q245" s="44"/>
-      <c r="R245" s="46"/>
-      <c r="S245" s="75"/>
-      <c r="T245" s="75"/>
-      <c r="U245" s="75"/>
-      <c r="V245" s="75"/>
-      <c r="W245" s="75"/>
-      <c r="X245" s="75"/>
-      <c r="Y245" s="75"/>
-      <c r="Z245" s="75"/>
-      <c r="AA245" s="75"/>
-      <c r="AB245" s="75"/>
+      <c r="K245" s="48"/>
+      <c r="L245" s="48"/>
+      <c r="M245" s="48"/>
+      <c r="N245" s="48"/>
+      <c r="O245" s="48"/>
+      <c r="P245" s="48"/>
+      <c r="Q245" s="48"/>
+      <c r="R245" s="50"/>
+      <c r="S245" s="79"/>
+      <c r="T245" s="79"/>
+      <c r="U245" s="79"/>
+      <c r="V245" s="79"/>
+      <c r="W245" s="79"/>
+      <c r="X245" s="79"/>
+      <c r="Y245" s="79"/>
+      <c r="Z245" s="79"/>
+      <c r="AA245" s="79"/>
+      <c r="AB245" s="79"/>
     </row>
     <row r="246" spans="8:28">
-      <c r="H246" s="44"/>
+      <c r="H246" s="48"/>
       <c r="I246" s="42"/>
       <c r="J246" s="42"/>
-      <c r="K246" s="44"/>
-      <c r="L246" s="44"/>
-      <c r="M246" s="44"/>
-      <c r="N246" s="44"/>
-      <c r="O246" s="44"/>
-      <c r="P246" s="44"/>
-      <c r="Q246" s="44"/>
-      <c r="R246" s="46"/>
-      <c r="S246" s="75"/>
-      <c r="T246" s="75"/>
-      <c r="U246" s="75"/>
-      <c r="V246" s="75"/>
-      <c r="W246" s="75"/>
-      <c r="X246" s="75"/>
-      <c r="Y246" s="75"/>
-      <c r="Z246" s="75"/>
-      <c r="AA246" s="75"/>
-      <c r="AB246" s="75"/>
+      <c r="K246" s="48"/>
+      <c r="L246" s="48"/>
+      <c r="M246" s="48"/>
+      <c r="N246" s="48"/>
+      <c r="O246" s="48"/>
+      <c r="P246" s="48"/>
+      <c r="Q246" s="48"/>
+      <c r="R246" s="50"/>
+      <c r="S246" s="79"/>
+      <c r="T246" s="79"/>
+      <c r="U246" s="79"/>
+      <c r="V246" s="79"/>
+      <c r="W246" s="79"/>
+      <c r="X246" s="79"/>
+      <c r="Y246" s="79"/>
+      <c r="Z246" s="79"/>
+      <c r="AA246" s="79"/>
+      <c r="AB246" s="79"/>
     </row>
     <row r="247" spans="8:28">
-      <c r="H247" s="44"/>
+      <c r="H247" s="48"/>
       <c r="I247" s="42"/>
       <c r="J247" s="42"/>
-      <c r="K247" s="44"/>
-      <c r="L247" s="44"/>
-      <c r="M247" s="44"/>
-      <c r="N247" s="44"/>
-      <c r="O247" s="44"/>
-      <c r="P247" s="44"/>
-      <c r="Q247" s="44"/>
-      <c r="R247" s="46"/>
-      <c r="S247" s="75"/>
-      <c r="T247" s="75"/>
-      <c r="U247" s="75"/>
-      <c r="V247" s="75"/>
-      <c r="W247" s="75"/>
-      <c r="X247" s="75"/>
-      <c r="Y247" s="75"/>
-      <c r="Z247" s="75"/>
-      <c r="AA247" s="75"/>
-      <c r="AB247" s="75"/>
+      <c r="K247" s="48"/>
+      <c r="L247" s="48"/>
+      <c r="M247" s="48"/>
+      <c r="N247" s="48"/>
+      <c r="O247" s="48"/>
+      <c r="P247" s="48"/>
+      <c r="Q247" s="48"/>
+      <c r="R247" s="50"/>
+      <c r="S247" s="79"/>
+      <c r="T247" s="79"/>
+      <c r="U247" s="79"/>
+      <c r="V247" s="79"/>
+      <c r="W247" s="79"/>
+      <c r="X247" s="79"/>
+      <c r="Y247" s="79"/>
+      <c r="Z247" s="79"/>
+      <c r="AA247" s="79"/>
+      <c r="AB247" s="79"/>
     </row>
     <row r="248" spans="8:28">
-      <c r="H248" s="44"/>
+      <c r="H248" s="48"/>
       <c r="I248" s="42"/>
       <c r="J248" s="42"/>
-      <c r="K248" s="44"/>
-      <c r="L248" s="44"/>
-      <c r="M248" s="44"/>
-      <c r="N248" s="44"/>
-      <c r="O248" s="44"/>
-      <c r="P248" s="44"/>
-      <c r="Q248" s="44"/>
-      <c r="R248" s="46"/>
-      <c r="S248" s="75"/>
-      <c r="T248" s="75"/>
-      <c r="U248" s="75"/>
-      <c r="V248" s="75"/>
-      <c r="W248" s="75"/>
-      <c r="X248" s="75"/>
-      <c r="Y248" s="75"/>
-      <c r="Z248" s="75"/>
-      <c r="AA248" s="75"/>
-      <c r="AB248" s="75"/>
+      <c r="K248" s="48"/>
+      <c r="L248" s="48"/>
+      <c r="M248" s="48"/>
+      <c r="N248" s="48"/>
+      <c r="O248" s="48"/>
+      <c r="P248" s="48"/>
+      <c r="Q248" s="48"/>
+      <c r="R248" s="50"/>
+      <c r="S248" s="79"/>
+      <c r="T248" s="79"/>
+      <c r="U248" s="79"/>
+      <c r="V248" s="79"/>
+      <c r="W248" s="79"/>
+      <c r="X248" s="79"/>
+      <c r="Y248" s="79"/>
+      <c r="Z248" s="79"/>
+      <c r="AA248" s="79"/>
+      <c r="AB248" s="79"/>
     </row>
     <row r="249" spans="8:28">
-      <c r="H249" s="44"/>
+      <c r="H249" s="48"/>
       <c r="I249" s="42"/>
       <c r="J249" s="42"/>
-      <c r="K249" s="44"/>
-      <c r="L249" s="44"/>
-      <c r="M249" s="44"/>
-      <c r="N249" s="44"/>
-      <c r="O249" s="44"/>
-      <c r="P249" s="44"/>
-      <c r="Q249" s="44"/>
-      <c r="R249" s="46"/>
-      <c r="S249" s="75"/>
-      <c r="T249" s="75"/>
-      <c r="U249" s="75"/>
-      <c r="V249" s="75"/>
-      <c r="W249" s="75"/>
-      <c r="X249" s="75"/>
-      <c r="Y249" s="75"/>
-      <c r="Z249" s="75"/>
-      <c r="AA249" s="75"/>
-      <c r="AB249" s="75"/>
+      <c r="K249" s="48"/>
+      <c r="L249" s="48"/>
+      <c r="M249" s="48"/>
+      <c r="N249" s="48"/>
+      <c r="O249" s="48"/>
+      <c r="P249" s="48"/>
+      <c r="Q249" s="48"/>
+      <c r="R249" s="50"/>
+      <c r="S249" s="79"/>
+      <c r="T249" s="79"/>
+      <c r="U249" s="79"/>
+      <c r="V249" s="79"/>
+      <c r="W249" s="79"/>
+      <c r="X249" s="79"/>
+      <c r="Y249" s="79"/>
+      <c r="Z249" s="79"/>
+      <c r="AA249" s="79"/>
+      <c r="AB249" s="79"/>
     </row>
     <row r="250" spans="8:28">
-      <c r="H250" s="44"/>
+      <c r="H250" s="48"/>
       <c r="I250" s="42"/>
       <c r="J250" s="42"/>
-      <c r="K250" s="44"/>
-      <c r="L250" s="44"/>
-      <c r="M250" s="44"/>
-      <c r="N250" s="44"/>
-      <c r="O250" s="44"/>
-      <c r="P250" s="44"/>
-      <c r="Q250" s="44"/>
-      <c r="R250" s="46"/>
-      <c r="S250" s="75"/>
-      <c r="T250" s="75"/>
-      <c r="U250" s="75"/>
-      <c r="V250" s="75"/>
-      <c r="W250" s="75"/>
-      <c r="X250" s="75"/>
-      <c r="Y250" s="75"/>
-      <c r="Z250" s="75"/>
-      <c r="AA250" s="75"/>
-      <c r="AB250" s="75"/>
+      <c r="K250" s="48"/>
+      <c r="L250" s="48"/>
+      <c r="M250" s="48"/>
+      <c r="N250" s="48"/>
+      <c r="O250" s="48"/>
+      <c r="P250" s="48"/>
+      <c r="Q250" s="48"/>
+      <c r="R250" s="50"/>
+      <c r="S250" s="79"/>
+      <c r="T250" s="79"/>
+      <c r="U250" s="79"/>
+      <c r="V250" s="79"/>
+      <c r="W250" s="79"/>
+      <c r="X250" s="79"/>
+      <c r="Y250" s="79"/>
+      <c r="Z250" s="79"/>
+      <c r="AA250" s="79"/>
+      <c r="AB250" s="79"/>
     </row>
     <row r="251" spans="8:28">
-      <c r="H251" s="44"/>
+      <c r="H251" s="48"/>
       <c r="I251" s="42"/>
       <c r="J251" s="42"/>
-      <c r="K251" s="44"/>
-      <c r="L251" s="44"/>
-      <c r="M251" s="44"/>
-      <c r="N251" s="44"/>
-      <c r="O251" s="44"/>
-      <c r="P251" s="44"/>
-      <c r="Q251" s="44"/>
-      <c r="R251" s="46"/>
-      <c r="S251" s="75"/>
-      <c r="T251" s="75"/>
-      <c r="U251" s="75"/>
-      <c r="V251" s="75"/>
-      <c r="W251" s="75"/>
-      <c r="X251" s="75"/>
-      <c r="Y251" s="75"/>
-      <c r="Z251" s="75"/>
-      <c r="AA251" s="75"/>
-      <c r="AB251" s="75"/>
+      <c r="K251" s="48"/>
+      <c r="L251" s="48"/>
+      <c r="M251" s="48"/>
+      <c r="N251" s="48"/>
+      <c r="O251" s="48"/>
+      <c r="P251" s="48"/>
+      <c r="Q251" s="48"/>
+      <c r="R251" s="50"/>
+      <c r="S251" s="79"/>
+      <c r="T251" s="79"/>
+      <c r="U251" s="79"/>
+      <c r="V251" s="79"/>
+      <c r="W251" s="79"/>
+      <c r="X251" s="79"/>
+      <c r="Y251" s="79"/>
+      <c r="Z251" s="79"/>
+      <c r="AA251" s="79"/>
+      <c r="AB251" s="79"/>
     </row>
     <row r="252" spans="8:28">
-      <c r="H252" s="44"/>
+      <c r="H252" s="48"/>
       <c r="I252" s="42"/>
       <c r="J252" s="42"/>
-      <c r="K252" s="44"/>
-      <c r="L252" s="44"/>
-      <c r="M252" s="44"/>
-      <c r="N252" s="44"/>
-      <c r="O252" s="44"/>
-      <c r="P252" s="44"/>
-      <c r="Q252" s="44"/>
-      <c r="R252" s="46"/>
-      <c r="S252" s="75"/>
-      <c r="T252" s="75"/>
-      <c r="U252" s="75"/>
-      <c r="V252" s="75"/>
-      <c r="W252" s="75"/>
-      <c r="X252" s="75"/>
-      <c r="Y252" s="75"/>
-      <c r="Z252" s="75"/>
-      <c r="AA252" s="75"/>
-      <c r="AB252" s="75"/>
+      <c r="K252" s="48"/>
+      <c r="L252" s="48"/>
+      <c r="M252" s="48"/>
+      <c r="N252" s="48"/>
+      <c r="O252" s="48"/>
+      <c r="P252" s="48"/>
+      <c r="Q252" s="48"/>
+      <c r="R252" s="50"/>
+      <c r="S252" s="79"/>
+      <c r="T252" s="79"/>
+      <c r="U252" s="79"/>
+      <c r="V252" s="79"/>
+      <c r="W252" s="79"/>
+      <c r="X252" s="79"/>
+      <c r="Y252" s="79"/>
+      <c r="Z252" s="79"/>
+      <c r="AA252" s="79"/>
+      <c r="AB252" s="79"/>
     </row>
     <row r="253" spans="8:28">
-      <c r="H253" s="44"/>
+      <c r="H253" s="48"/>
       <c r="I253" s="42"/>
       <c r="J253" s="42"/>
-      <c r="K253" s="44"/>
-      <c r="L253" s="44"/>
-      <c r="M253" s="44"/>
-      <c r="N253" s="44"/>
-      <c r="O253" s="44"/>
-      <c r="P253" s="44"/>
-      <c r="Q253" s="44"/>
-      <c r="R253" s="46"/>
-      <c r="S253" s="75"/>
-      <c r="T253" s="75"/>
-      <c r="U253" s="75"/>
-      <c r="V253" s="75"/>
-      <c r="W253" s="75"/>
-      <c r="X253" s="75"/>
-      <c r="Y253" s="75"/>
-      <c r="Z253" s="75"/>
-      <c r="AA253" s="75"/>
-      <c r="AB253" s="75"/>
+      <c r="K253" s="48"/>
+      <c r="L253" s="48"/>
+      <c r="M253" s="48"/>
+      <c r="N253" s="48"/>
+      <c r="O253" s="48"/>
+      <c r="P253" s="48"/>
+      <c r="Q253" s="48"/>
+      <c r="R253" s="50"/>
+      <c r="S253" s="79"/>
+      <c r="T253" s="79"/>
+      <c r="U253" s="79"/>
+      <c r="V253" s="79"/>
+      <c r="W253" s="79"/>
+      <c r="X253" s="79"/>
+      <c r="Y253" s="79"/>
+      <c r="Z253" s="79"/>
+      <c r="AA253" s="79"/>
+      <c r="AB253" s="79"/>
     </row>
     <row r="254" spans="8:28">
-      <c r="H254" s="44"/>
+      <c r="H254" s="48"/>
       <c r="I254" s="42"/>
       <c r="J254" s="42"/>
-      <c r="K254" s="44"/>
-      <c r="L254" s="44"/>
-      <c r="M254" s="44"/>
-      <c r="N254" s="44"/>
-      <c r="O254" s="44"/>
-      <c r="P254" s="44"/>
-      <c r="Q254" s="44"/>
-      <c r="R254" s="46"/>
-      <c r="S254" s="75"/>
-      <c r="T254" s="75"/>
-      <c r="U254" s="75"/>
-      <c r="V254" s="75"/>
-      <c r="W254" s="75"/>
-      <c r="X254" s="75"/>
-      <c r="Y254" s="75"/>
-      <c r="Z254" s="75"/>
-      <c r="AA254" s="75"/>
-      <c r="AB254" s="75"/>
+      <c r="K254" s="48"/>
+      <c r="L254" s="48"/>
+      <c r="M254" s="48"/>
+      <c r="N254" s="48"/>
+      <c r="O254" s="48"/>
+      <c r="P254" s="48"/>
+      <c r="Q254" s="48"/>
+      <c r="R254" s="50"/>
+      <c r="S254" s="79"/>
+      <c r="T254" s="79"/>
+      <c r="U254" s="79"/>
+      <c r="V254" s="79"/>
+      <c r="W254" s="79"/>
+      <c r="X254" s="79"/>
+      <c r="Y254" s="79"/>
+      <c r="Z254" s="79"/>
+      <c r="AA254" s="79"/>
+      <c r="AB254" s="79"/>
     </row>
     <row r="255" spans="8:28">
-      <c r="H255" s="44"/>
+      <c r="H255" s="48"/>
       <c r="I255" s="42"/>
       <c r="J255" s="42"/>
-      <c r="K255" s="44"/>
-      <c r="L255" s="44"/>
-      <c r="M255" s="44"/>
-      <c r="N255" s="44"/>
-      <c r="O255" s="44"/>
-      <c r="P255" s="44"/>
-      <c r="Q255" s="44"/>
-      <c r="R255" s="46"/>
-      <c r="S255" s="75"/>
-      <c r="T255" s="75"/>
-      <c r="U255" s="75"/>
-      <c r="V255" s="75"/>
-      <c r="W255" s="75"/>
-      <c r="X255" s="75"/>
-      <c r="Y255" s="75"/>
-      <c r="Z255" s="75"/>
-      <c r="AA255" s="75"/>
-      <c r="AB255" s="75"/>
+      <c r="K255" s="48"/>
+      <c r="L255" s="48"/>
+      <c r="M255" s="48"/>
+      <c r="N255" s="48"/>
+      <c r="O255" s="48"/>
+      <c r="P255" s="48"/>
+      <c r="Q255" s="48"/>
+      <c r="R255" s="50"/>
+      <c r="S255" s="79"/>
+      <c r="T255" s="79"/>
+      <c r="U255" s="79"/>
+      <c r="V255" s="79"/>
+      <c r="W255" s="79"/>
+      <c r="X255" s="79"/>
+      <c r="Y255" s="79"/>
+      <c r="Z255" s="79"/>
+      <c r="AA255" s="79"/>
+      <c r="AB255" s="79"/>
     </row>
     <row r="256" spans="8:28">
-      <c r="H256" s="44">
+      <c r="H256" s="48">
         <v>5</v>
       </c>
-      <c r="I256" s="46" t="s">
+      <c r="I256" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="J256" s="46"/>
-      <c r="K256" s="44" t="s">
+      <c r="J256" s="50"/>
+      <c r="K256" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="L256" s="44" t="s">
+      <c r="L256" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="M256" s="44" t="s">
+      <c r="M256" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="N256" s="44"/>
-      <c r="O256" s="44" t="s">
+      <c r="N256" s="48"/>
+      <c r="O256" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="P256" s="44" t="s">
+      <c r="P256" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="Q256" s="44" t="s">
+      <c r="Q256" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="R256" s="46" t="s">
+      <c r="R256" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="S256" s="75" t="s">
+      <c r="S256" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="T256" s="75"/>
-      <c r="U256" s="75"/>
-      <c r="V256" s="75"/>
-      <c r="W256" s="75"/>
-      <c r="X256" s="75"/>
-      <c r="Y256" s="75"/>
-      <c r="Z256" s="75"/>
-      <c r="AA256" s="75"/>
-      <c r="AB256" s="75"/>
+      <c r="T256" s="79"/>
+      <c r="U256" s="79"/>
+      <c r="V256" s="79"/>
+      <c r="W256" s="79"/>
+      <c r="X256" s="79"/>
+      <c r="Y256" s="79"/>
+      <c r="Z256" s="79"/>
+      <c r="AA256" s="79"/>
+      <c r="AB256" s="79"/>
     </row>
     <row r="257" spans="8:28">
-      <c r="H257" s="44"/>
-      <c r="I257" s="46"/>
-      <c r="J257" s="46"/>
-      <c r="K257" s="44"/>
-      <c r="L257" s="44"/>
-      <c r="M257" s="44"/>
-      <c r="N257" s="44"/>
-      <c r="O257" s="44"/>
-      <c r="P257" s="44"/>
-      <c r="Q257" s="44"/>
-      <c r="R257" s="46"/>
-      <c r="S257" s="75"/>
-      <c r="T257" s="75"/>
-      <c r="U257" s="75"/>
-      <c r="V257" s="75"/>
-      <c r="W257" s="75"/>
-      <c r="X257" s="75"/>
-      <c r="Y257" s="75"/>
-      <c r="Z257" s="75"/>
-      <c r="AA257" s="75"/>
-      <c r="AB257" s="75"/>
+      <c r="H257" s="48"/>
+      <c r="I257" s="50"/>
+      <c r="J257" s="50"/>
+      <c r="K257" s="48"/>
+      <c r="L257" s="48"/>
+      <c r="M257" s="48"/>
+      <c r="N257" s="48"/>
+      <c r="O257" s="48"/>
+      <c r="P257" s="48"/>
+      <c r="Q257" s="48"/>
+      <c r="R257" s="50"/>
+      <c r="S257" s="79"/>
+      <c r="T257" s="79"/>
+      <c r="U257" s="79"/>
+      <c r="V257" s="79"/>
+      <c r="W257" s="79"/>
+      <c r="X257" s="79"/>
+      <c r="Y257" s="79"/>
+      <c r="Z257" s="79"/>
+      <c r="AA257" s="79"/>
+      <c r="AB257" s="79"/>
     </row>
     <row r="258" spans="8:28">
-      <c r="H258" s="44"/>
-      <c r="I258" s="46"/>
-      <c r="J258" s="46"/>
-      <c r="K258" s="44"/>
-      <c r="L258" s="44"/>
-      <c r="M258" s="44"/>
-      <c r="N258" s="44"/>
-      <c r="O258" s="44"/>
-      <c r="P258" s="44"/>
-      <c r="Q258" s="44"/>
-      <c r="R258" s="46"/>
-      <c r="S258" s="75"/>
-      <c r="T258" s="75"/>
-      <c r="U258" s="75"/>
-      <c r="V258" s="75"/>
-      <c r="W258" s="75"/>
-      <c r="X258" s="75"/>
-      <c r="Y258" s="75"/>
-      <c r="Z258" s="75"/>
-      <c r="AA258" s="75"/>
-      <c r="AB258" s="75"/>
+      <c r="H258" s="48"/>
+      <c r="I258" s="50"/>
+      <c r="J258" s="50"/>
+      <c r="K258" s="48"/>
+      <c r="L258" s="48"/>
+      <c r="M258" s="48"/>
+      <c r="N258" s="48"/>
+      <c r="O258" s="48"/>
+      <c r="P258" s="48"/>
+      <c r="Q258" s="48"/>
+      <c r="R258" s="50"/>
+      <c r="S258" s="79"/>
+      <c r="T258" s="79"/>
+      <c r="U258" s="79"/>
+      <c r="V258" s="79"/>
+      <c r="W258" s="79"/>
+      <c r="X258" s="79"/>
+      <c r="Y258" s="79"/>
+      <c r="Z258" s="79"/>
+      <c r="AA258" s="79"/>
+      <c r="AB258" s="79"/>
     </row>
     <row r="259" spans="8:28">
-      <c r="H259" s="44"/>
-      <c r="I259" s="46"/>
-      <c r="J259" s="46"/>
-      <c r="K259" s="44"/>
-      <c r="L259" s="44"/>
-      <c r="M259" s="44"/>
-      <c r="N259" s="44"/>
-      <c r="O259" s="44"/>
-      <c r="P259" s="44"/>
-      <c r="Q259" s="44"/>
-      <c r="R259" s="46"/>
-      <c r="S259" s="75"/>
-      <c r="T259" s="75"/>
-      <c r="U259" s="75"/>
-      <c r="V259" s="75"/>
-      <c r="W259" s="75"/>
-      <c r="X259" s="75"/>
-      <c r="Y259" s="75"/>
-      <c r="Z259" s="75"/>
-      <c r="AA259" s="75"/>
-      <c r="AB259" s="75"/>
+      <c r="H259" s="48"/>
+      <c r="I259" s="50"/>
+      <c r="J259" s="50"/>
+      <c r="K259" s="48"/>
+      <c r="L259" s="48"/>
+      <c r="M259" s="48"/>
+      <c r="N259" s="48"/>
+      <c r="O259" s="48"/>
+      <c r="P259" s="48"/>
+      <c r="Q259" s="48"/>
+      <c r="R259" s="50"/>
+      <c r="S259" s="79"/>
+      <c r="T259" s="79"/>
+      <c r="U259" s="79"/>
+      <c r="V259" s="79"/>
+      <c r="W259" s="79"/>
+      <c r="X259" s="79"/>
+      <c r="Y259" s="79"/>
+      <c r="Z259" s="79"/>
+      <c r="AA259" s="79"/>
+      <c r="AB259" s="79"/>
     </row>
     <row r="260" spans="8:28">
-      <c r="H260" s="44"/>
-      <c r="I260" s="46"/>
-      <c r="J260" s="46"/>
-      <c r="K260" s="44"/>
-      <c r="L260" s="44"/>
-      <c r="M260" s="44"/>
-      <c r="N260" s="44"/>
-      <c r="O260" s="44"/>
-      <c r="P260" s="44"/>
-      <c r="Q260" s="44"/>
-      <c r="R260" s="46"/>
-      <c r="S260" s="75"/>
-      <c r="T260" s="75"/>
-      <c r="U260" s="75"/>
-      <c r="V260" s="75"/>
-      <c r="W260" s="75"/>
-      <c r="X260" s="75"/>
-      <c r="Y260" s="75"/>
-      <c r="Z260" s="75"/>
-      <c r="AA260" s="75"/>
-      <c r="AB260" s="75"/>
+      <c r="H260" s="48"/>
+      <c r="I260" s="50"/>
+      <c r="J260" s="50"/>
+      <c r="K260" s="48"/>
+      <c r="L260" s="48"/>
+      <c r="M260" s="48"/>
+      <c r="N260" s="48"/>
+      <c r="O260" s="48"/>
+      <c r="P260" s="48"/>
+      <c r="Q260" s="48"/>
+      <c r="R260" s="50"/>
+      <c r="S260" s="79"/>
+      <c r="T260" s="79"/>
+      <c r="U260" s="79"/>
+      <c r="V260" s="79"/>
+      <c r="W260" s="79"/>
+      <c r="X260" s="79"/>
+      <c r="Y260" s="79"/>
+      <c r="Z260" s="79"/>
+      <c r="AA260" s="79"/>
+      <c r="AB260" s="79"/>
     </row>
     <row r="261" spans="8:28">
-      <c r="H261" s="44"/>
-      <c r="I261" s="46"/>
-      <c r="J261" s="46"/>
-      <c r="K261" s="44"/>
-      <c r="L261" s="44"/>
-      <c r="M261" s="44"/>
-      <c r="N261" s="44"/>
-      <c r="O261" s="44"/>
-      <c r="P261" s="44"/>
-      <c r="Q261" s="44"/>
-      <c r="R261" s="46"/>
-      <c r="S261" s="75"/>
-      <c r="T261" s="75"/>
-      <c r="U261" s="75"/>
-      <c r="V261" s="75"/>
-      <c r="W261" s="75"/>
-      <c r="X261" s="75"/>
-      <c r="Y261" s="75"/>
-      <c r="Z261" s="75"/>
-      <c r="AA261" s="75"/>
-      <c r="AB261" s="75"/>
+      <c r="H261" s="48"/>
+      <c r="I261" s="50"/>
+      <c r="J261" s="50"/>
+      <c r="K261" s="48"/>
+      <c r="L261" s="48"/>
+      <c r="M261" s="48"/>
+      <c r="N261" s="48"/>
+      <c r="O261" s="48"/>
+      <c r="P261" s="48"/>
+      <c r="Q261" s="48"/>
+      <c r="R261" s="50"/>
+      <c r="S261" s="79"/>
+      <c r="T261" s="79"/>
+      <c r="U261" s="79"/>
+      <c r="V261" s="79"/>
+      <c r="W261" s="79"/>
+      <c r="X261" s="79"/>
+      <c r="Y261" s="79"/>
+      <c r="Z261" s="79"/>
+      <c r="AA261" s="79"/>
+      <c r="AB261" s="79"/>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" s="12" t="s">
@@ -21979,18 +22799,18 @@
       <c r="R275" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="S275" s="91" t="s">
+      <c r="S275" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="T275" s="92"/>
-      <c r="U275" s="92"/>
-      <c r="V275" s="92"/>
-      <c r="W275" s="92"/>
-      <c r="X275" s="92"/>
-      <c r="Y275" s="92"/>
-      <c r="Z275" s="92"/>
-      <c r="AA275" s="92"/>
-      <c r="AB275" s="93"/>
+      <c r="T275" s="96"/>
+      <c r="U275" s="96"/>
+      <c r="V275" s="96"/>
+      <c r="W275" s="96"/>
+      <c r="X275" s="96"/>
+      <c r="Y275" s="96"/>
+      <c r="Z275" s="96"/>
+      <c r="AA275" s="96"/>
+      <c r="AB275" s="97"/>
     </row>
     <row r="276" spans="8:28">
       <c r="H276" s="14">
@@ -22022,18 +22842,18 @@
       <c r="R276" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="S276" s="100" t="s">
+      <c r="S276" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="T276" s="101"/>
-      <c r="U276" s="101"/>
-      <c r="V276" s="101"/>
-      <c r="W276" s="101"/>
-      <c r="X276" s="101"/>
-      <c r="Y276" s="101"/>
-      <c r="Z276" s="101"/>
-      <c r="AA276" s="101"/>
-      <c r="AB276" s="107"/>
+      <c r="T276" s="105"/>
+      <c r="U276" s="105"/>
+      <c r="V276" s="105"/>
+      <c r="W276" s="105"/>
+      <c r="X276" s="105"/>
+      <c r="Y276" s="105"/>
+      <c r="Z276" s="105"/>
+      <c r="AA276" s="105"/>
+      <c r="AB276" s="111"/>
     </row>
     <row r="277" spans="8:28">
       <c r="H277" s="15"/>
@@ -22047,16 +22867,16 @@
       <c r="P277" s="15"/>
       <c r="Q277" s="15"/>
       <c r="R277" s="15"/>
-      <c r="S277" s="102"/>
-      <c r="T277" s="103"/>
-      <c r="U277" s="103"/>
-      <c r="V277" s="103"/>
-      <c r="W277" s="103"/>
-      <c r="X277" s="103"/>
-      <c r="Y277" s="103"/>
-      <c r="Z277" s="103"/>
-      <c r="AA277" s="103"/>
-      <c r="AB277" s="108"/>
+      <c r="S277" s="106"/>
+      <c r="T277" s="107"/>
+      <c r="U277" s="107"/>
+      <c r="V277" s="107"/>
+      <c r="W277" s="107"/>
+      <c r="X277" s="107"/>
+      <c r="Y277" s="107"/>
+      <c r="Z277" s="107"/>
+      <c r="AA277" s="107"/>
+      <c r="AB277" s="112"/>
     </row>
     <row r="278" spans="8:28">
       <c r="H278" s="15"/>
@@ -22070,16 +22890,16 @@
       <c r="P278" s="15"/>
       <c r="Q278" s="15"/>
       <c r="R278" s="15"/>
-      <c r="S278" s="102"/>
-      <c r="T278" s="103"/>
-      <c r="U278" s="103"/>
-      <c r="V278" s="103"/>
-      <c r="W278" s="103"/>
-      <c r="X278" s="103"/>
-      <c r="Y278" s="103"/>
-      <c r="Z278" s="103"/>
-      <c r="AA278" s="103"/>
-      <c r="AB278" s="108"/>
+      <c r="S278" s="106"/>
+      <c r="T278" s="107"/>
+      <c r="U278" s="107"/>
+      <c r="V278" s="107"/>
+      <c r="W278" s="107"/>
+      <c r="X278" s="107"/>
+      <c r="Y278" s="107"/>
+      <c r="Z278" s="107"/>
+      <c r="AA278" s="107"/>
+      <c r="AB278" s="112"/>
     </row>
     <row r="279" spans="8:28">
       <c r="H279" s="15"/>
@@ -22093,16 +22913,16 @@
       <c r="P279" s="15"/>
       <c r="Q279" s="15"/>
       <c r="R279" s="15"/>
-      <c r="S279" s="102"/>
-      <c r="T279" s="103"/>
-      <c r="U279" s="103"/>
-      <c r="V279" s="103"/>
-      <c r="W279" s="103"/>
-      <c r="X279" s="103"/>
-      <c r="Y279" s="103"/>
-      <c r="Z279" s="103"/>
-      <c r="AA279" s="103"/>
-      <c r="AB279" s="108"/>
+      <c r="S279" s="106"/>
+      <c r="T279" s="107"/>
+      <c r="U279" s="107"/>
+      <c r="V279" s="107"/>
+      <c r="W279" s="107"/>
+      <c r="X279" s="107"/>
+      <c r="Y279" s="107"/>
+      <c r="Z279" s="107"/>
+      <c r="AA279" s="107"/>
+      <c r="AB279" s="112"/>
     </row>
     <row r="280" spans="8:28">
       <c r="H280" s="15"/>
@@ -22116,16 +22936,16 @@
       <c r="P280" s="15"/>
       <c r="Q280" s="15"/>
       <c r="R280" s="15"/>
-      <c r="S280" s="102"/>
-      <c r="T280" s="103"/>
-      <c r="U280" s="103"/>
-      <c r="V280" s="103"/>
-      <c r="W280" s="103"/>
-      <c r="X280" s="103"/>
-      <c r="Y280" s="103"/>
-      <c r="Z280" s="103"/>
-      <c r="AA280" s="103"/>
-      <c r="AB280" s="108"/>
+      <c r="S280" s="106"/>
+      <c r="T280" s="107"/>
+      <c r="U280" s="107"/>
+      <c r="V280" s="107"/>
+      <c r="W280" s="107"/>
+      <c r="X280" s="107"/>
+      <c r="Y280" s="107"/>
+      <c r="Z280" s="107"/>
+      <c r="AA280" s="107"/>
+      <c r="AB280" s="112"/>
     </row>
     <row r="281" spans="8:28">
       <c r="H281" s="15"/>
@@ -22139,16 +22959,16 @@
       <c r="P281" s="15"/>
       <c r="Q281" s="15"/>
       <c r="R281" s="15"/>
-      <c r="S281" s="102"/>
-      <c r="T281" s="103"/>
-      <c r="U281" s="103"/>
-      <c r="V281" s="103"/>
-      <c r="W281" s="103"/>
-      <c r="X281" s="103"/>
-      <c r="Y281" s="103"/>
-      <c r="Z281" s="103"/>
-      <c r="AA281" s="103"/>
-      <c r="AB281" s="108"/>
+      <c r="S281" s="106"/>
+      <c r="T281" s="107"/>
+      <c r="U281" s="107"/>
+      <c r="V281" s="107"/>
+      <c r="W281" s="107"/>
+      <c r="X281" s="107"/>
+      <c r="Y281" s="107"/>
+      <c r="Z281" s="107"/>
+      <c r="AA281" s="107"/>
+      <c r="AB281" s="112"/>
     </row>
     <row r="282" spans="8:28">
       <c r="H282" s="15"/>
@@ -22162,16 +22982,16 @@
       <c r="P282" s="15"/>
       <c r="Q282" s="15"/>
       <c r="R282" s="15"/>
-      <c r="S282" s="102"/>
-      <c r="T282" s="103"/>
-      <c r="U282" s="103"/>
-      <c r="V282" s="103"/>
-      <c r="W282" s="103"/>
-      <c r="X282" s="103"/>
-      <c r="Y282" s="103"/>
-      <c r="Z282" s="103"/>
-      <c r="AA282" s="103"/>
-      <c r="AB282" s="108"/>
+      <c r="S282" s="106"/>
+      <c r="T282" s="107"/>
+      <c r="U282" s="107"/>
+      <c r="V282" s="107"/>
+      <c r="W282" s="107"/>
+      <c r="X282" s="107"/>
+      <c r="Y282" s="107"/>
+      <c r="Z282" s="107"/>
+      <c r="AA282" s="107"/>
+      <c r="AB282" s="112"/>
     </row>
     <row r="283" spans="8:28">
       <c r="H283" s="15"/>
@@ -22185,16 +23005,16 @@
       <c r="P283" s="15"/>
       <c r="Q283" s="15"/>
       <c r="R283" s="15"/>
-      <c r="S283" s="102"/>
-      <c r="T283" s="103"/>
-      <c r="U283" s="103"/>
-      <c r="V283" s="103"/>
-      <c r="W283" s="103"/>
-      <c r="X283" s="103"/>
-      <c r="Y283" s="103"/>
-      <c r="Z283" s="103"/>
-      <c r="AA283" s="103"/>
-      <c r="AB283" s="108"/>
+      <c r="S283" s="106"/>
+      <c r="T283" s="107"/>
+      <c r="U283" s="107"/>
+      <c r="V283" s="107"/>
+      <c r="W283" s="107"/>
+      <c r="X283" s="107"/>
+      <c r="Y283" s="107"/>
+      <c r="Z283" s="107"/>
+      <c r="AA283" s="107"/>
+      <c r="AB283" s="112"/>
     </row>
     <row r="284" spans="8:28">
       <c r="H284" s="16"/>
@@ -22208,35 +23028,35 @@
       <c r="P284" s="16"/>
       <c r="Q284" s="16"/>
       <c r="R284" s="16"/>
-      <c r="S284" s="104"/>
-      <c r="T284" s="105"/>
-      <c r="U284" s="105"/>
-      <c r="V284" s="105"/>
-      <c r="W284" s="105"/>
-      <c r="X284" s="105"/>
-      <c r="Y284" s="105"/>
-      <c r="Z284" s="105"/>
-      <c r="AA284" s="105"/>
-      <c r="AB284" s="109"/>
+      <c r="S284" s="108"/>
+      <c r="T284" s="109"/>
+      <c r="U284" s="109"/>
+      <c r="V284" s="109"/>
+      <c r="W284" s="109"/>
+      <c r="X284" s="109"/>
+      <c r="Y284" s="109"/>
+      <c r="Z284" s="109"/>
+      <c r="AA284" s="109"/>
+      <c r="AB284" s="113"/>
     </row>
     <row r="285" ht="22.8" spans="8:28">
       <c r="H285" s="41">
         <v>3</v>
       </c>
-      <c r="I285" s="114" t="s">
+      <c r="I285" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="J285" s="115"/>
+      <c r="J285" s="119"/>
       <c r="K285" s="42" t="s">
         <v>126</v>
       </c>
       <c r="L285" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="M285" s="114" t="s">
+      <c r="M285" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="N285" s="115"/>
+      <c r="N285" s="119"/>
       <c r="O285" s="41">
         <v>100</v>
       </c>
@@ -22249,366 +23069,366 @@
       <c r="R285" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="S285" s="116" t="s">
+      <c r="S285" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="T285" s="117"/>
-      <c r="U285" s="117"/>
-      <c r="V285" s="117"/>
-      <c r="W285" s="117"/>
-      <c r="X285" s="117"/>
-      <c r="Y285" s="117"/>
-      <c r="Z285" s="117"/>
-      <c r="AA285" s="117"/>
-      <c r="AB285" s="118"/>
+      <c r="T285" s="121"/>
+      <c r="U285" s="121"/>
+      <c r="V285" s="121"/>
+      <c r="W285" s="121"/>
+      <c r="X285" s="121"/>
+      <c r="Y285" s="121"/>
+      <c r="Z285" s="121"/>
+      <c r="AA285" s="121"/>
+      <c r="AB285" s="122"/>
     </row>
     <row r="286" spans="8:28">
-      <c r="H286" s="68">
+      <c r="H286" s="72">
         <v>4</v>
       </c>
-      <c r="I286" s="69" t="s">
+      <c r="I286" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="J286" s="69"/>
-      <c r="K286" s="68" t="s">
+      <c r="J286" s="73"/>
+      <c r="K286" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L286" s="68" t="s">
+      <c r="L286" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="M286" s="68" t="s">
+      <c r="M286" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="N286" s="68"/>
-      <c r="O286" s="68">
+      <c r="N286" s="72"/>
+      <c r="O286" s="72">
         <v>99</v>
       </c>
-      <c r="P286" s="68" t="s">
+      <c r="P286" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="Q286" s="68" t="s">
+      <c r="Q286" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="R286" s="68" t="s">
+      <c r="R286" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="S286" s="83" t="s">
+      <c r="S286" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="T286" s="83"/>
-      <c r="U286" s="83"/>
-      <c r="V286" s="83"/>
-      <c r="W286" s="83"/>
-      <c r="X286" s="83"/>
-      <c r="Y286" s="83"/>
-      <c r="Z286" s="83"/>
-      <c r="AA286" s="83"/>
-      <c r="AB286" s="83"/>
+      <c r="T286" s="87"/>
+      <c r="U286" s="87"/>
+      <c r="V286" s="87"/>
+      <c r="W286" s="87"/>
+      <c r="X286" s="87"/>
+      <c r="Y286" s="87"/>
+      <c r="Z286" s="87"/>
+      <c r="AA286" s="87"/>
+      <c r="AB286" s="87"/>
     </row>
     <row r="287" spans="8:28">
-      <c r="H287" s="68"/>
-      <c r="I287" s="69"/>
-      <c r="J287" s="69"/>
-      <c r="K287" s="68"/>
-      <c r="L287" s="68"/>
-      <c r="M287" s="68"/>
-      <c r="N287" s="68"/>
-      <c r="O287" s="68"/>
-      <c r="P287" s="68"/>
-      <c r="Q287" s="68"/>
-      <c r="R287" s="68"/>
-      <c r="S287" s="83"/>
-      <c r="T287" s="83"/>
-      <c r="U287" s="83"/>
-      <c r="V287" s="83"/>
-      <c r="W287" s="83"/>
-      <c r="X287" s="83"/>
-      <c r="Y287" s="83"/>
-      <c r="Z287" s="83"/>
-      <c r="AA287" s="83"/>
-      <c r="AB287" s="83"/>
+      <c r="H287" s="72"/>
+      <c r="I287" s="73"/>
+      <c r="J287" s="73"/>
+      <c r="K287" s="72"/>
+      <c r="L287" s="72"/>
+      <c r="M287" s="72"/>
+      <c r="N287" s="72"/>
+      <c r="O287" s="72"/>
+      <c r="P287" s="72"/>
+      <c r="Q287" s="72"/>
+      <c r="R287" s="72"/>
+      <c r="S287" s="87"/>
+      <c r="T287" s="87"/>
+      <c r="U287" s="87"/>
+      <c r="V287" s="87"/>
+      <c r="W287" s="87"/>
+      <c r="X287" s="87"/>
+      <c r="Y287" s="87"/>
+      <c r="Z287" s="87"/>
+      <c r="AA287" s="87"/>
+      <c r="AB287" s="87"/>
     </row>
     <row r="288" spans="8:28">
-      <c r="H288" s="68"/>
-      <c r="I288" s="69"/>
-      <c r="J288" s="69"/>
-      <c r="K288" s="68"/>
-      <c r="L288" s="68"/>
-      <c r="M288" s="68"/>
-      <c r="N288" s="68"/>
-      <c r="O288" s="68"/>
-      <c r="P288" s="68"/>
-      <c r="Q288" s="68"/>
-      <c r="R288" s="68"/>
-      <c r="S288" s="83"/>
-      <c r="T288" s="83"/>
-      <c r="U288" s="83"/>
-      <c r="V288" s="83"/>
-      <c r="W288" s="83"/>
-      <c r="X288" s="83"/>
-      <c r="Y288" s="83"/>
-      <c r="Z288" s="83"/>
-      <c r="AA288" s="83"/>
-      <c r="AB288" s="83"/>
+      <c r="H288" s="72"/>
+      <c r="I288" s="73"/>
+      <c r="J288" s="73"/>
+      <c r="K288" s="72"/>
+      <c r="L288" s="72"/>
+      <c r="M288" s="72"/>
+      <c r="N288" s="72"/>
+      <c r="O288" s="72"/>
+      <c r="P288" s="72"/>
+      <c r="Q288" s="72"/>
+      <c r="R288" s="72"/>
+      <c r="S288" s="87"/>
+      <c r="T288" s="87"/>
+      <c r="U288" s="87"/>
+      <c r="V288" s="87"/>
+      <c r="W288" s="87"/>
+      <c r="X288" s="87"/>
+      <c r="Y288" s="87"/>
+      <c r="Z288" s="87"/>
+      <c r="AA288" s="87"/>
+      <c r="AB288" s="87"/>
     </row>
     <row r="289" spans="8:28">
-      <c r="H289" s="68"/>
-      <c r="I289" s="69"/>
-      <c r="J289" s="69"/>
-      <c r="K289" s="68"/>
-      <c r="L289" s="68"/>
-      <c r="M289" s="68"/>
-      <c r="N289" s="68"/>
-      <c r="O289" s="68"/>
-      <c r="P289" s="68"/>
-      <c r="Q289" s="68"/>
-      <c r="R289" s="68"/>
-      <c r="S289" s="83"/>
-      <c r="T289" s="83"/>
-      <c r="U289" s="83"/>
-      <c r="V289" s="83"/>
-      <c r="W289" s="83"/>
-      <c r="X289" s="83"/>
-      <c r="Y289" s="83"/>
-      <c r="Z289" s="83"/>
-      <c r="AA289" s="83"/>
-      <c r="AB289" s="83"/>
+      <c r="H289" s="72"/>
+      <c r="I289" s="73"/>
+      <c r="J289" s="73"/>
+      <c r="K289" s="72"/>
+      <c r="L289" s="72"/>
+      <c r="M289" s="72"/>
+      <c r="N289" s="72"/>
+      <c r="O289" s="72"/>
+      <c r="P289" s="72"/>
+      <c r="Q289" s="72"/>
+      <c r="R289" s="72"/>
+      <c r="S289" s="87"/>
+      <c r="T289" s="87"/>
+      <c r="U289" s="87"/>
+      <c r="V289" s="87"/>
+      <c r="W289" s="87"/>
+      <c r="X289" s="87"/>
+      <c r="Y289" s="87"/>
+      <c r="Z289" s="87"/>
+      <c r="AA289" s="87"/>
+      <c r="AB289" s="87"/>
     </row>
     <row r="290" spans="8:28">
-      <c r="H290" s="68"/>
-      <c r="I290" s="69"/>
-      <c r="J290" s="69"/>
-      <c r="K290" s="68"/>
-      <c r="L290" s="68"/>
-      <c r="M290" s="68"/>
-      <c r="N290" s="68"/>
-      <c r="O290" s="68"/>
-      <c r="P290" s="68"/>
-      <c r="Q290" s="68"/>
-      <c r="R290" s="68"/>
-      <c r="S290" s="83"/>
-      <c r="T290" s="83"/>
-      <c r="U290" s="83"/>
-      <c r="V290" s="83"/>
-      <c r="W290" s="83"/>
-      <c r="X290" s="83"/>
-      <c r="Y290" s="83"/>
-      <c r="Z290" s="83"/>
-      <c r="AA290" s="83"/>
-      <c r="AB290" s="83"/>
+      <c r="H290" s="72"/>
+      <c r="I290" s="73"/>
+      <c r="J290" s="73"/>
+      <c r="K290" s="72"/>
+      <c r="L290" s="72"/>
+      <c r="M290" s="72"/>
+      <c r="N290" s="72"/>
+      <c r="O290" s="72"/>
+      <c r="P290" s="72"/>
+      <c r="Q290" s="72"/>
+      <c r="R290" s="72"/>
+      <c r="S290" s="87"/>
+      <c r="T290" s="87"/>
+      <c r="U290" s="87"/>
+      <c r="V290" s="87"/>
+      <c r="W290" s="87"/>
+      <c r="X290" s="87"/>
+      <c r="Y290" s="87"/>
+      <c r="Z290" s="87"/>
+      <c r="AA290" s="87"/>
+      <c r="AB290" s="87"/>
     </row>
     <row r="291" spans="8:28">
-      <c r="H291" s="68"/>
-      <c r="I291" s="69"/>
-      <c r="J291" s="69"/>
-      <c r="K291" s="68"/>
-      <c r="L291" s="68"/>
-      <c r="M291" s="68"/>
-      <c r="N291" s="68"/>
-      <c r="O291" s="68"/>
-      <c r="P291" s="68"/>
-      <c r="Q291" s="68"/>
-      <c r="R291" s="68"/>
-      <c r="S291" s="83"/>
-      <c r="T291" s="83"/>
-      <c r="U291" s="83"/>
-      <c r="V291" s="83"/>
-      <c r="W291" s="83"/>
-      <c r="X291" s="83"/>
-      <c r="Y291" s="83"/>
-      <c r="Z291" s="83"/>
-      <c r="AA291" s="83"/>
-      <c r="AB291" s="83"/>
+      <c r="H291" s="72"/>
+      <c r="I291" s="73"/>
+      <c r="J291" s="73"/>
+      <c r="K291" s="72"/>
+      <c r="L291" s="72"/>
+      <c r="M291" s="72"/>
+      <c r="N291" s="72"/>
+      <c r="O291" s="72"/>
+      <c r="P291" s="72"/>
+      <c r="Q291" s="72"/>
+      <c r="R291" s="72"/>
+      <c r="S291" s="87"/>
+      <c r="T291" s="87"/>
+      <c r="U291" s="87"/>
+      <c r="V291" s="87"/>
+      <c r="W291" s="87"/>
+      <c r="X291" s="87"/>
+      <c r="Y291" s="87"/>
+      <c r="Z291" s="87"/>
+      <c r="AA291" s="87"/>
+      <c r="AB291" s="87"/>
     </row>
     <row r="292" spans="8:28">
-      <c r="H292" s="68"/>
-      <c r="I292" s="69"/>
-      <c r="J292" s="69"/>
-      <c r="K292" s="68"/>
-      <c r="L292" s="68"/>
-      <c r="M292" s="68"/>
-      <c r="N292" s="68"/>
-      <c r="O292" s="68"/>
-      <c r="P292" s="68"/>
-      <c r="Q292" s="68"/>
-      <c r="R292" s="68"/>
-      <c r="S292" s="83"/>
-      <c r="T292" s="83"/>
-      <c r="U292" s="83"/>
-      <c r="V292" s="83"/>
-      <c r="W292" s="83"/>
-      <c r="X292" s="83"/>
-      <c r="Y292" s="83"/>
-      <c r="Z292" s="83"/>
-      <c r="AA292" s="83"/>
-      <c r="AB292" s="83"/>
+      <c r="H292" s="72"/>
+      <c r="I292" s="73"/>
+      <c r="J292" s="73"/>
+      <c r="K292" s="72"/>
+      <c r="L292" s="72"/>
+      <c r="M292" s="72"/>
+      <c r="N292" s="72"/>
+      <c r="O292" s="72"/>
+      <c r="P292" s="72"/>
+      <c r="Q292" s="72"/>
+      <c r="R292" s="72"/>
+      <c r="S292" s="87"/>
+      <c r="T292" s="87"/>
+      <c r="U292" s="87"/>
+      <c r="V292" s="87"/>
+      <c r="W292" s="87"/>
+      <c r="X292" s="87"/>
+      <c r="Y292" s="87"/>
+      <c r="Z292" s="87"/>
+      <c r="AA292" s="87"/>
+      <c r="AB292" s="87"/>
     </row>
     <row r="293" spans="8:28">
-      <c r="H293" s="68"/>
-      <c r="I293" s="69"/>
-      <c r="J293" s="69"/>
-      <c r="K293" s="68"/>
-      <c r="L293" s="68"/>
-      <c r="M293" s="68"/>
-      <c r="N293" s="68"/>
-      <c r="O293" s="68"/>
-      <c r="P293" s="68"/>
-      <c r="Q293" s="68"/>
-      <c r="R293" s="68"/>
-      <c r="S293" s="83"/>
-      <c r="T293" s="83"/>
-      <c r="U293" s="83"/>
-      <c r="V293" s="83"/>
-      <c r="W293" s="83"/>
-      <c r="X293" s="83"/>
-      <c r="Y293" s="83"/>
-      <c r="Z293" s="83"/>
-      <c r="AA293" s="83"/>
-      <c r="AB293" s="83"/>
+      <c r="H293" s="72"/>
+      <c r="I293" s="73"/>
+      <c r="J293" s="73"/>
+      <c r="K293" s="72"/>
+      <c r="L293" s="72"/>
+      <c r="M293" s="72"/>
+      <c r="N293" s="72"/>
+      <c r="O293" s="72"/>
+      <c r="P293" s="72"/>
+      <c r="Q293" s="72"/>
+      <c r="R293" s="72"/>
+      <c r="S293" s="87"/>
+      <c r="T293" s="87"/>
+      <c r="U293" s="87"/>
+      <c r="V293" s="87"/>
+      <c r="W293" s="87"/>
+      <c r="X293" s="87"/>
+      <c r="Y293" s="87"/>
+      <c r="Z293" s="87"/>
+      <c r="AA293" s="87"/>
+      <c r="AB293" s="87"/>
     </row>
     <row r="294" spans="8:28">
-      <c r="H294" s="68"/>
-      <c r="I294" s="69"/>
-      <c r="J294" s="69"/>
-      <c r="K294" s="68"/>
-      <c r="L294" s="68"/>
-      <c r="M294" s="68"/>
-      <c r="N294" s="68"/>
-      <c r="O294" s="68"/>
-      <c r="P294" s="68"/>
-      <c r="Q294" s="68"/>
-      <c r="R294" s="68"/>
-      <c r="S294" s="83"/>
-      <c r="T294" s="83"/>
-      <c r="U294" s="83"/>
-      <c r="V294" s="83"/>
-      <c r="W294" s="83"/>
-      <c r="X294" s="83"/>
-      <c r="Y294" s="83"/>
-      <c r="Z294" s="83"/>
-      <c r="AA294" s="83"/>
-      <c r="AB294" s="83"/>
+      <c r="H294" s="72"/>
+      <c r="I294" s="73"/>
+      <c r="J294" s="73"/>
+      <c r="K294" s="72"/>
+      <c r="L294" s="72"/>
+      <c r="M294" s="72"/>
+      <c r="N294" s="72"/>
+      <c r="O294" s="72"/>
+      <c r="P294" s="72"/>
+      <c r="Q294" s="72"/>
+      <c r="R294" s="72"/>
+      <c r="S294" s="87"/>
+      <c r="T294" s="87"/>
+      <c r="U294" s="87"/>
+      <c r="V294" s="87"/>
+      <c r="W294" s="87"/>
+      <c r="X294" s="87"/>
+      <c r="Y294" s="87"/>
+      <c r="Z294" s="87"/>
+      <c r="AA294" s="87"/>
+      <c r="AB294" s="87"/>
     </row>
     <row r="295" ht="42" customHeight="1" spans="8:28">
-      <c r="H295" s="68"/>
-      <c r="I295" s="69"/>
-      <c r="J295" s="69"/>
-      <c r="K295" s="68"/>
-      <c r="L295" s="68"/>
-      <c r="M295" s="68"/>
-      <c r="N295" s="68"/>
-      <c r="O295" s="68"/>
-      <c r="P295" s="68"/>
-      <c r="Q295" s="68"/>
-      <c r="R295" s="68"/>
-      <c r="S295" s="83"/>
-      <c r="T295" s="83"/>
-      <c r="U295" s="83"/>
-      <c r="V295" s="83"/>
-      <c r="W295" s="83"/>
-      <c r="X295" s="83"/>
-      <c r="Y295" s="83"/>
-      <c r="Z295" s="83"/>
-      <c r="AA295" s="83"/>
-      <c r="AB295" s="83"/>
+      <c r="H295" s="72"/>
+      <c r="I295" s="73"/>
+      <c r="J295" s="73"/>
+      <c r="K295" s="72"/>
+      <c r="L295" s="72"/>
+      <c r="M295" s="72"/>
+      <c r="N295" s="72"/>
+      <c r="O295" s="72"/>
+      <c r="P295" s="72"/>
+      <c r="Q295" s="72"/>
+      <c r="R295" s="72"/>
+      <c r="S295" s="87"/>
+      <c r="T295" s="87"/>
+      <c r="U295" s="87"/>
+      <c r="V295" s="87"/>
+      <c r="W295" s="87"/>
+      <c r="X295" s="87"/>
+      <c r="Y295" s="87"/>
+      <c r="Z295" s="87"/>
+      <c r="AA295" s="87"/>
+      <c r="AB295" s="87"/>
     </row>
     <row r="296" spans="8:28">
-      <c r="H296" s="52">
+      <c r="H296" s="56">
         <v>5</v>
       </c>
-      <c r="I296" s="67" t="s">
+      <c r="I296" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="J296" s="67"/>
-      <c r="K296" s="68" t="s">
+      <c r="J296" s="71"/>
+      <c r="K296" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="L296" s="68" t="s">
+      <c r="L296" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="M296" s="69" t="s">
+      <c r="M296" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N296" s="69"/>
-      <c r="O296" s="68" t="s">
+      <c r="N296" s="73"/>
+      <c r="O296" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="P296" s="68" t="s">
+      <c r="P296" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="Q296" s="68" t="s">
+      <c r="Q296" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="R296" s="82" t="s">
+      <c r="R296" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="S296" s="83" t="s">
+      <c r="S296" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="T296" s="83"/>
-      <c r="U296" s="83"/>
-      <c r="V296" s="83"/>
-      <c r="W296" s="83"/>
-      <c r="X296" s="83"/>
-      <c r="Y296" s="83"/>
-      <c r="Z296" s="83"/>
-      <c r="AA296" s="83"/>
-      <c r="AB296" s="83"/>
+      <c r="T296" s="87"/>
+      <c r="U296" s="87"/>
+      <c r="V296" s="87"/>
+      <c r="W296" s="87"/>
+      <c r="X296" s="87"/>
+      <c r="Y296" s="87"/>
+      <c r="Z296" s="87"/>
+      <c r="AA296" s="87"/>
+      <c r="AB296" s="87"/>
     </row>
     <row r="297" spans="8:28">
-      <c r="H297" s="52"/>
-      <c r="I297" s="67"/>
-      <c r="J297" s="67"/>
-      <c r="K297" s="68"/>
-      <c r="L297" s="68"/>
-      <c r="M297" s="69"/>
-      <c r="N297" s="69"/>
-      <c r="O297" s="68"/>
-      <c r="P297" s="68"/>
-      <c r="Q297" s="68"/>
-      <c r="R297" s="84"/>
-      <c r="S297" s="83"/>
-      <c r="T297" s="83"/>
-      <c r="U297" s="83"/>
-      <c r="V297" s="83"/>
-      <c r="W297" s="83"/>
-      <c r="X297" s="83"/>
-      <c r="Y297" s="83"/>
-      <c r="Z297" s="83"/>
-      <c r="AA297" s="83"/>
-      <c r="AB297" s="83"/>
+      <c r="H297" s="56"/>
+      <c r="I297" s="71"/>
+      <c r="J297" s="71"/>
+      <c r="K297" s="72"/>
+      <c r="L297" s="72"/>
+      <c r="M297" s="73"/>
+      <c r="N297" s="73"/>
+      <c r="O297" s="72"/>
+      <c r="P297" s="72"/>
+      <c r="Q297" s="72"/>
+      <c r="R297" s="88"/>
+      <c r="S297" s="87"/>
+      <c r="T297" s="87"/>
+      <c r="U297" s="87"/>
+      <c r="V297" s="87"/>
+      <c r="W297" s="87"/>
+      <c r="X297" s="87"/>
+      <c r="Y297" s="87"/>
+      <c r="Z297" s="87"/>
+      <c r="AA297" s="87"/>
+      <c r="AB297" s="87"/>
     </row>
     <row r="298" spans="8:28">
-      <c r="H298" s="52"/>
-      <c r="I298" s="67"/>
-      <c r="J298" s="67"/>
-      <c r="K298" s="68"/>
-      <c r="L298" s="68"/>
-      <c r="M298" s="69"/>
-      <c r="N298" s="69"/>
-      <c r="O298" s="68"/>
-      <c r="P298" s="68"/>
-      <c r="Q298" s="68"/>
-      <c r="R298" s="84"/>
-      <c r="S298" s="83"/>
-      <c r="T298" s="83"/>
-      <c r="U298" s="83"/>
-      <c r="V298" s="83"/>
-      <c r="W298" s="83"/>
-      <c r="X298" s="83"/>
-      <c r="Y298" s="83"/>
-      <c r="Z298" s="83"/>
-      <c r="AA298" s="83"/>
-      <c r="AB298" s="83"/>
+      <c r="H298" s="56"/>
+      <c r="I298" s="71"/>
+      <c r="J298" s="71"/>
+      <c r="K298" s="72"/>
+      <c r="L298" s="72"/>
+      <c r="M298" s="73"/>
+      <c r="N298" s="73"/>
+      <c r="O298" s="72"/>
+      <c r="P298" s="72"/>
+      <c r="Q298" s="72"/>
+      <c r="R298" s="88"/>
+      <c r="S298" s="87"/>
+      <c r="T298" s="87"/>
+      <c r="U298" s="87"/>
+      <c r="V298" s="87"/>
+      <c r="W298" s="87"/>
+      <c r="X298" s="87"/>
+      <c r="Y298" s="87"/>
+      <c r="Z298" s="87"/>
+      <c r="AA298" s="87"/>
+      <c r="AB298" s="87"/>
     </row>
     <row r="299" spans="8:28">
-      <c r="H299" s="44">
+      <c r="H299" s="48">
         <v>6</v>
       </c>
-      <c r="I299" s="46" t="s">
+      <c r="I299" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="J299" s="46"/>
+      <c r="J299" s="50"/>
       <c r="K299" s="42" t="s">
         <v>81</v>
       </c>
@@ -22619,10 +23439,10 @@
         <v>83</v>
       </c>
       <c r="N299" s="41"/>
-      <c r="O299" s="124" t="s">
+      <c r="O299" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="P299" s="124" t="s">
+      <c r="P299" s="128" t="s">
         <v>39</v>
       </c>
       <c r="Q299" s="41" t="s">
@@ -22631,23 +23451,23 @@
       <c r="R299" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="S299" s="47" t="s">
+      <c r="S299" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="T299" s="47"/>
-      <c r="U299" s="47"/>
-      <c r="V299" s="47"/>
-      <c r="W299" s="47"/>
-      <c r="X299" s="47"/>
-      <c r="Y299" s="47"/>
-      <c r="Z299" s="47"/>
-      <c r="AA299" s="47"/>
-      <c r="AB299" s="47"/>
+      <c r="T299" s="51"/>
+      <c r="U299" s="51"/>
+      <c r="V299" s="51"/>
+      <c r="W299" s="51"/>
+      <c r="X299" s="51"/>
+      <c r="Y299" s="51"/>
+      <c r="Z299" s="51"/>
+      <c r="AA299" s="51"/>
+      <c r="AB299" s="51"/>
     </row>
     <row r="300" spans="8:28">
-      <c r="H300" s="44"/>
-      <c r="I300" s="46"/>
-      <c r="J300" s="46"/>
+      <c r="H300" s="48"/>
+      <c r="I300" s="50"/>
+      <c r="J300" s="50"/>
       <c r="K300" s="42"/>
       <c r="L300" s="41"/>
       <c r="M300" s="41"/>
@@ -22656,21 +23476,21 @@
       <c r="P300" s="41"/>
       <c r="Q300" s="41"/>
       <c r="R300" s="42"/>
-      <c r="S300" s="47"/>
-      <c r="T300" s="47"/>
-      <c r="U300" s="47"/>
-      <c r="V300" s="47"/>
-      <c r="W300" s="47"/>
-      <c r="X300" s="47"/>
-      <c r="Y300" s="47"/>
-      <c r="Z300" s="47"/>
-      <c r="AA300" s="47"/>
-      <c r="AB300" s="47"/>
+      <c r="S300" s="51"/>
+      <c r="T300" s="51"/>
+      <c r="U300" s="51"/>
+      <c r="V300" s="51"/>
+      <c r="W300" s="51"/>
+      <c r="X300" s="51"/>
+      <c r="Y300" s="51"/>
+      <c r="Z300" s="51"/>
+      <c r="AA300" s="51"/>
+      <c r="AB300" s="51"/>
     </row>
     <row r="301" spans="8:28">
-      <c r="H301" s="44"/>
-      <c r="I301" s="46"/>
-      <c r="J301" s="46"/>
+      <c r="H301" s="48"/>
+      <c r="I301" s="50"/>
+      <c r="J301" s="50"/>
       <c r="K301" s="42"/>
       <c r="L301" s="41"/>
       <c r="M301" s="41"/>
@@ -22679,21 +23499,21 @@
       <c r="P301" s="41"/>
       <c r="Q301" s="41"/>
       <c r="R301" s="42"/>
-      <c r="S301" s="47"/>
-      <c r="T301" s="47"/>
-      <c r="U301" s="47"/>
-      <c r="V301" s="47"/>
-      <c r="W301" s="47"/>
-      <c r="X301" s="47"/>
-      <c r="Y301" s="47"/>
-      <c r="Z301" s="47"/>
-      <c r="AA301" s="47"/>
-      <c r="AB301" s="47"/>
+      <c r="S301" s="51"/>
+      <c r="T301" s="51"/>
+      <c r="U301" s="51"/>
+      <c r="V301" s="51"/>
+      <c r="W301" s="51"/>
+      <c r="X301" s="51"/>
+      <c r="Y301" s="51"/>
+      <c r="Z301" s="51"/>
+      <c r="AA301" s="51"/>
+      <c r="AB301" s="51"/>
     </row>
     <row r="302" spans="8:28">
-      <c r="H302" s="44"/>
-      <c r="I302" s="46"/>
-      <c r="J302" s="46"/>
+      <c r="H302" s="48"/>
+      <c r="I302" s="50"/>
+      <c r="J302" s="50"/>
       <c r="K302" s="42"/>
       <c r="L302" s="41"/>
       <c r="M302" s="41"/>
@@ -22702,21 +23522,21 @@
       <c r="P302" s="41"/>
       <c r="Q302" s="41"/>
       <c r="R302" s="42"/>
-      <c r="S302" s="47"/>
-      <c r="T302" s="47"/>
-      <c r="U302" s="47"/>
-      <c r="V302" s="47"/>
-      <c r="W302" s="47"/>
-      <c r="X302" s="47"/>
-      <c r="Y302" s="47"/>
-      <c r="Z302" s="47"/>
-      <c r="AA302" s="47"/>
-      <c r="AB302" s="47"/>
+      <c r="S302" s="51"/>
+      <c r="T302" s="51"/>
+      <c r="U302" s="51"/>
+      <c r="V302" s="51"/>
+      <c r="W302" s="51"/>
+      <c r="X302" s="51"/>
+      <c r="Y302" s="51"/>
+      <c r="Z302" s="51"/>
+      <c r="AA302" s="51"/>
+      <c r="AB302" s="51"/>
     </row>
     <row r="303" spans="8:28">
-      <c r="H303" s="44"/>
-      <c r="I303" s="46"/>
-      <c r="J303" s="46"/>
+      <c r="H303" s="48"/>
+      <c r="I303" s="50"/>
+      <c r="J303" s="50"/>
       <c r="K303" s="42"/>
       <c r="L303" s="41"/>
       <c r="M303" s="41"/>
@@ -22725,25 +23545,25 @@
       <c r="P303" s="41"/>
       <c r="Q303" s="41"/>
       <c r="R303" s="42"/>
-      <c r="S303" s="47"/>
-      <c r="T303" s="47"/>
-      <c r="U303" s="47"/>
-      <c r="V303" s="47"/>
-      <c r="W303" s="47"/>
-      <c r="X303" s="47"/>
-      <c r="Y303" s="47"/>
-      <c r="Z303" s="47"/>
-      <c r="AA303" s="47"/>
-      <c r="AB303" s="47"/>
+      <c r="S303" s="51"/>
+      <c r="T303" s="51"/>
+      <c r="U303" s="51"/>
+      <c r="V303" s="51"/>
+      <c r="W303" s="51"/>
+      <c r="X303" s="51"/>
+      <c r="Y303" s="51"/>
+      <c r="Z303" s="51"/>
+      <c r="AA303" s="51"/>
+      <c r="AB303" s="51"/>
     </row>
     <row r="304" spans="8:28">
-      <c r="H304" s="44">
+      <c r="H304" s="48">
         <v>7</v>
       </c>
-      <c r="I304" s="46" t="s">
+      <c r="I304" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="J304" s="46"/>
+      <c r="J304" s="50"/>
       <c r="K304" s="42" t="s">
         <v>87</v>
       </c>
@@ -22766,23 +23586,23 @@
       <c r="R304" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="S304" s="47" t="s">
+      <c r="S304" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="T304" s="47"/>
-      <c r="U304" s="47"/>
-      <c r="V304" s="47"/>
-      <c r="W304" s="47"/>
-      <c r="X304" s="47"/>
-      <c r="Y304" s="47"/>
-      <c r="Z304" s="47"/>
-      <c r="AA304" s="47"/>
-      <c r="AB304" s="47"/>
+      <c r="T304" s="51"/>
+      <c r="U304" s="51"/>
+      <c r="V304" s="51"/>
+      <c r="W304" s="51"/>
+      <c r="X304" s="51"/>
+      <c r="Y304" s="51"/>
+      <c r="Z304" s="51"/>
+      <c r="AA304" s="51"/>
+      <c r="AB304" s="51"/>
     </row>
     <row r="305" spans="8:28">
-      <c r="H305" s="44"/>
-      <c r="I305" s="46"/>
-      <c r="J305" s="46"/>
+      <c r="H305" s="48"/>
+      <c r="I305" s="50"/>
+      <c r="J305" s="50"/>
       <c r="K305" s="42"/>
       <c r="L305" s="41"/>
       <c r="M305" s="41"/>
@@ -22791,21 +23611,21 @@
       <c r="P305" s="41"/>
       <c r="Q305" s="41"/>
       <c r="R305" s="42"/>
-      <c r="S305" s="47"/>
-      <c r="T305" s="47"/>
-      <c r="U305" s="47"/>
-      <c r="V305" s="47"/>
-      <c r="W305" s="47"/>
-      <c r="X305" s="47"/>
-      <c r="Y305" s="47"/>
-      <c r="Z305" s="47"/>
-      <c r="AA305" s="47"/>
-      <c r="AB305" s="47"/>
+      <c r="S305" s="51"/>
+      <c r="T305" s="51"/>
+      <c r="U305" s="51"/>
+      <c r="V305" s="51"/>
+      <c r="W305" s="51"/>
+      <c r="X305" s="51"/>
+      <c r="Y305" s="51"/>
+      <c r="Z305" s="51"/>
+      <c r="AA305" s="51"/>
+      <c r="AB305" s="51"/>
     </row>
     <row r="306" spans="8:28">
-      <c r="H306" s="44"/>
-      <c r="I306" s="46"/>
-      <c r="J306" s="46"/>
+      <c r="H306" s="48"/>
+      <c r="I306" s="50"/>
+      <c r="J306" s="50"/>
       <c r="K306" s="42"/>
       <c r="L306" s="41"/>
       <c r="M306" s="41"/>
@@ -22814,25 +23634,25 @@
       <c r="P306" s="41"/>
       <c r="Q306" s="41"/>
       <c r="R306" s="42"/>
-      <c r="S306" s="47"/>
-      <c r="T306" s="47"/>
-      <c r="U306" s="47"/>
-      <c r="V306" s="47"/>
-      <c r="W306" s="47"/>
-      <c r="X306" s="47"/>
-      <c r="Y306" s="47"/>
-      <c r="Z306" s="47"/>
-      <c r="AA306" s="47"/>
-      <c r="AB306" s="47"/>
+      <c r="S306" s="51"/>
+      <c r="T306" s="51"/>
+      <c r="U306" s="51"/>
+      <c r="V306" s="51"/>
+      <c r="W306" s="51"/>
+      <c r="X306" s="51"/>
+      <c r="Y306" s="51"/>
+      <c r="Z306" s="51"/>
+      <c r="AA306" s="51"/>
+      <c r="AB306" s="51"/>
     </row>
     <row r="307" spans="8:28">
-      <c r="H307" s="44">
+      <c r="H307" s="48">
         <v>8</v>
       </c>
-      <c r="I307" s="46" t="s">
+      <c r="I307" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="J307" s="46"/>
+      <c r="J307" s="50"/>
       <c r="K307" s="42" t="s">
         <v>93</v>
       </c>
@@ -22855,23 +23675,23 @@
       <c r="R307" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="S307" s="47" t="s">
+      <c r="S307" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="T307" s="47"/>
-      <c r="U307" s="47"/>
-      <c r="V307" s="47"/>
-      <c r="W307" s="47"/>
-      <c r="X307" s="47"/>
-      <c r="Y307" s="47"/>
-      <c r="Z307" s="47"/>
-      <c r="AA307" s="47"/>
-      <c r="AB307" s="47"/>
+      <c r="T307" s="51"/>
+      <c r="U307" s="51"/>
+      <c r="V307" s="51"/>
+      <c r="W307" s="51"/>
+      <c r="X307" s="51"/>
+      <c r="Y307" s="51"/>
+      <c r="Z307" s="51"/>
+      <c r="AA307" s="51"/>
+      <c r="AB307" s="51"/>
     </row>
     <row r="308" spans="8:28">
-      <c r="H308" s="44"/>
-      <c r="I308" s="46"/>
-      <c r="J308" s="46"/>
+      <c r="H308" s="48"/>
+      <c r="I308" s="50"/>
+      <c r="J308" s="50"/>
       <c r="K308" s="42"/>
       <c r="L308" s="41"/>
       <c r="M308" s="41"/>
@@ -22880,21 +23700,21 @@
       <c r="P308" s="41"/>
       <c r="Q308" s="41"/>
       <c r="R308" s="42"/>
-      <c r="S308" s="47"/>
-      <c r="T308" s="47"/>
-      <c r="U308" s="47"/>
-      <c r="V308" s="47"/>
-      <c r="W308" s="47"/>
-      <c r="X308" s="47"/>
-      <c r="Y308" s="47"/>
-      <c r="Z308" s="47"/>
-      <c r="AA308" s="47"/>
-      <c r="AB308" s="47"/>
+      <c r="S308" s="51"/>
+      <c r="T308" s="51"/>
+      <c r="U308" s="51"/>
+      <c r="V308" s="51"/>
+      <c r="W308" s="51"/>
+      <c r="X308" s="51"/>
+      <c r="Y308" s="51"/>
+      <c r="Z308" s="51"/>
+      <c r="AA308" s="51"/>
+      <c r="AB308" s="51"/>
     </row>
     <row r="309" spans="8:28">
-      <c r="H309" s="44"/>
-      <c r="I309" s="46"/>
-      <c r="J309" s="46"/>
+      <c r="H309" s="48"/>
+      <c r="I309" s="50"/>
+      <c r="J309" s="50"/>
       <c r="K309" s="42"/>
       <c r="L309" s="41"/>
       <c r="M309" s="41"/>
@@ -22903,25 +23723,25 @@
       <c r="P309" s="41"/>
       <c r="Q309" s="41"/>
       <c r="R309" s="42"/>
-      <c r="S309" s="47"/>
-      <c r="T309" s="47"/>
-      <c r="U309" s="47"/>
-      <c r="V309" s="47"/>
-      <c r="W309" s="47"/>
-      <c r="X309" s="47"/>
-      <c r="Y309" s="47"/>
-      <c r="Z309" s="47"/>
-      <c r="AA309" s="47"/>
-      <c r="AB309" s="47"/>
+      <c r="S309" s="51"/>
+      <c r="T309" s="51"/>
+      <c r="U309" s="51"/>
+      <c r="V309" s="51"/>
+      <c r="W309" s="51"/>
+      <c r="X309" s="51"/>
+      <c r="Y309" s="51"/>
+      <c r="Z309" s="51"/>
+      <c r="AA309" s="51"/>
+      <c r="AB309" s="51"/>
     </row>
     <row r="310" spans="8:28">
-      <c r="H310" s="44">
+      <c r="H310" s="48">
         <v>9</v>
       </c>
-      <c r="I310" s="46" t="s">
+      <c r="I310" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="J310" s="46"/>
+      <c r="J310" s="50"/>
       <c r="K310" s="41" t="s">
         <v>96</v>
       </c>
@@ -22944,23 +23764,23 @@
       <c r="R310" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="S310" s="47" t="s">
+      <c r="S310" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="T310" s="47"/>
-      <c r="U310" s="47"/>
-      <c r="V310" s="47"/>
-      <c r="W310" s="47"/>
-      <c r="X310" s="47"/>
-      <c r="Y310" s="47"/>
-      <c r="Z310" s="47"/>
-      <c r="AA310" s="47"/>
-      <c r="AB310" s="47"/>
+      <c r="T310" s="51"/>
+      <c r="U310" s="51"/>
+      <c r="V310" s="51"/>
+      <c r="W310" s="51"/>
+      <c r="X310" s="51"/>
+      <c r="Y310" s="51"/>
+      <c r="Z310" s="51"/>
+      <c r="AA310" s="51"/>
+      <c r="AB310" s="51"/>
     </row>
     <row r="311" spans="8:28">
-      <c r="H311" s="44"/>
-      <c r="I311" s="46"/>
-      <c r="J311" s="46"/>
+      <c r="H311" s="48"/>
+      <c r="I311" s="50"/>
+      <c r="J311" s="50"/>
       <c r="K311" s="41"/>
       <c r="L311" s="41"/>
       <c r="M311" s="41"/>
@@ -22969,21 +23789,21 @@
       <c r="P311" s="41"/>
       <c r="Q311" s="41"/>
       <c r="R311" s="42"/>
-      <c r="S311" s="47"/>
-      <c r="T311" s="47"/>
-      <c r="U311" s="47"/>
-      <c r="V311" s="47"/>
-      <c r="W311" s="47"/>
-      <c r="X311" s="47"/>
-      <c r="Y311" s="47"/>
-      <c r="Z311" s="47"/>
-      <c r="AA311" s="47"/>
-      <c r="AB311" s="47"/>
+      <c r="S311" s="51"/>
+      <c r="T311" s="51"/>
+      <c r="U311" s="51"/>
+      <c r="V311" s="51"/>
+      <c r="W311" s="51"/>
+      <c r="X311" s="51"/>
+      <c r="Y311" s="51"/>
+      <c r="Z311" s="51"/>
+      <c r="AA311" s="51"/>
+      <c r="AB311" s="51"/>
     </row>
     <row r="312" spans="8:28">
-      <c r="H312" s="44"/>
-      <c r="I312" s="46"/>
-      <c r="J312" s="46"/>
+      <c r="H312" s="48"/>
+      <c r="I312" s="50"/>
+      <c r="J312" s="50"/>
       <c r="K312" s="41"/>
       <c r="L312" s="41"/>
       <c r="M312" s="41"/>
@@ -22992,21 +23812,21 @@
       <c r="P312" s="41"/>
       <c r="Q312" s="41"/>
       <c r="R312" s="42"/>
-      <c r="S312" s="47"/>
-      <c r="T312" s="47"/>
-      <c r="U312" s="47"/>
-      <c r="V312" s="47"/>
-      <c r="W312" s="47"/>
-      <c r="X312" s="47"/>
-      <c r="Y312" s="47"/>
-      <c r="Z312" s="47"/>
-      <c r="AA312" s="47"/>
-      <c r="AB312" s="47"/>
+      <c r="S312" s="51"/>
+      <c r="T312" s="51"/>
+      <c r="U312" s="51"/>
+      <c r="V312" s="51"/>
+      <c r="W312" s="51"/>
+      <c r="X312" s="51"/>
+      <c r="Y312" s="51"/>
+      <c r="Z312" s="51"/>
+      <c r="AA312" s="51"/>
+      <c r="AB312" s="51"/>
     </row>
     <row r="313" spans="8:28">
-      <c r="H313" s="44"/>
-      <c r="I313" s="46"/>
-      <c r="J313" s="46"/>
+      <c r="H313" s="48"/>
+      <c r="I313" s="50"/>
+      <c r="J313" s="50"/>
       <c r="K313" s="41"/>
       <c r="L313" s="41"/>
       <c r="M313" s="41"/>
@@ -23015,21 +23835,21 @@
       <c r="P313" s="41"/>
       <c r="Q313" s="41"/>
       <c r="R313" s="42"/>
-      <c r="S313" s="47"/>
-      <c r="T313" s="47"/>
-      <c r="U313" s="47"/>
-      <c r="V313" s="47"/>
-      <c r="W313" s="47"/>
-      <c r="X313" s="47"/>
-      <c r="Y313" s="47"/>
-      <c r="Z313" s="47"/>
-      <c r="AA313" s="47"/>
-      <c r="AB313" s="47"/>
+      <c r="S313" s="51"/>
+      <c r="T313" s="51"/>
+      <c r="U313" s="51"/>
+      <c r="V313" s="51"/>
+      <c r="W313" s="51"/>
+      <c r="X313" s="51"/>
+      <c r="Y313" s="51"/>
+      <c r="Z313" s="51"/>
+      <c r="AA313" s="51"/>
+      <c r="AB313" s="51"/>
     </row>
     <row r="314" spans="8:28">
-      <c r="H314" s="44"/>
-      <c r="I314" s="46"/>
-      <c r="J314" s="46"/>
+      <c r="H314" s="48"/>
+      <c r="I314" s="50"/>
+      <c r="J314" s="50"/>
       <c r="K314" s="41"/>
       <c r="L314" s="41"/>
       <c r="M314" s="41"/>
@@ -23038,21 +23858,21 @@
       <c r="P314" s="41"/>
       <c r="Q314" s="41"/>
       <c r="R314" s="42"/>
-      <c r="S314" s="47"/>
-      <c r="T314" s="47"/>
-      <c r="U314" s="47"/>
-      <c r="V314" s="47"/>
-      <c r="W314" s="47"/>
-      <c r="X314" s="47"/>
-      <c r="Y314" s="47"/>
-      <c r="Z314" s="47"/>
-      <c r="AA314" s="47"/>
-      <c r="AB314" s="47"/>
+      <c r="S314" s="51"/>
+      <c r="T314" s="51"/>
+      <c r="U314" s="51"/>
+      <c r="V314" s="51"/>
+      <c r="W314" s="51"/>
+      <c r="X314" s="51"/>
+      <c r="Y314" s="51"/>
+      <c r="Z314" s="51"/>
+      <c r="AA314" s="51"/>
+      <c r="AB314" s="51"/>
     </row>
     <row r="315" spans="8:28">
-      <c r="H315" s="44"/>
-      <c r="I315" s="46"/>
-      <c r="J315" s="46"/>
+      <c r="H315" s="48"/>
+      <c r="I315" s="50"/>
+      <c r="J315" s="50"/>
       <c r="K315" s="41"/>
       <c r="L315" s="41"/>
       <c r="M315" s="41"/>
@@ -23061,21 +23881,21 @@
       <c r="P315" s="41"/>
       <c r="Q315" s="41"/>
       <c r="R315" s="42"/>
-      <c r="S315" s="47"/>
-      <c r="T315" s="47"/>
-      <c r="U315" s="47"/>
-      <c r="V315" s="47"/>
-      <c r="W315" s="47"/>
-      <c r="X315" s="47"/>
-      <c r="Y315" s="47"/>
-      <c r="Z315" s="47"/>
-      <c r="AA315" s="47"/>
-      <c r="AB315" s="47"/>
+      <c r="S315" s="51"/>
+      <c r="T315" s="51"/>
+      <c r="U315" s="51"/>
+      <c r="V315" s="51"/>
+      <c r="W315" s="51"/>
+      <c r="X315" s="51"/>
+      <c r="Y315" s="51"/>
+      <c r="Z315" s="51"/>
+      <c r="AA315" s="51"/>
+      <c r="AB315" s="51"/>
     </row>
     <row r="316" spans="8:28">
-      <c r="H316" s="44"/>
-      <c r="I316" s="46"/>
-      <c r="J316" s="46"/>
+      <c r="H316" s="48"/>
+      <c r="I316" s="50"/>
+      <c r="J316" s="50"/>
       <c r="K316" s="41"/>
       <c r="L316" s="41"/>
       <c r="M316" s="41"/>
@@ -23084,21 +23904,21 @@
       <c r="P316" s="41"/>
       <c r="Q316" s="41"/>
       <c r="R316" s="42"/>
-      <c r="S316" s="47"/>
-      <c r="T316" s="47"/>
-      <c r="U316" s="47"/>
-      <c r="V316" s="47"/>
-      <c r="W316" s="47"/>
-      <c r="X316" s="47"/>
-      <c r="Y316" s="47"/>
-      <c r="Z316" s="47"/>
-      <c r="AA316" s="47"/>
-      <c r="AB316" s="47"/>
+      <c r="S316" s="51"/>
+      <c r="T316" s="51"/>
+      <c r="U316" s="51"/>
+      <c r="V316" s="51"/>
+      <c r="W316" s="51"/>
+      <c r="X316" s="51"/>
+      <c r="Y316" s="51"/>
+      <c r="Z316" s="51"/>
+      <c r="AA316" s="51"/>
+      <c r="AB316" s="51"/>
     </row>
     <row r="317" spans="8:28">
-      <c r="H317" s="44"/>
-      <c r="I317" s="46"/>
-      <c r="J317" s="46"/>
+      <c r="H317" s="48"/>
+      <c r="I317" s="50"/>
+      <c r="J317" s="50"/>
       <c r="K317" s="41"/>
       <c r="L317" s="41"/>
       <c r="M317" s="41"/>
@@ -23107,21 +23927,21 @@
       <c r="P317" s="41"/>
       <c r="Q317" s="41"/>
       <c r="R317" s="42"/>
-      <c r="S317" s="47"/>
-      <c r="T317" s="47"/>
-      <c r="U317" s="47"/>
-      <c r="V317" s="47"/>
-      <c r="W317" s="47"/>
-      <c r="X317" s="47"/>
-      <c r="Y317" s="47"/>
-      <c r="Z317" s="47"/>
-      <c r="AA317" s="47"/>
-      <c r="AB317" s="47"/>
+      <c r="S317" s="51"/>
+      <c r="T317" s="51"/>
+      <c r="U317" s="51"/>
+      <c r="V317" s="51"/>
+      <c r="W317" s="51"/>
+      <c r="X317" s="51"/>
+      <c r="Y317" s="51"/>
+      <c r="Z317" s="51"/>
+      <c r="AA317" s="51"/>
+      <c r="AB317" s="51"/>
     </row>
     <row r="318" spans="8:28">
-      <c r="H318" s="44"/>
-      <c r="I318" s="46"/>
-      <c r="J318" s="46"/>
+      <c r="H318" s="48"/>
+      <c r="I318" s="50"/>
+      <c r="J318" s="50"/>
       <c r="K318" s="41"/>
       <c r="L318" s="41"/>
       <c r="M318" s="41"/>
@@ -23130,21 +23950,21 @@
       <c r="P318" s="41"/>
       <c r="Q318" s="41"/>
       <c r="R318" s="42"/>
-      <c r="S318" s="47"/>
-      <c r="T318" s="47"/>
-      <c r="U318" s="47"/>
-      <c r="V318" s="47"/>
-      <c r="W318" s="47"/>
-      <c r="X318" s="47"/>
-      <c r="Y318" s="47"/>
-      <c r="Z318" s="47"/>
-      <c r="AA318" s="47"/>
-      <c r="AB318" s="47"/>
+      <c r="S318" s="51"/>
+      <c r="T318" s="51"/>
+      <c r="U318" s="51"/>
+      <c r="V318" s="51"/>
+      <c r="W318" s="51"/>
+      <c r="X318" s="51"/>
+      <c r="Y318" s="51"/>
+      <c r="Z318" s="51"/>
+      <c r="AA318" s="51"/>
+      <c r="AB318" s="51"/>
     </row>
     <row r="319" spans="8:28">
-      <c r="H319" s="44"/>
-      <c r="I319" s="46"/>
-      <c r="J319" s="46"/>
+      <c r="H319" s="48"/>
+      <c r="I319" s="50"/>
+      <c r="J319" s="50"/>
       <c r="K319" s="41"/>
       <c r="L319" s="41"/>
       <c r="M319" s="41"/>
@@ -23153,21 +23973,21 @@
       <c r="P319" s="41"/>
       <c r="Q319" s="41"/>
       <c r="R319" s="42"/>
-      <c r="S319" s="47"/>
-      <c r="T319" s="47"/>
-      <c r="U319" s="47"/>
-      <c r="V319" s="47"/>
-      <c r="W319" s="47"/>
-      <c r="X319" s="47"/>
-      <c r="Y319" s="47"/>
-      <c r="Z319" s="47"/>
-      <c r="AA319" s="47"/>
-      <c r="AB319" s="47"/>
+      <c r="S319" s="51"/>
+      <c r="T319" s="51"/>
+      <c r="U319" s="51"/>
+      <c r="V319" s="51"/>
+      <c r="W319" s="51"/>
+      <c r="X319" s="51"/>
+      <c r="Y319" s="51"/>
+      <c r="Z319" s="51"/>
+      <c r="AA319" s="51"/>
+      <c r="AB319" s="51"/>
     </row>
     <row r="320" spans="8:28">
-      <c r="H320" s="44"/>
-      <c r="I320" s="46"/>
-      <c r="J320" s="46"/>
+      <c r="H320" s="48"/>
+      <c r="I320" s="50"/>
+      <c r="J320" s="50"/>
       <c r="K320" s="41"/>
       <c r="L320" s="41"/>
       <c r="M320" s="41"/>
@@ -23176,21 +23996,21 @@
       <c r="P320" s="41"/>
       <c r="Q320" s="41"/>
       <c r="R320" s="42"/>
-      <c r="S320" s="47"/>
-      <c r="T320" s="47"/>
-      <c r="U320" s="47"/>
-      <c r="V320" s="47"/>
-      <c r="W320" s="47"/>
-      <c r="X320" s="47"/>
-      <c r="Y320" s="47"/>
-      <c r="Z320" s="47"/>
-      <c r="AA320" s="47"/>
-      <c r="AB320" s="47"/>
+      <c r="S320" s="51"/>
+      <c r="T320" s="51"/>
+      <c r="U320" s="51"/>
+      <c r="V320" s="51"/>
+      <c r="W320" s="51"/>
+      <c r="X320" s="51"/>
+      <c r="Y320" s="51"/>
+      <c r="Z320" s="51"/>
+      <c r="AA320" s="51"/>
+      <c r="AB320" s="51"/>
     </row>
     <row r="321" spans="8:28">
-      <c r="H321" s="44"/>
-      <c r="I321" s="46"/>
-      <c r="J321" s="46"/>
+      <c r="H321" s="48"/>
+      <c r="I321" s="50"/>
+      <c r="J321" s="50"/>
       <c r="K321" s="41"/>
       <c r="L321" s="41"/>
       <c r="M321" s="41"/>
@@ -23199,21 +24019,21 @@
       <c r="P321" s="41"/>
       <c r="Q321" s="41"/>
       <c r="R321" s="42"/>
-      <c r="S321" s="47"/>
-      <c r="T321" s="47"/>
-      <c r="U321" s="47"/>
-      <c r="V321" s="47"/>
-      <c r="W321" s="47"/>
-      <c r="X321" s="47"/>
-      <c r="Y321" s="47"/>
-      <c r="Z321" s="47"/>
-      <c r="AA321" s="47"/>
-      <c r="AB321" s="47"/>
+      <c r="S321" s="51"/>
+      <c r="T321" s="51"/>
+      <c r="U321" s="51"/>
+      <c r="V321" s="51"/>
+      <c r="W321" s="51"/>
+      <c r="X321" s="51"/>
+      <c r="Y321" s="51"/>
+      <c r="Z321" s="51"/>
+      <c r="AA321" s="51"/>
+      <c r="AB321" s="51"/>
     </row>
     <row r="322" spans="8:28">
-      <c r="H322" s="44"/>
-      <c r="I322" s="46"/>
-      <c r="J322" s="46"/>
+      <c r="H322" s="48"/>
+      <c r="I322" s="50"/>
+      <c r="J322" s="50"/>
       <c r="K322" s="41"/>
       <c r="L322" s="41"/>
       <c r="M322" s="41"/>
@@ -23222,21 +24042,21 @@
       <c r="P322" s="41"/>
       <c r="Q322" s="41"/>
       <c r="R322" s="42"/>
-      <c r="S322" s="47"/>
-      <c r="T322" s="47"/>
-      <c r="U322" s="47"/>
-      <c r="V322" s="47"/>
-      <c r="W322" s="47"/>
-      <c r="X322" s="47"/>
-      <c r="Y322" s="47"/>
-      <c r="Z322" s="47"/>
-      <c r="AA322" s="47"/>
-      <c r="AB322" s="47"/>
+      <c r="S322" s="51"/>
+      <c r="T322" s="51"/>
+      <c r="U322" s="51"/>
+      <c r="V322" s="51"/>
+      <c r="W322" s="51"/>
+      <c r="X322" s="51"/>
+      <c r="Y322" s="51"/>
+      <c r="Z322" s="51"/>
+      <c r="AA322" s="51"/>
+      <c r="AB322" s="51"/>
     </row>
     <row r="323" spans="8:28">
-      <c r="H323" s="44"/>
-      <c r="I323" s="46"/>
-      <c r="J323" s="46"/>
+      <c r="H323" s="48"/>
+      <c r="I323" s="50"/>
+      <c r="J323" s="50"/>
       <c r="K323" s="41"/>
       <c r="L323" s="41"/>
       <c r="M323" s="41"/>
@@ -23245,16 +24065,16 @@
       <c r="P323" s="41"/>
       <c r="Q323" s="41"/>
       <c r="R323" s="42"/>
-      <c r="S323" s="47"/>
-      <c r="T323" s="47"/>
-      <c r="U323" s="47"/>
-      <c r="V323" s="47"/>
-      <c r="W323" s="47"/>
-      <c r="X323" s="47"/>
-      <c r="Y323" s="47"/>
-      <c r="Z323" s="47"/>
-      <c r="AA323" s="47"/>
-      <c r="AB323" s="47"/>
+      <c r="S323" s="51"/>
+      <c r="T323" s="51"/>
+      <c r="U323" s="51"/>
+      <c r="V323" s="51"/>
+      <c r="W323" s="51"/>
+      <c r="X323" s="51"/>
+      <c r="Y323" s="51"/>
+      <c r="Z323" s="51"/>
+      <c r="AA323" s="51"/>
+      <c r="AB323" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="252">
@@ -24198,21 +25018,21 @@
       <c r="Q79" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="R79" s="125" t="s">
+      <c r="R79" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="S79" s="45" t="s">
+      <c r="S79" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="T79" s="45"/>
-      <c r="U79" s="45"/>
-      <c r="V79" s="45"/>
-      <c r="W79" s="45"/>
-      <c r="X79" s="45"/>
-      <c r="Y79" s="45"/>
-      <c r="Z79" s="45"/>
-      <c r="AA79" s="45"/>
-      <c r="AB79" s="45"/>
+      <c r="T79" s="49"/>
+      <c r="U79" s="49"/>
+      <c r="V79" s="49"/>
+      <c r="W79" s="49"/>
+      <c r="X79" s="49"/>
+      <c r="Y79" s="49"/>
+      <c r="Z79" s="49"/>
+      <c r="AA79" s="49"/>
+      <c r="AB79" s="49"/>
     </row>
     <row r="80" spans="8:28">
       <c r="H80" s="15"/>
@@ -24225,17 +25045,17 @@
       <c r="O80" s="15"/>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
-      <c r="R80" s="44"/>
-      <c r="S80" s="45"/>
-      <c r="T80" s="45"/>
-      <c r="U80" s="45"/>
-      <c r="V80" s="45"/>
-      <c r="W80" s="45"/>
-      <c r="X80" s="45"/>
-      <c r="Y80" s="45"/>
-      <c r="Z80" s="45"/>
-      <c r="AA80" s="45"/>
-      <c r="AB80" s="45"/>
+      <c r="R80" s="48"/>
+      <c r="S80" s="49"/>
+      <c r="T80" s="49"/>
+      <c r="U80" s="49"/>
+      <c r="V80" s="49"/>
+      <c r="W80" s="49"/>
+      <c r="X80" s="49"/>
+      <c r="Y80" s="49"/>
+      <c r="Z80" s="49"/>
+      <c r="AA80" s="49"/>
+      <c r="AB80" s="49"/>
     </row>
     <row r="81" spans="8:28">
       <c r="H81" s="16"/>
@@ -24248,17 +25068,17 @@
       <c r="O81" s="16"/>
       <c r="P81" s="16"/>
       <c r="Q81" s="16"/>
-      <c r="R81" s="44"/>
-      <c r="S81" s="45"/>
-      <c r="T81" s="45"/>
-      <c r="U81" s="45"/>
-      <c r="V81" s="45"/>
-      <c r="W81" s="45"/>
-      <c r="X81" s="45"/>
-      <c r="Y81" s="45"/>
-      <c r="Z81" s="45"/>
-      <c r="AA81" s="45"/>
-      <c r="AB81" s="45"/>
+      <c r="R81" s="48"/>
+      <c r="S81" s="49"/>
+      <c r="T81" s="49"/>
+      <c r="U81" s="49"/>
+      <c r="V81" s="49"/>
+      <c r="W81" s="49"/>
+      <c r="X81" s="49"/>
+      <c r="Y81" s="49"/>
+      <c r="Z81" s="49"/>
+      <c r="AA81" s="49"/>
+      <c r="AB81" s="49"/>
     </row>
     <row r="82" spans="8:28">
       <c r="H82" s="41">
@@ -24274,7 +25094,7 @@
       <c r="L82" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="M82" s="124" t="s">
+      <c r="M82" s="128" t="s">
         <v>39</v>
       </c>
       <c r="N82" s="41"/>
@@ -24290,7 +25110,7 @@
       <c r="R82" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="S82" s="126" t="s">
+      <c r="S82" s="130" t="s">
         <v>165</v>
       </c>
       <c r="T82" s="43"/>
@@ -24367,30 +25187,30 @@
         <v>77</v>
       </c>
       <c r="N85" s="18"/>
-      <c r="O85" s="124" t="s">
+      <c r="O85" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="P85" s="124" t="s">
+      <c r="P85" s="128" t="s">
         <v>39</v>
       </c>
       <c r="Q85" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="R85" s="46" t="s">
+      <c r="R85" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="S85" s="47" t="s">
+      <c r="S85" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="T85" s="47"/>
-      <c r="U85" s="47"/>
-      <c r="V85" s="47"/>
-      <c r="W85" s="47"/>
-      <c r="X85" s="47"/>
-      <c r="Y85" s="47"/>
-      <c r="Z85" s="47"/>
-      <c r="AA85" s="47"/>
-      <c r="AB85" s="47"/>
+      <c r="T85" s="51"/>
+      <c r="U85" s="51"/>
+      <c r="V85" s="51"/>
+      <c r="W85" s="51"/>
+      <c r="X85" s="51"/>
+      <c r="Y85" s="51"/>
+      <c r="Z85" s="51"/>
+      <c r="AA85" s="51"/>
+      <c r="AB85" s="51"/>
     </row>
     <row r="86" spans="8:28">
       <c r="H86" s="41"/>
@@ -24403,17 +25223,17 @@
       <c r="O86" s="41"/>
       <c r="P86" s="41"/>
       <c r="Q86" s="41"/>
-      <c r="R86" s="46"/>
-      <c r="S86" s="47"/>
-      <c r="T86" s="47"/>
-      <c r="U86" s="47"/>
-      <c r="V86" s="47"/>
-      <c r="W86" s="47"/>
-      <c r="X86" s="47"/>
-      <c r="Y86" s="47"/>
-      <c r="Z86" s="47"/>
-      <c r="AA86" s="47"/>
-      <c r="AB86" s="47"/>
+      <c r="R86" s="50"/>
+      <c r="S86" s="51"/>
+      <c r="T86" s="51"/>
+      <c r="U86" s="51"/>
+      <c r="V86" s="51"/>
+      <c r="W86" s="51"/>
+      <c r="X86" s="51"/>
+      <c r="Y86" s="51"/>
+      <c r="Z86" s="51"/>
+      <c r="AA86" s="51"/>
+      <c r="AB86" s="51"/>
     </row>
     <row r="87" spans="8:28">
       <c r="H87" s="41"/>
@@ -24426,17 +25246,17 @@
       <c r="O87" s="41"/>
       <c r="P87" s="41"/>
       <c r="Q87" s="41"/>
-      <c r="R87" s="46"/>
-      <c r="S87" s="47"/>
-      <c r="T87" s="47"/>
-      <c r="U87" s="47"/>
-      <c r="V87" s="47"/>
-      <c r="W87" s="47"/>
-      <c r="X87" s="47"/>
-      <c r="Y87" s="47"/>
-      <c r="Z87" s="47"/>
-      <c r="AA87" s="47"/>
-      <c r="AB87" s="47"/>
+      <c r="R87" s="50"/>
+      <c r="S87" s="51"/>
+      <c r="T87" s="51"/>
+      <c r="U87" s="51"/>
+      <c r="V87" s="51"/>
+      <c r="W87" s="51"/>
+      <c r="X87" s="51"/>
+      <c r="Y87" s="51"/>
+      <c r="Z87" s="51"/>
+      <c r="AA87" s="51"/>
+      <c r="AB87" s="51"/>
     </row>
     <row r="88" spans="8:28">
       <c r="H88" s="42">
@@ -24468,18 +25288,18 @@
       <c r="R88" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="S88" s="48" t="s">
+      <c r="S88" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="T88" s="48"/>
-      <c r="U88" s="48"/>
-      <c r="V88" s="48"/>
-      <c r="W88" s="48"/>
-      <c r="X88" s="48"/>
-      <c r="Y88" s="48"/>
-      <c r="Z88" s="48"/>
-      <c r="AA88" s="48"/>
-      <c r="AB88" s="48"/>
+      <c r="T88" s="52"/>
+      <c r="U88" s="52"/>
+      <c r="V88" s="52"/>
+      <c r="W88" s="52"/>
+      <c r="X88" s="52"/>
+      <c r="Y88" s="52"/>
+      <c r="Z88" s="52"/>
+      <c r="AA88" s="52"/>
+      <c r="AB88" s="52"/>
     </row>
     <row r="89" spans="8:28">
       <c r="H89" s="42"/>
@@ -24493,16 +25313,16 @@
       <c r="P89" s="41"/>
       <c r="Q89" s="41"/>
       <c r="R89" s="42"/>
-      <c r="S89" s="48"/>
-      <c r="T89" s="48"/>
-      <c r="U89" s="48"/>
-      <c r="V89" s="48"/>
-      <c r="W89" s="48"/>
-      <c r="X89" s="48"/>
-      <c r="Y89" s="48"/>
-      <c r="Z89" s="48"/>
-      <c r="AA89" s="48"/>
-      <c r="AB89" s="48"/>
+      <c r="S89" s="52"/>
+      <c r="T89" s="52"/>
+      <c r="U89" s="52"/>
+      <c r="V89" s="52"/>
+      <c r="W89" s="52"/>
+      <c r="X89" s="52"/>
+      <c r="Y89" s="52"/>
+      <c r="Z89" s="52"/>
+      <c r="AA89" s="52"/>
+      <c r="AB89" s="52"/>
     </row>
     <row r="90" spans="8:28">
       <c r="H90" s="42">
@@ -24537,15 +25357,15 @@
       <c r="S90" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="T90" s="48"/>
-      <c r="U90" s="48"/>
-      <c r="V90" s="48"/>
-      <c r="W90" s="48"/>
-      <c r="X90" s="48"/>
-      <c r="Y90" s="48"/>
-      <c r="Z90" s="48"/>
-      <c r="AA90" s="48"/>
-      <c r="AB90" s="48"/>
+      <c r="T90" s="52"/>
+      <c r="U90" s="52"/>
+      <c r="V90" s="52"/>
+      <c r="W90" s="52"/>
+      <c r="X90" s="52"/>
+      <c r="Y90" s="52"/>
+      <c r="Z90" s="52"/>
+      <c r="AA90" s="52"/>
+      <c r="AB90" s="52"/>
     </row>
     <row r="91" spans="8:28">
       <c r="H91" s="42"/>
@@ -24559,16 +25379,16 @@
       <c r="P91" s="41"/>
       <c r="Q91" s="41"/>
       <c r="R91" s="42"/>
-      <c r="S91" s="48"/>
-      <c r="T91" s="48"/>
-      <c r="U91" s="48"/>
-      <c r="V91" s="48"/>
-      <c r="W91" s="48"/>
-      <c r="X91" s="48"/>
-      <c r="Y91" s="48"/>
-      <c r="Z91" s="48"/>
-      <c r="AA91" s="48"/>
-      <c r="AB91" s="48"/>
+      <c r="S91" s="52"/>
+      <c r="T91" s="52"/>
+      <c r="U91" s="52"/>
+      <c r="V91" s="52"/>
+      <c r="W91" s="52"/>
+      <c r="X91" s="52"/>
+      <c r="Y91" s="52"/>
+      <c r="Z91" s="52"/>
+      <c r="AA91" s="52"/>
+      <c r="AB91" s="52"/>
     </row>
     <row r="92" spans="8:28">
       <c r="H92" s="41">
@@ -25552,567 +26372,567 @@
       <c r="AB142" s="13"/>
     </row>
     <row r="143" ht="21" customHeight="1" spans="8:28">
-      <c r="H143" s="44">
+      <c r="H143" s="48">
         <v>1</v>
       </c>
-      <c r="I143" s="46" t="s">
+      <c r="I143" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="J143" s="46"/>
-      <c r="K143" s="44" t="s">
+      <c r="J143" s="50"/>
+      <c r="K143" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="L143" s="44" t="s">
+      <c r="L143" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="M143" s="44" t="s">
+      <c r="M143" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="N143" s="44"/>
-      <c r="O143" s="44" t="s">
+      <c r="N143" s="48"/>
+      <c r="O143" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="P143" s="44" t="s">
+      <c r="P143" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="Q143" s="44" t="s">
+      <c r="Q143" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="R143" s="46" t="s">
+      <c r="R143" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="S143" s="75" t="s">
+      <c r="S143" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="T143" s="75"/>
-      <c r="U143" s="75"/>
-      <c r="V143" s="75"/>
-      <c r="W143" s="75"/>
-      <c r="X143" s="75"/>
-      <c r="Y143" s="75"/>
-      <c r="Z143" s="75"/>
-      <c r="AA143" s="75"/>
-      <c r="AB143" s="75"/>
+      <c r="T143" s="79"/>
+      <c r="U143" s="79"/>
+      <c r="V143" s="79"/>
+      <c r="W143" s="79"/>
+      <c r="X143" s="79"/>
+      <c r="Y143" s="79"/>
+      <c r="Z143" s="79"/>
+      <c r="AA143" s="79"/>
+      <c r="AB143" s="79"/>
     </row>
     <row r="144" spans="8:28">
-      <c r="H144" s="44"/>
-      <c r="I144" s="46"/>
-      <c r="J144" s="46"/>
-      <c r="K144" s="44"/>
-      <c r="L144" s="44"/>
-      <c r="M144" s="44"/>
-      <c r="N144" s="44"/>
-      <c r="O144" s="44"/>
-      <c r="P144" s="44"/>
-      <c r="Q144" s="44"/>
-      <c r="R144" s="46"/>
-      <c r="S144" s="75"/>
-      <c r="T144" s="75"/>
-      <c r="U144" s="75"/>
-      <c r="V144" s="75"/>
-      <c r="W144" s="75"/>
-      <c r="X144" s="75"/>
-      <c r="Y144" s="75"/>
-      <c r="Z144" s="75"/>
-      <c r="AA144" s="75"/>
-      <c r="AB144" s="75"/>
+      <c r="H144" s="48"/>
+      <c r="I144" s="50"/>
+      <c r="J144" s="50"/>
+      <c r="K144" s="48"/>
+      <c r="L144" s="48"/>
+      <c r="M144" s="48"/>
+      <c r="N144" s="48"/>
+      <c r="O144" s="48"/>
+      <c r="P144" s="48"/>
+      <c r="Q144" s="48"/>
+      <c r="R144" s="50"/>
+      <c r="S144" s="79"/>
+      <c r="T144" s="79"/>
+      <c r="U144" s="79"/>
+      <c r="V144" s="79"/>
+      <c r="W144" s="79"/>
+      <c r="X144" s="79"/>
+      <c r="Y144" s="79"/>
+      <c r="Z144" s="79"/>
+      <c r="AA144" s="79"/>
+      <c r="AB144" s="79"/>
     </row>
     <row r="145" ht="20" customHeight="1" spans="8:28">
-      <c r="H145" s="49">
+      <c r="H145" s="53">
         <v>2</v>
       </c>
-      <c r="I145" s="55" t="s">
+      <c r="I145" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="J145" s="56"/>
-      <c r="K145" s="49" t="s">
+      <c r="J145" s="60"/>
+      <c r="K145" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="L145" s="49" t="s">
+      <c r="L145" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="M145" s="57" t="s">
+      <c r="M145" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="N145" s="58"/>
-      <c r="O145" s="49">
+      <c r="N145" s="62"/>
+      <c r="O145" s="53">
         <v>99</v>
       </c>
-      <c r="P145" s="49" t="s">
+      <c r="P145" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="Q145" s="49" t="s">
+      <c r="Q145" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="R145" s="49" t="s">
+      <c r="R145" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="S145" s="76" t="s">
+      <c r="S145" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="T145" s="77"/>
-      <c r="U145" s="77"/>
-      <c r="V145" s="77"/>
-      <c r="W145" s="77"/>
-      <c r="X145" s="77"/>
-      <c r="Y145" s="77"/>
-      <c r="Z145" s="77"/>
-      <c r="AA145" s="77"/>
-      <c r="AB145" s="88"/>
+      <c r="T145" s="81"/>
+      <c r="U145" s="81"/>
+      <c r="V145" s="81"/>
+      <c r="W145" s="81"/>
+      <c r="X145" s="81"/>
+      <c r="Y145" s="81"/>
+      <c r="Z145" s="81"/>
+      <c r="AA145" s="81"/>
+      <c r="AB145" s="92"/>
     </row>
     <row r="146" spans="8:28">
-      <c r="H146" s="50"/>
-      <c r="I146" s="59"/>
-      <c r="J146" s="60"/>
-      <c r="K146" s="50"/>
-      <c r="L146" s="50"/>
-      <c r="M146" s="61"/>
-      <c r="N146" s="62"/>
-      <c r="O146" s="50"/>
-      <c r="P146" s="50"/>
-      <c r="Q146" s="50"/>
-      <c r="R146" s="50"/>
-      <c r="S146" s="78"/>
-      <c r="T146" s="79"/>
-      <c r="U146" s="79"/>
-      <c r="V146" s="79"/>
-      <c r="W146" s="79"/>
-      <c r="X146" s="79"/>
-      <c r="Y146" s="79"/>
-      <c r="Z146" s="79"/>
-      <c r="AA146" s="79"/>
-      <c r="AB146" s="89"/>
+      <c r="H146" s="54"/>
+      <c r="I146" s="63"/>
+      <c r="J146" s="64"/>
+      <c r="K146" s="54"/>
+      <c r="L146" s="54"/>
+      <c r="M146" s="65"/>
+      <c r="N146" s="66"/>
+      <c r="O146" s="54"/>
+      <c r="P146" s="54"/>
+      <c r="Q146" s="54"/>
+      <c r="R146" s="54"/>
+      <c r="S146" s="82"/>
+      <c r="T146" s="83"/>
+      <c r="U146" s="83"/>
+      <c r="V146" s="83"/>
+      <c r="W146" s="83"/>
+      <c r="X146" s="83"/>
+      <c r="Y146" s="83"/>
+      <c r="Z146" s="83"/>
+      <c r="AA146" s="83"/>
+      <c r="AB146" s="93"/>
     </row>
     <row r="147" spans="8:28">
-      <c r="H147" s="50"/>
-      <c r="I147" s="59"/>
-      <c r="J147" s="60"/>
-      <c r="K147" s="50"/>
-      <c r="L147" s="50"/>
-      <c r="M147" s="61"/>
-      <c r="N147" s="62"/>
-      <c r="O147" s="50"/>
-      <c r="P147" s="50"/>
-      <c r="Q147" s="50"/>
-      <c r="R147" s="50"/>
-      <c r="S147" s="78"/>
-      <c r="T147" s="79"/>
-      <c r="U147" s="79"/>
-      <c r="V147" s="79"/>
-      <c r="W147" s="79"/>
-      <c r="X147" s="79"/>
-      <c r="Y147" s="79"/>
-      <c r="Z147" s="79"/>
-      <c r="AA147" s="79"/>
-      <c r="AB147" s="89"/>
+      <c r="H147" s="54"/>
+      <c r="I147" s="63"/>
+      <c r="J147" s="64"/>
+      <c r="K147" s="54"/>
+      <c r="L147" s="54"/>
+      <c r="M147" s="65"/>
+      <c r="N147" s="66"/>
+      <c r="O147" s="54"/>
+      <c r="P147" s="54"/>
+      <c r="Q147" s="54"/>
+      <c r="R147" s="54"/>
+      <c r="S147" s="82"/>
+      <c r="T147" s="83"/>
+      <c r="U147" s="83"/>
+      <c r="V147" s="83"/>
+      <c r="W147" s="83"/>
+      <c r="X147" s="83"/>
+      <c r="Y147" s="83"/>
+      <c r="Z147" s="83"/>
+      <c r="AA147" s="83"/>
+      <c r="AB147" s="93"/>
     </row>
     <row r="148" spans="8:28">
-      <c r="H148" s="50"/>
-      <c r="I148" s="59"/>
-      <c r="J148" s="60"/>
-      <c r="K148" s="50"/>
-      <c r="L148" s="50"/>
-      <c r="M148" s="61"/>
-      <c r="N148" s="62"/>
-      <c r="O148" s="50"/>
-      <c r="P148" s="50"/>
-      <c r="Q148" s="50"/>
-      <c r="R148" s="50"/>
-      <c r="S148" s="78"/>
-      <c r="T148" s="79"/>
-      <c r="U148" s="79"/>
-      <c r="V148" s="79"/>
-      <c r="W148" s="79"/>
-      <c r="X148" s="79"/>
-      <c r="Y148" s="79"/>
-      <c r="Z148" s="79"/>
-      <c r="AA148" s="79"/>
-      <c r="AB148" s="89"/>
+      <c r="H148" s="54"/>
+      <c r="I148" s="63"/>
+      <c r="J148" s="64"/>
+      <c r="K148" s="54"/>
+      <c r="L148" s="54"/>
+      <c r="M148" s="65"/>
+      <c r="N148" s="66"/>
+      <c r="O148" s="54"/>
+      <c r="P148" s="54"/>
+      <c r="Q148" s="54"/>
+      <c r="R148" s="54"/>
+      <c r="S148" s="82"/>
+      <c r="T148" s="83"/>
+      <c r="U148" s="83"/>
+      <c r="V148" s="83"/>
+      <c r="W148" s="83"/>
+      <c r="X148" s="83"/>
+      <c r="Y148" s="83"/>
+      <c r="Z148" s="83"/>
+      <c r="AA148" s="83"/>
+      <c r="AB148" s="93"/>
     </row>
     <row r="149" spans="8:28">
-      <c r="H149" s="50"/>
-      <c r="I149" s="59"/>
-      <c r="J149" s="60"/>
-      <c r="K149" s="50"/>
-      <c r="L149" s="50"/>
-      <c r="M149" s="61"/>
-      <c r="N149" s="62"/>
-      <c r="O149" s="50"/>
-      <c r="P149" s="50"/>
-      <c r="Q149" s="50"/>
-      <c r="R149" s="50"/>
-      <c r="S149" s="78"/>
-      <c r="T149" s="79"/>
-      <c r="U149" s="79"/>
-      <c r="V149" s="79"/>
-      <c r="W149" s="79"/>
-      <c r="X149" s="79"/>
-      <c r="Y149" s="79"/>
-      <c r="Z149" s="79"/>
-      <c r="AA149" s="79"/>
-      <c r="AB149" s="89"/>
+      <c r="H149" s="54"/>
+      <c r="I149" s="63"/>
+      <c r="J149" s="64"/>
+      <c r="K149" s="54"/>
+      <c r="L149" s="54"/>
+      <c r="M149" s="65"/>
+      <c r="N149" s="66"/>
+      <c r="O149" s="54"/>
+      <c r="P149" s="54"/>
+      <c r="Q149" s="54"/>
+      <c r="R149" s="54"/>
+      <c r="S149" s="82"/>
+      <c r="T149" s="83"/>
+      <c r="U149" s="83"/>
+      <c r="V149" s="83"/>
+      <c r="W149" s="83"/>
+      <c r="X149" s="83"/>
+      <c r="Y149" s="83"/>
+      <c r="Z149" s="83"/>
+      <c r="AA149" s="83"/>
+      <c r="AB149" s="93"/>
     </row>
     <row r="150" spans="8:28">
-      <c r="H150" s="50"/>
-      <c r="I150" s="59"/>
-      <c r="J150" s="60"/>
-      <c r="K150" s="50"/>
-      <c r="L150" s="50"/>
-      <c r="M150" s="61"/>
-      <c r="N150" s="62"/>
-      <c r="O150" s="50"/>
-      <c r="P150" s="50"/>
-      <c r="Q150" s="50"/>
-      <c r="R150" s="50"/>
-      <c r="S150" s="78"/>
-      <c r="T150" s="79"/>
-      <c r="U150" s="79"/>
-      <c r="V150" s="79"/>
-      <c r="W150" s="79"/>
-      <c r="X150" s="79"/>
-      <c r="Y150" s="79"/>
-      <c r="Z150" s="79"/>
-      <c r="AA150" s="79"/>
-      <c r="AB150" s="89"/>
+      <c r="H150" s="54"/>
+      <c r="I150" s="63"/>
+      <c r="J150" s="64"/>
+      <c r="K150" s="54"/>
+      <c r="L150" s="54"/>
+      <c r="M150" s="65"/>
+      <c r="N150" s="66"/>
+      <c r="O150" s="54"/>
+      <c r="P150" s="54"/>
+      <c r="Q150" s="54"/>
+      <c r="R150" s="54"/>
+      <c r="S150" s="82"/>
+      <c r="T150" s="83"/>
+      <c r="U150" s="83"/>
+      <c r="V150" s="83"/>
+      <c r="W150" s="83"/>
+      <c r="X150" s="83"/>
+      <c r="Y150" s="83"/>
+      <c r="Z150" s="83"/>
+      <c r="AA150" s="83"/>
+      <c r="AB150" s="93"/>
     </row>
     <row r="151" spans="8:28">
-      <c r="H151" s="50"/>
-      <c r="I151" s="59"/>
-      <c r="J151" s="60"/>
-      <c r="K151" s="50"/>
-      <c r="L151" s="50"/>
-      <c r="M151" s="61"/>
-      <c r="N151" s="62"/>
-      <c r="O151" s="50"/>
-      <c r="P151" s="50"/>
-      <c r="Q151" s="50"/>
-      <c r="R151" s="50"/>
-      <c r="S151" s="78"/>
-      <c r="T151" s="79"/>
-      <c r="U151" s="79"/>
-      <c r="V151" s="79"/>
-      <c r="W151" s="79"/>
-      <c r="X151" s="79"/>
-      <c r="Y151" s="79"/>
-      <c r="Z151" s="79"/>
-      <c r="AA151" s="79"/>
-      <c r="AB151" s="89"/>
+      <c r="H151" s="54"/>
+      <c r="I151" s="63"/>
+      <c r="J151" s="64"/>
+      <c r="K151" s="54"/>
+      <c r="L151" s="54"/>
+      <c r="M151" s="65"/>
+      <c r="N151" s="66"/>
+      <c r="O151" s="54"/>
+      <c r="P151" s="54"/>
+      <c r="Q151" s="54"/>
+      <c r="R151" s="54"/>
+      <c r="S151" s="82"/>
+      <c r="T151" s="83"/>
+      <c r="U151" s="83"/>
+      <c r="V151" s="83"/>
+      <c r="W151" s="83"/>
+      <c r="X151" s="83"/>
+      <c r="Y151" s="83"/>
+      <c r="Z151" s="83"/>
+      <c r="AA151" s="83"/>
+      <c r="AB151" s="93"/>
     </row>
     <row r="152" spans="8:28">
-      <c r="H152" s="50"/>
-      <c r="I152" s="59"/>
-      <c r="J152" s="60"/>
-      <c r="K152" s="50"/>
-      <c r="L152" s="50"/>
-      <c r="M152" s="61"/>
-      <c r="N152" s="62"/>
-      <c r="O152" s="50"/>
-      <c r="P152" s="50"/>
-      <c r="Q152" s="50"/>
-      <c r="R152" s="50"/>
-      <c r="S152" s="78"/>
-      <c r="T152" s="79"/>
-      <c r="U152" s="79"/>
-      <c r="V152" s="79"/>
-      <c r="W152" s="79"/>
-      <c r="X152" s="79"/>
-      <c r="Y152" s="79"/>
-      <c r="Z152" s="79"/>
-      <c r="AA152" s="79"/>
-      <c r="AB152" s="89"/>
+      <c r="H152" s="54"/>
+      <c r="I152" s="63"/>
+      <c r="J152" s="64"/>
+      <c r="K152" s="54"/>
+      <c r="L152" s="54"/>
+      <c r="M152" s="65"/>
+      <c r="N152" s="66"/>
+      <c r="O152" s="54"/>
+      <c r="P152" s="54"/>
+      <c r="Q152" s="54"/>
+      <c r="R152" s="54"/>
+      <c r="S152" s="82"/>
+      <c r="T152" s="83"/>
+      <c r="U152" s="83"/>
+      <c r="V152" s="83"/>
+      <c r="W152" s="83"/>
+      <c r="X152" s="83"/>
+      <c r="Y152" s="83"/>
+      <c r="Z152" s="83"/>
+      <c r="AA152" s="83"/>
+      <c r="AB152" s="93"/>
     </row>
     <row r="153" spans="8:28">
-      <c r="H153" s="50"/>
-      <c r="I153" s="59"/>
-      <c r="J153" s="60"/>
-      <c r="K153" s="50"/>
-      <c r="L153" s="50"/>
-      <c r="M153" s="61"/>
-      <c r="N153" s="62"/>
-      <c r="O153" s="50"/>
-      <c r="P153" s="50"/>
-      <c r="Q153" s="50"/>
-      <c r="R153" s="50"/>
-      <c r="S153" s="78"/>
-      <c r="T153" s="79"/>
-      <c r="U153" s="79"/>
-      <c r="V153" s="79"/>
-      <c r="W153" s="79"/>
-      <c r="X153" s="79"/>
-      <c r="Y153" s="79"/>
-      <c r="Z153" s="79"/>
-      <c r="AA153" s="79"/>
-      <c r="AB153" s="89"/>
+      <c r="H153" s="54"/>
+      <c r="I153" s="63"/>
+      <c r="J153" s="64"/>
+      <c r="K153" s="54"/>
+      <c r="L153" s="54"/>
+      <c r="M153" s="65"/>
+      <c r="N153" s="66"/>
+      <c r="O153" s="54"/>
+      <c r="P153" s="54"/>
+      <c r="Q153" s="54"/>
+      <c r="R153" s="54"/>
+      <c r="S153" s="82"/>
+      <c r="T153" s="83"/>
+      <c r="U153" s="83"/>
+      <c r="V153" s="83"/>
+      <c r="W153" s="83"/>
+      <c r="X153" s="83"/>
+      <c r="Y153" s="83"/>
+      <c r="Z153" s="83"/>
+      <c r="AA153" s="83"/>
+      <c r="AB153" s="93"/>
     </row>
     <row r="154" spans="8:28">
-      <c r="H154" s="51"/>
-      <c r="I154" s="63"/>
-      <c r="J154" s="64"/>
-      <c r="K154" s="51"/>
-      <c r="L154" s="51"/>
-      <c r="M154" s="65"/>
-      <c r="N154" s="66"/>
-      <c r="O154" s="51"/>
-      <c r="P154" s="51"/>
-      <c r="Q154" s="51"/>
-      <c r="R154" s="51"/>
-      <c r="S154" s="80"/>
-      <c r="T154" s="81"/>
-      <c r="U154" s="81"/>
-      <c r="V154" s="81"/>
-      <c r="W154" s="81"/>
-      <c r="X154" s="81"/>
-      <c r="Y154" s="81"/>
-      <c r="Z154" s="81"/>
-      <c r="AA154" s="81"/>
-      <c r="AB154" s="90"/>
+      <c r="H154" s="55"/>
+      <c r="I154" s="67"/>
+      <c r="J154" s="68"/>
+      <c r="K154" s="55"/>
+      <c r="L154" s="55"/>
+      <c r="M154" s="69"/>
+      <c r="N154" s="70"/>
+      <c r="O154" s="55"/>
+      <c r="P154" s="55"/>
+      <c r="Q154" s="55"/>
+      <c r="R154" s="55"/>
+      <c r="S154" s="84"/>
+      <c r="T154" s="85"/>
+      <c r="U154" s="85"/>
+      <c r="V154" s="85"/>
+      <c r="W154" s="85"/>
+      <c r="X154" s="85"/>
+      <c r="Y154" s="85"/>
+      <c r="Z154" s="85"/>
+      <c r="AA154" s="85"/>
+      <c r="AB154" s="94"/>
     </row>
     <row r="155" spans="8:28">
-      <c r="H155" s="52">
+      <c r="H155" s="56">
         <v>3</v>
       </c>
-      <c r="I155" s="67" t="s">
+      <c r="I155" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="J155" s="67"/>
-      <c r="K155" s="68" t="s">
+      <c r="J155" s="71"/>
+      <c r="K155" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="L155" s="68" t="s">
+      <c r="L155" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="M155" s="69" t="s">
+      <c r="M155" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N155" s="69"/>
-      <c r="O155" s="68" t="s">
+      <c r="N155" s="73"/>
+      <c r="O155" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="P155" s="68" t="s">
+      <c r="P155" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="Q155" s="68" t="s">
+      <c r="Q155" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="R155" s="82" t="s">
+      <c r="R155" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="S155" s="83" t="s">
+      <c r="S155" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="T155" s="83"/>
-      <c r="U155" s="83"/>
-      <c r="V155" s="83"/>
-      <c r="W155" s="83"/>
-      <c r="X155" s="83"/>
-      <c r="Y155" s="83"/>
-      <c r="Z155" s="83"/>
-      <c r="AA155" s="83"/>
-      <c r="AB155" s="83"/>
+      <c r="T155" s="87"/>
+      <c r="U155" s="87"/>
+      <c r="V155" s="87"/>
+      <c r="W155" s="87"/>
+      <c r="X155" s="87"/>
+      <c r="Y155" s="87"/>
+      <c r="Z155" s="87"/>
+      <c r="AA155" s="87"/>
+      <c r="AB155" s="87"/>
     </row>
     <row r="156" spans="8:28">
-      <c r="H156" s="52"/>
-      <c r="I156" s="67"/>
-      <c r="J156" s="67"/>
-      <c r="K156" s="68"/>
-      <c r="L156" s="68"/>
-      <c r="M156" s="69"/>
-      <c r="N156" s="69"/>
-      <c r="O156" s="68"/>
-      <c r="P156" s="68"/>
-      <c r="Q156" s="68"/>
-      <c r="R156" s="84"/>
-      <c r="S156" s="83"/>
-      <c r="T156" s="83"/>
-      <c r="U156" s="83"/>
-      <c r="V156" s="83"/>
-      <c r="W156" s="83"/>
-      <c r="X156" s="83"/>
-      <c r="Y156" s="83"/>
-      <c r="Z156" s="83"/>
-      <c r="AA156" s="83"/>
-      <c r="AB156" s="83"/>
+      <c r="H156" s="56"/>
+      <c r="I156" s="71"/>
+      <c r="J156" s="71"/>
+      <c r="K156" s="72"/>
+      <c r="L156" s="72"/>
+      <c r="M156" s="73"/>
+      <c r="N156" s="73"/>
+      <c r="O156" s="72"/>
+      <c r="P156" s="72"/>
+      <c r="Q156" s="72"/>
+      <c r="R156" s="88"/>
+      <c r="S156" s="87"/>
+      <c r="T156" s="87"/>
+      <c r="U156" s="87"/>
+      <c r="V156" s="87"/>
+      <c r="W156" s="87"/>
+      <c r="X156" s="87"/>
+      <c r="Y156" s="87"/>
+      <c r="Z156" s="87"/>
+      <c r="AA156" s="87"/>
+      <c r="AB156" s="87"/>
     </row>
     <row r="157" spans="8:28">
-      <c r="H157" s="53"/>
-      <c r="I157" s="70"/>
-      <c r="J157" s="70"/>
-      <c r="K157" s="49"/>
-      <c r="L157" s="49"/>
-      <c r="M157" s="71"/>
-      <c r="N157" s="71"/>
-      <c r="O157" s="49"/>
-      <c r="P157" s="49"/>
-      <c r="Q157" s="49"/>
-      <c r="R157" s="85"/>
-      <c r="S157" s="86"/>
-      <c r="T157" s="86"/>
-      <c r="U157" s="86"/>
-      <c r="V157" s="86"/>
-      <c r="W157" s="86"/>
-      <c r="X157" s="86"/>
-      <c r="Y157" s="86"/>
-      <c r="Z157" s="86"/>
-      <c r="AA157" s="86"/>
-      <c r="AB157" s="86"/>
+      <c r="H157" s="57"/>
+      <c r="I157" s="74"/>
+      <c r="J157" s="74"/>
+      <c r="K157" s="53"/>
+      <c r="L157" s="53"/>
+      <c r="M157" s="75"/>
+      <c r="N157" s="75"/>
+      <c r="O157" s="53"/>
+      <c r="P157" s="53"/>
+      <c r="Q157" s="53"/>
+      <c r="R157" s="89"/>
+      <c r="S157" s="90"/>
+      <c r="T157" s="90"/>
+      <c r="U157" s="90"/>
+      <c r="V157" s="90"/>
+      <c r="W157" s="90"/>
+      <c r="X157" s="90"/>
+      <c r="Y157" s="90"/>
+      <c r="Z157" s="90"/>
+      <c r="AA157" s="90"/>
+      <c r="AB157" s="90"/>
     </row>
     <row r="158" spans="8:28">
-      <c r="H158" s="54">
+      <c r="H158" s="58">
         <v>4</v>
       </c>
-      <c r="I158" s="72" t="s">
+      <c r="I158" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="J158" s="72"/>
-      <c r="K158" s="73" t="s">
+      <c r="J158" s="76"/>
+      <c r="K158" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="L158" s="73" t="s">
+      <c r="L158" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="M158" s="74" t="s">
+      <c r="M158" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="N158" s="74"/>
-      <c r="O158" s="73" t="s">
+      <c r="N158" s="78"/>
+      <c r="O158" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="P158" s="73" t="s">
+      <c r="P158" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="Q158" s="73" t="s">
+      <c r="Q158" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="R158" s="72" t="s">
+      <c r="R158" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="S158" s="87" t="s">
+      <c r="S158" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="T158" s="87"/>
-      <c r="U158" s="87"/>
-      <c r="V158" s="87"/>
-      <c r="W158" s="87"/>
-      <c r="X158" s="87"/>
-      <c r="Y158" s="87"/>
-      <c r="Z158" s="87"/>
-      <c r="AA158" s="87"/>
-      <c r="AB158" s="87"/>
+      <c r="T158" s="91"/>
+      <c r="U158" s="91"/>
+      <c r="V158" s="91"/>
+      <c r="W158" s="91"/>
+      <c r="X158" s="91"/>
+      <c r="Y158" s="91"/>
+      <c r="Z158" s="91"/>
+      <c r="AA158" s="91"/>
+      <c r="AB158" s="91"/>
     </row>
     <row r="159" spans="8:28">
-      <c r="H159" s="54"/>
-      <c r="I159" s="72"/>
-      <c r="J159" s="72"/>
-      <c r="K159" s="73"/>
-      <c r="L159" s="73"/>
-      <c r="M159" s="74"/>
-      <c r="N159" s="74"/>
-      <c r="O159" s="73"/>
-      <c r="P159" s="73"/>
-      <c r="Q159" s="73"/>
-      <c r="R159" s="72"/>
-      <c r="S159" s="87"/>
-      <c r="T159" s="87"/>
-      <c r="U159" s="87"/>
-      <c r="V159" s="87"/>
-      <c r="W159" s="87"/>
-      <c r="X159" s="87"/>
-      <c r="Y159" s="87"/>
-      <c r="Z159" s="87"/>
-      <c r="AA159" s="87"/>
-      <c r="AB159" s="87"/>
+      <c r="H159" s="58"/>
+      <c r="I159" s="76"/>
+      <c r="J159" s="76"/>
+      <c r="K159" s="77"/>
+      <c r="L159" s="77"/>
+      <c r="M159" s="78"/>
+      <c r="N159" s="78"/>
+      <c r="O159" s="77"/>
+      <c r="P159" s="77"/>
+      <c r="Q159" s="77"/>
+      <c r="R159" s="76"/>
+      <c r="S159" s="91"/>
+      <c r="T159" s="91"/>
+      <c r="U159" s="91"/>
+      <c r="V159" s="91"/>
+      <c r="W159" s="91"/>
+      <c r="X159" s="91"/>
+      <c r="Y159" s="91"/>
+      <c r="Z159" s="91"/>
+      <c r="AA159" s="91"/>
+      <c r="AB159" s="91"/>
     </row>
     <row r="160" spans="8:28">
-      <c r="H160" s="54"/>
-      <c r="I160" s="72"/>
-      <c r="J160" s="72"/>
-      <c r="K160" s="73"/>
-      <c r="L160" s="73"/>
-      <c r="M160" s="74"/>
-      <c r="N160" s="74"/>
-      <c r="O160" s="73"/>
-      <c r="P160" s="73"/>
-      <c r="Q160" s="73"/>
-      <c r="R160" s="72"/>
-      <c r="S160" s="87"/>
-      <c r="T160" s="87"/>
-      <c r="U160" s="87"/>
-      <c r="V160" s="87"/>
-      <c r="W160" s="87"/>
-      <c r="X160" s="87"/>
-      <c r="Y160" s="87"/>
-      <c r="Z160" s="87"/>
-      <c r="AA160" s="87"/>
-      <c r="AB160" s="87"/>
+      <c r="H160" s="58"/>
+      <c r="I160" s="76"/>
+      <c r="J160" s="76"/>
+      <c r="K160" s="77"/>
+      <c r="L160" s="77"/>
+      <c r="M160" s="78"/>
+      <c r="N160" s="78"/>
+      <c r="O160" s="77"/>
+      <c r="P160" s="77"/>
+      <c r="Q160" s="77"/>
+      <c r="R160" s="76"/>
+      <c r="S160" s="91"/>
+      <c r="T160" s="91"/>
+      <c r="U160" s="91"/>
+      <c r="V160" s="91"/>
+      <c r="W160" s="91"/>
+      <c r="X160" s="91"/>
+      <c r="Y160" s="91"/>
+      <c r="Z160" s="91"/>
+      <c r="AA160" s="91"/>
+      <c r="AB160" s="91"/>
     </row>
     <row r="161" spans="8:28">
-      <c r="H161" s="54"/>
-      <c r="I161" s="72"/>
-      <c r="J161" s="72"/>
-      <c r="K161" s="73"/>
-      <c r="L161" s="73"/>
-      <c r="M161" s="74"/>
-      <c r="N161" s="74"/>
-      <c r="O161" s="73"/>
-      <c r="P161" s="73"/>
-      <c r="Q161" s="73"/>
-      <c r="R161" s="72"/>
-      <c r="S161" s="87"/>
-      <c r="T161" s="87"/>
-      <c r="U161" s="87"/>
-      <c r="V161" s="87"/>
-      <c r="W161" s="87"/>
-      <c r="X161" s="87"/>
-      <c r="Y161" s="87"/>
-      <c r="Z161" s="87"/>
-      <c r="AA161" s="87"/>
-      <c r="AB161" s="87"/>
+      <c r="H161" s="58"/>
+      <c r="I161" s="76"/>
+      <c r="J161" s="76"/>
+      <c r="K161" s="77"/>
+      <c r="L161" s="77"/>
+      <c r="M161" s="78"/>
+      <c r="N161" s="78"/>
+      <c r="O161" s="77"/>
+      <c r="P161" s="77"/>
+      <c r="Q161" s="77"/>
+      <c r="R161" s="76"/>
+      <c r="S161" s="91"/>
+      <c r="T161" s="91"/>
+      <c r="U161" s="91"/>
+      <c r="V161" s="91"/>
+      <c r="W161" s="91"/>
+      <c r="X161" s="91"/>
+      <c r="Y161" s="91"/>
+      <c r="Z161" s="91"/>
+      <c r="AA161" s="91"/>
+      <c r="AB161" s="91"/>
     </row>
     <row r="162" spans="8:28">
-      <c r="H162" s="54"/>
-      <c r="I162" s="72"/>
-      <c r="J162" s="72"/>
-      <c r="K162" s="73"/>
-      <c r="L162" s="73"/>
-      <c r="M162" s="74"/>
-      <c r="N162" s="74"/>
-      <c r="O162" s="73"/>
-      <c r="P162" s="73"/>
-      <c r="Q162" s="73"/>
-      <c r="R162" s="72"/>
-      <c r="S162" s="87"/>
-      <c r="T162" s="87"/>
-      <c r="U162" s="87"/>
-      <c r="V162" s="87"/>
-      <c r="W162" s="87"/>
-      <c r="X162" s="87"/>
-      <c r="Y162" s="87"/>
-      <c r="Z162" s="87"/>
-      <c r="AA162" s="87"/>
-      <c r="AB162" s="87"/>
+      <c r="H162" s="58"/>
+      <c r="I162" s="76"/>
+      <c r="J162" s="76"/>
+      <c r="K162" s="77"/>
+      <c r="L162" s="77"/>
+      <c r="M162" s="78"/>
+      <c r="N162" s="78"/>
+      <c r="O162" s="77"/>
+      <c r="P162" s="77"/>
+      <c r="Q162" s="77"/>
+      <c r="R162" s="76"/>
+      <c r="S162" s="91"/>
+      <c r="T162" s="91"/>
+      <c r="U162" s="91"/>
+      <c r="V162" s="91"/>
+      <c r="W162" s="91"/>
+      <c r="X162" s="91"/>
+      <c r="Y162" s="91"/>
+      <c r="Z162" s="91"/>
+      <c r="AA162" s="91"/>
+      <c r="AB162" s="91"/>
     </row>
     <row r="163" spans="8:28">
-      <c r="H163" s="54"/>
-      <c r="I163" s="72"/>
-      <c r="J163" s="72"/>
-      <c r="K163" s="73"/>
-      <c r="L163" s="73"/>
-      <c r="M163" s="74"/>
-      <c r="N163" s="74"/>
-      <c r="O163" s="73"/>
-      <c r="P163" s="73"/>
-      <c r="Q163" s="73"/>
-      <c r="R163" s="72"/>
-      <c r="S163" s="87"/>
-      <c r="T163" s="87"/>
-      <c r="U163" s="87"/>
-      <c r="V163" s="87"/>
-      <c r="W163" s="87"/>
-      <c r="X163" s="87"/>
-      <c r="Y163" s="87"/>
-      <c r="Z163" s="87"/>
-      <c r="AA163" s="87"/>
-      <c r="AB163" s="87"/>
+      <c r="H163" s="58"/>
+      <c r="I163" s="76"/>
+      <c r="J163" s="76"/>
+      <c r="K163" s="77"/>
+      <c r="L163" s="77"/>
+      <c r="M163" s="78"/>
+      <c r="N163" s="78"/>
+      <c r="O163" s="77"/>
+      <c r="P163" s="77"/>
+      <c r="Q163" s="77"/>
+      <c r="R163" s="76"/>
+      <c r="S163" s="91"/>
+      <c r="T163" s="91"/>
+      <c r="U163" s="91"/>
+      <c r="V163" s="91"/>
+      <c r="W163" s="91"/>
+      <c r="X163" s="91"/>
+      <c r="Y163" s="91"/>
+      <c r="Z163" s="91"/>
+      <c r="AA163" s="91"/>
+      <c r="AB163" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="159">
@@ -26285,10 +27105,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB155"/>
+  <dimension ref="A1:AB184"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="I189" sqref="I189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -27001,7 +27821,7 @@
       <c r="R78" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="S78" s="127" t="s">
+      <c r="S78" s="131" t="s">
         <v>216</v>
       </c>
       <c r="T78" s="33"/>
@@ -27090,7 +27910,7 @@
       <c r="R81" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="S81" s="127" t="s">
+      <c r="S81" s="131" t="s">
         <v>219</v>
       </c>
       <c r="T81" s="33"/>
@@ -27179,7 +27999,7 @@
       <c r="R84" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="S84" s="126" t="s">
+      <c r="S84" s="130" t="s">
         <v>223</v>
       </c>
       <c r="T84" s="43"/>
@@ -27314,7 +28134,7 @@
       <c r="R89" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="S89" s="126" t="s">
+      <c r="S89" s="130" t="s">
         <v>227</v>
       </c>
       <c r="T89" s="43"/>
@@ -27449,7 +28269,7 @@
       <c r="R94" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="S94" s="126" t="s">
+      <c r="S94" s="130" t="s">
         <v>231</v>
       </c>
       <c r="T94" s="43"/>
@@ -27584,7 +28404,7 @@
       <c r="R99" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="S99" s="126" t="s">
+      <c r="S99" s="130" t="s">
         <v>234</v>
       </c>
       <c r="T99" s="43"/>
@@ -28318,7 +29138,7 @@
         <v>45</v>
       </c>
       <c r="N128" s="41"/>
-      <c r="O128" s="124" t="s">
+      <c r="O128" s="128" t="s">
         <v>39</v>
       </c>
       <c r="P128" s="41" t="s">
@@ -28330,7 +29150,7 @@
       <c r="R128" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="S128" s="126" t="s">
+      <c r="S128" s="130" t="s">
         <v>251</v>
       </c>
       <c r="T128" s="43"/>
@@ -28499,7 +29319,7 @@
         <v>255</v>
       </c>
       <c r="N135" s="42"/>
-      <c r="O135" s="124" t="s">
+      <c r="O135" s="128" t="s">
         <v>39</v>
       </c>
       <c r="P135" s="41" t="s">
@@ -28511,7 +29331,7 @@
       <c r="R135" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="S135" s="126" t="s">
+      <c r="S135" s="130" t="s">
         <v>257</v>
       </c>
       <c r="T135" s="43"/>
@@ -28692,7 +29512,7 @@
       <c r="R142" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="S142" s="126" t="s">
+      <c r="S142" s="130" t="s">
         <v>264</v>
       </c>
       <c r="T142" s="43"/>
@@ -29024,8 +29844,420 @@
       <c r="AA155" s="43"/>
       <c r="AB155" s="43"/>
     </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="44" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="159" spans="8:28">
+      <c r="H159" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I159" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J159" s="13"/>
+      <c r="K159" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L159" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M159" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N159" s="13"/>
+      <c r="O159" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P159" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q159" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="R159" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S159" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T159" s="13"/>
+      <c r="U159" s="13"/>
+      <c r="V159" s="13"/>
+      <c r="W159" s="13"/>
+      <c r="X159" s="13"/>
+      <c r="Y159" s="13"/>
+      <c r="Z159" s="13"/>
+      <c r="AA159" s="13"/>
+      <c r="AB159" s="13"/>
+    </row>
+    <row r="160" spans="8:28">
+      <c r="H160" s="14">
+        <v>1</v>
+      </c>
+      <c r="I160" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="J160" s="18"/>
+      <c r="K160" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="L160" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M160" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N160" s="21"/>
+      <c r="O160" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P160" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q160" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="R160" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="S160" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="T160" s="33"/>
+      <c r="U160" s="33"/>
+      <c r="V160" s="33"/>
+      <c r="W160" s="33"/>
+      <c r="X160" s="33"/>
+      <c r="Y160" s="33"/>
+      <c r="Z160" s="33"/>
+      <c r="AA160" s="33"/>
+      <c r="AB160" s="38"/>
+    </row>
+    <row r="161" spans="8:28">
+      <c r="H161" s="15"/>
+      <c r="I161" s="22"/>
+      <c r="J161" s="23"/>
+      <c r="K161" s="24"/>
+      <c r="L161" s="15"/>
+      <c r="M161" s="25"/>
+      <c r="N161" s="26"/>
+      <c r="O161" s="15"/>
+      <c r="P161" s="15"/>
+      <c r="Q161" s="15"/>
+      <c r="R161" s="24"/>
+      <c r="S161" s="34"/>
+      <c r="T161" s="35"/>
+      <c r="U161" s="35"/>
+      <c r="V161" s="35"/>
+      <c r="W161" s="35"/>
+      <c r="X161" s="35"/>
+      <c r="Y161" s="35"/>
+      <c r="Z161" s="35"/>
+      <c r="AA161" s="35"/>
+      <c r="AB161" s="39"/>
+    </row>
+    <row r="162" spans="8:28">
+      <c r="H162" s="16"/>
+      <c r="I162" s="27"/>
+      <c r="J162" s="28"/>
+      <c r="K162" s="29"/>
+      <c r="L162" s="16"/>
+      <c r="M162" s="30"/>
+      <c r="N162" s="31"/>
+      <c r="O162" s="16"/>
+      <c r="P162" s="16"/>
+      <c r="Q162" s="16"/>
+      <c r="R162" s="29"/>
+      <c r="S162" s="36"/>
+      <c r="T162" s="37"/>
+      <c r="U162" s="37"/>
+      <c r="V162" s="37"/>
+      <c r="W162" s="37"/>
+      <c r="X162" s="37"/>
+      <c r="Y162" s="37"/>
+      <c r="Z162" s="37"/>
+      <c r="AA162" s="37"/>
+      <c r="AB162" s="40"/>
+    </row>
+    <row r="163" spans="8:28">
+      <c r="H163" s="45">
+        <v>2</v>
+      </c>
+      <c r="I163" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="J163" s="46"/>
+      <c r="K163" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="L163" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="M163" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="N163" s="45"/>
+      <c r="O163" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P163" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q163" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="R163" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="S163" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="T163" s="47"/>
+      <c r="U163" s="47"/>
+      <c r="V163" s="47"/>
+      <c r="W163" s="47"/>
+      <c r="X163" s="47"/>
+      <c r="Y163" s="47"/>
+      <c r="Z163" s="47"/>
+      <c r="AA163" s="47"/>
+      <c r="AB163" s="47"/>
+    </row>
+    <row r="164" spans="8:28">
+      <c r="H164" s="45"/>
+      <c r="I164" s="46"/>
+      <c r="J164" s="46"/>
+      <c r="K164" s="46"/>
+      <c r="L164" s="45"/>
+      <c r="M164" s="45"/>
+      <c r="N164" s="45"/>
+      <c r="O164" s="45"/>
+      <c r="P164" s="45"/>
+      <c r="Q164" s="45"/>
+      <c r="R164" s="46"/>
+      <c r="S164" s="47"/>
+      <c r="T164" s="47"/>
+      <c r="U164" s="47"/>
+      <c r="V164" s="47"/>
+      <c r="W164" s="47"/>
+      <c r="X164" s="47"/>
+      <c r="Y164" s="47"/>
+      <c r="Z164" s="47"/>
+      <c r="AA164" s="47"/>
+      <c r="AB164" s="47"/>
+    </row>
+    <row r="165" spans="8:28">
+      <c r="H165" s="45"/>
+      <c r="I165" s="46"/>
+      <c r="J165" s="46"/>
+      <c r="K165" s="46"/>
+      <c r="L165" s="45"/>
+      <c r="M165" s="45"/>
+      <c r="N165" s="45"/>
+      <c r="O165" s="45"/>
+      <c r="P165" s="45"/>
+      <c r="Q165" s="45"/>
+      <c r="R165" s="46"/>
+      <c r="S165" s="47"/>
+      <c r="T165" s="47"/>
+      <c r="U165" s="47"/>
+      <c r="V165" s="47"/>
+      <c r="W165" s="47"/>
+      <c r="X165" s="47"/>
+      <c r="Y165" s="47"/>
+      <c r="Z165" s="47"/>
+      <c r="AA165" s="47"/>
+      <c r="AB165" s="47"/>
+    </row>
+    <row r="166" spans="8:28">
+      <c r="H166" s="45"/>
+      <c r="I166" s="46"/>
+      <c r="J166" s="46"/>
+      <c r="K166" s="46"/>
+      <c r="L166" s="45"/>
+      <c r="M166" s="45"/>
+      <c r="N166" s="45"/>
+      <c r="O166" s="45"/>
+      <c r="P166" s="45"/>
+      <c r="Q166" s="45"/>
+      <c r="R166" s="46"/>
+      <c r="S166" s="47"/>
+      <c r="T166" s="47"/>
+      <c r="U166" s="47"/>
+      <c r="V166" s="47"/>
+      <c r="W166" s="47"/>
+      <c r="X166" s="47"/>
+      <c r="Y166" s="47"/>
+      <c r="Z166" s="47"/>
+      <c r="AA166" s="47"/>
+      <c r="AB166" s="47"/>
+    </row>
+    <row r="167" spans="8:28">
+      <c r="H167" s="45"/>
+      <c r="I167" s="46"/>
+      <c r="J167" s="46"/>
+      <c r="K167" s="46"/>
+      <c r="L167" s="45"/>
+      <c r="M167" s="45"/>
+      <c r="N167" s="45"/>
+      <c r="O167" s="45"/>
+      <c r="P167" s="45"/>
+      <c r="Q167" s="45"/>
+      <c r="R167" s="46"/>
+      <c r="S167" s="47"/>
+      <c r="T167" s="47"/>
+      <c r="U167" s="47"/>
+      <c r="V167" s="47"/>
+      <c r="W167" s="47"/>
+      <c r="X167" s="47"/>
+      <c r="Y167" s="47"/>
+      <c r="Z167" s="47"/>
+      <c r="AA167" s="47"/>
+      <c r="AB167" s="47"/>
+    </row>
+    <row r="168" spans="8:28">
+      <c r="H168" s="45"/>
+      <c r="I168" s="46"/>
+      <c r="J168" s="46"/>
+      <c r="K168" s="46"/>
+      <c r="L168" s="45"/>
+      <c r="M168" s="45"/>
+      <c r="N168" s="45"/>
+      <c r="O168" s="45"/>
+      <c r="P168" s="45"/>
+      <c r="Q168" s="45"/>
+      <c r="R168" s="46"/>
+      <c r="S168" s="47"/>
+      <c r="T168" s="47"/>
+      <c r="U168" s="47"/>
+      <c r="V168" s="47"/>
+      <c r="W168" s="47"/>
+      <c r="X168" s="47"/>
+      <c r="Y168" s="47"/>
+      <c r="Z168" s="47"/>
+      <c r="AA168" s="47"/>
+      <c r="AB168" s="47"/>
+    </row>
+    <row r="169" spans="8:28">
+      <c r="H169" s="45"/>
+      <c r="I169" s="46"/>
+      <c r="J169" s="46"/>
+      <c r="K169" s="46"/>
+      <c r="L169" s="45"/>
+      <c r="M169" s="45"/>
+      <c r="N169" s="45"/>
+      <c r="O169" s="45"/>
+      <c r="P169" s="45"/>
+      <c r="Q169" s="45"/>
+      <c r="R169" s="46"/>
+      <c r="S169" s="47"/>
+      <c r="T169" s="47"/>
+      <c r="U169" s="47"/>
+      <c r="V169" s="47"/>
+      <c r="W169" s="47"/>
+      <c r="X169" s="47"/>
+      <c r="Y169" s="47"/>
+      <c r="Z169" s="47"/>
+      <c r="AA169" s="47"/>
+      <c r="AB169" s="47"/>
+    </row>
+    <row r="170" spans="8:28">
+      <c r="H170" s="14">
+        <v>3</v>
+      </c>
+      <c r="I170" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="J170" s="18"/>
+      <c r="K170" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="L170" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M170" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N170" s="21"/>
+      <c r="O170" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P170" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q170" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="R170" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="S170" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="T170" s="33"/>
+      <c r="U170" s="33"/>
+      <c r="V170" s="33"/>
+      <c r="W170" s="33"/>
+      <c r="X170" s="33"/>
+      <c r="Y170" s="33"/>
+      <c r="Z170" s="33"/>
+      <c r="AA170" s="33"/>
+      <c r="AB170" s="38"/>
+    </row>
+    <row r="171" spans="8:28">
+      <c r="H171" s="15"/>
+      <c r="I171" s="22"/>
+      <c r="J171" s="23"/>
+      <c r="K171" s="24"/>
+      <c r="L171" s="15"/>
+      <c r="M171" s="25"/>
+      <c r="N171" s="26"/>
+      <c r="O171" s="15"/>
+      <c r="P171" s="15"/>
+      <c r="Q171" s="15"/>
+      <c r="R171" s="24"/>
+      <c r="S171" s="34"/>
+      <c r="T171" s="35"/>
+      <c r="U171" s="35"/>
+      <c r="V171" s="35"/>
+      <c r="W171" s="35"/>
+      <c r="X171" s="35"/>
+      <c r="Y171" s="35"/>
+      <c r="Z171" s="35"/>
+      <c r="AA171" s="35"/>
+      <c r="AB171" s="39"/>
+    </row>
+    <row r="172" spans="8:28">
+      <c r="H172" s="16"/>
+      <c r="I172" s="27"/>
+      <c r="J172" s="28"/>
+      <c r="K172" s="29"/>
+      <c r="L172" s="16"/>
+      <c r="M172" s="30"/>
+      <c r="N172" s="31"/>
+      <c r="O172" s="16"/>
+      <c r="P172" s="16"/>
+      <c r="Q172" s="16"/>
+      <c r="R172" s="29"/>
+      <c r="S172" s="36"/>
+      <c r="T172" s="37"/>
+      <c r="U172" s="37"/>
+      <c r="V172" s="37"/>
+      <c r="W172" s="37"/>
+      <c r="X172" s="37"/>
+      <c r="Y172" s="37"/>
+      <c r="Z172" s="37"/>
+      <c r="AA172" s="37"/>
+      <c r="AB172" s="40"/>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="183">
+  <mergeCells count="216">
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="C54:D54"/>
@@ -29039,6 +30271,9 @@
     <mergeCell ref="I106:J106"/>
     <mergeCell ref="M106:N106"/>
     <mergeCell ref="S106:AB106"/>
+    <mergeCell ref="I159:J159"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="S159:AB159"/>
     <mergeCell ref="H60:H62"/>
     <mergeCell ref="H63:H65"/>
     <mergeCell ref="H75:H77"/>
@@ -29056,6 +30291,9 @@
     <mergeCell ref="H135:H141"/>
     <mergeCell ref="H142:H148"/>
     <mergeCell ref="H149:H155"/>
+    <mergeCell ref="H160:H162"/>
+    <mergeCell ref="H163:H169"/>
+    <mergeCell ref="H170:H172"/>
     <mergeCell ref="K60:K62"/>
     <mergeCell ref="K63:K65"/>
     <mergeCell ref="K75:K77"/>
@@ -29073,6 +30311,9 @@
     <mergeCell ref="K135:K141"/>
     <mergeCell ref="K142:K148"/>
     <mergeCell ref="K149:K155"/>
+    <mergeCell ref="K160:K162"/>
+    <mergeCell ref="K163:K169"/>
+    <mergeCell ref="K170:K172"/>
     <mergeCell ref="L60:L62"/>
     <mergeCell ref="L63:L65"/>
     <mergeCell ref="L75:L77"/>
@@ -29090,6 +30331,9 @@
     <mergeCell ref="L135:L141"/>
     <mergeCell ref="L142:L148"/>
     <mergeCell ref="L149:L155"/>
+    <mergeCell ref="L160:L162"/>
+    <mergeCell ref="L163:L169"/>
+    <mergeCell ref="L170:L172"/>
     <mergeCell ref="O60:O62"/>
     <mergeCell ref="O63:O65"/>
     <mergeCell ref="O75:O77"/>
@@ -29107,6 +30351,9 @@
     <mergeCell ref="O135:O141"/>
     <mergeCell ref="O142:O148"/>
     <mergeCell ref="O149:O155"/>
+    <mergeCell ref="O160:O162"/>
+    <mergeCell ref="O163:O169"/>
+    <mergeCell ref="O170:O172"/>
     <mergeCell ref="P60:P62"/>
     <mergeCell ref="P63:P65"/>
     <mergeCell ref="P75:P77"/>
@@ -29124,6 +30371,9 @@
     <mergeCell ref="P135:P141"/>
     <mergeCell ref="P142:P148"/>
     <mergeCell ref="P149:P155"/>
+    <mergeCell ref="P160:P162"/>
+    <mergeCell ref="P163:P169"/>
+    <mergeCell ref="P170:P172"/>
     <mergeCell ref="Q60:Q62"/>
     <mergeCell ref="Q63:Q65"/>
     <mergeCell ref="Q75:Q77"/>
@@ -29141,6 +30391,9 @@
     <mergeCell ref="Q135:Q141"/>
     <mergeCell ref="Q142:Q148"/>
     <mergeCell ref="Q149:Q155"/>
+    <mergeCell ref="Q160:Q162"/>
+    <mergeCell ref="Q163:Q169"/>
+    <mergeCell ref="Q170:Q172"/>
     <mergeCell ref="R60:R62"/>
     <mergeCell ref="R63:R65"/>
     <mergeCell ref="R75:R77"/>
@@ -29158,6 +30411,9 @@
     <mergeCell ref="R135:R141"/>
     <mergeCell ref="R142:R148"/>
     <mergeCell ref="R149:R155"/>
+    <mergeCell ref="R160:R162"/>
+    <mergeCell ref="R163:R169"/>
+    <mergeCell ref="R170:R172"/>
     <mergeCell ref="I60:J62"/>
     <mergeCell ref="M60:N62"/>
     <mergeCell ref="S60:AB62"/>
@@ -29209,6 +30465,15 @@
     <mergeCell ref="I149:J155"/>
     <mergeCell ref="M149:N155"/>
     <mergeCell ref="S149:AB155"/>
+    <mergeCell ref="I160:J162"/>
+    <mergeCell ref="M160:N162"/>
+    <mergeCell ref="S160:AB162"/>
+    <mergeCell ref="S163:AB169"/>
+    <mergeCell ref="I163:J169"/>
+    <mergeCell ref="M163:N169"/>
+    <mergeCell ref="I170:J172"/>
+    <mergeCell ref="M170:N172"/>
+    <mergeCell ref="S170:AB172"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
